--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C9588-F631-4C30-A69A-906445B7BCAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
   <si>
     <t>x</t>
   </si>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -311,7 +310,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -438,7 +437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -452,11 +451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2057857584"/>
-        <c:axId val="1338345344"/>
+        <c:axId val="49927808"/>
+        <c:axId val="49928384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2057857584"/>
+        <c:axId val="49927808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -505,6 +504,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -513,26 +513,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -571,13 +551,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338345344"/>
+        <c:crossAx val="49928384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338345344"/>
+        <c:axId val="49928384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,6 +604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -632,26 +613,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -690,7 +651,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057857584"/>
+        <c:crossAx val="49927808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,6 +665,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -735,14 +697,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -778,622 +740,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Calculation</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$R$32:$R$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-153.10146494358798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5570188447830446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.120473666489033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.085042624176026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.775411663949001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46.519683463871047</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52.333574159443003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.791222630441041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60.22029162794405</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.138376711309036</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.741248382628044</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.420914961398012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$P$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stage 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$R$32:$R$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$P$27:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-167.31689903985401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.221705949773082</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.042497826360099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.4750726904222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.920268728971699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.472006212462201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.067983790006203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.194891742773102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.363067341817903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54.930422617590899</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>61.082497436394597</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.963588045544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="445726847"/>
-        <c:axId val="571780431"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="445726847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Stage</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="571780431"/>
-        <c:crossesAt val="-200"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="571780431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Temperature, °C</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="445726847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1489,53 +836,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$T$32:$T$43</c:f>
+              <c:f>Лист1!$P$27:$AA$27</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.6853584055969199E-21</c:v>
+                  <c:v>-167.31689903985401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.997549685555601</c:v>
+                  <c:v>-0.221705949773082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.2999247536406</c:v>
+                  <c:v>10.042497826360099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.6974982326274</c:v>
+                  <c:v>13.4750726904222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.274162264784302</c:v>
+                  <c:v>17.920268728971699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.756703401318699</c:v>
+                  <c:v>30.472006212462201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5726132104901</c:v>
+                  <c:v>37.067983790006203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.756295289248101</c:v>
+                  <c:v>43.194891742773102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.7915648006135</c:v>
+                  <c:v>49.363067341817903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.913275549807999</c:v>
+                  <c:v>54.930422617590899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.9022396379852</c:v>
+                  <c:v>61.082497436394597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.216689577692001</c:v>
+                  <c:v>72.963588045544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
+              <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1616,53 +963,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$32:$I$43</c:f>
+              <c:f>Лист1!$B$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-153.10146494358798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.523586376038601</c:v>
+                  <c:v>6.5570188447830446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4846813306287</c:v>
+                  <c:v>15.120473666489033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.081984621995002</c:v>
+                  <c:v>23.085042624176026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.956776110510098</c:v>
+                  <c:v>35.775411663949001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.4876056598329</c:v>
+                  <c:v>46.519683463871047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.771903576729001</c:v>
+                  <c:v>52.333574159443003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.1772039577677</c:v>
+                  <c:v>56.791222630441041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.662159624416301</c:v>
+                  <c:v>60.22029162794405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.2465577647923</c:v>
+                  <c:v>63.138376711309036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8603314676887805</c:v>
+                  <c:v>66.741248382628044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1</c:v>
+                  <c:v>74.420914961398012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
+              <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1674,11 +1021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2057857584"/>
-        <c:axId val="1338345344"/>
+        <c:axId val="41443328"/>
+        <c:axId val="41443904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2057857584"/>
+        <c:axId val="41443328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1727,6 +1074,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1735,26 +1083,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1793,13 +1121,583 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338345344"/>
+        <c:crossAx val="41443904"/>
+        <c:crossesAt val="-200"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41443904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature, °C</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41443328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UniSim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$R$32:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$T$32:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.6853584055969199E-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.997549685555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.2999247536406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6974982326274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.274162264784302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.756703401318699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5726132104901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.756295289248101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.7915648006135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.913275549807999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.9022396379852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.216689577692001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$R$32:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$32:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.523586376038601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4846813306287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.081984621995002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.956776110510098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4876056598329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.771903576729001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.1772039577677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.662159624416301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.2465577647923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8603314676887805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41446208"/>
+        <c:axId val="41446784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41446208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stage</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41446784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338345344"/>
+        <c:axId val="41446784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,6 +1744,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1854,26 +1753,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1912,7 +1791,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057857584"/>
+        <c:crossAx val="41446208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1926,6 +1805,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1957,14 +1837,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3687,7 +3567,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3603,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +3639,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,18 +3915,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5033,6 +4913,9 @@
         <v>1.6650160397057101E-16</v>
       </c>
       <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
       <c r="P15" s="2">
         <v>0.99999103706283898</v>
       </c>
@@ -5111,6 +4994,9 @@
         <v>2.5281149456144101E-10</v>
       </c>
       <c r="N16" s="2"/>
+      <c r="O16" t="s">
+        <v>6</v>
+      </c>
       <c r="P16" s="2">
         <v>8.7040935337701998E-6</v>
       </c>
@@ -5189,6 +5075,9 @@
         <v>2.8294362130497602E-6</v>
       </c>
       <c r="N17" s="2"/>
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
       <c r="P17" s="2">
         <v>2.4843661775690698E-7</v>
       </c>
@@ -5267,6 +5156,9 @@
         <v>2.9111712960521699E-3</v>
       </c>
       <c r="N18" s="2"/>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
       <c r="P18" s="2">
         <v>8.6358568966113697E-9</v>
       </c>
@@ -5345,6 +5237,9 @@
         <v>3.7384539702679798E-2</v>
       </c>
       <c r="N19" s="2"/>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
       <c r="P19" s="2">
         <v>1.7705057017710601E-9</v>
       </c>
@@ -5423,6 +5318,9 @@
         <v>0.35890003411932198</v>
       </c>
       <c r="N20" s="2"/>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
       <c r="P20" s="2">
         <v>6.2762821241362405E-13</v>
       </c>
@@ -5501,6 +5399,9 @@
         <v>0.37193829784341698</v>
       </c>
       <c r="N21" s="2"/>
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
       <c r="P21" s="2">
         <v>1.94181335362279E-14</v>
       </c>
@@ -5579,6 +5480,9 @@
         <v>0.15707003469953801</v>
       </c>
       <c r="N22" s="2"/>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
       <c r="P22" s="2">
         <v>1.09937810048934E-19</v>
       </c>
@@ -5657,6 +5561,9 @@
         <v>7.1793149485885804E-2</v>
       </c>
       <c r="N23" s="2"/>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
       <c r="P23" s="2">
         <v>2.86573040708471E-24</v>
       </c>
@@ -5692,6 +5599,56 @@
       </c>
       <c r="AA23" s="2">
         <v>6.5602715831555899E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f>SUM(B15:B23)</f>
+        <v>6.6573622809326924E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(C15:C23)</f>
+        <v>0.99999996139681013</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:M24" si="0">SUM(D15:D23)</f>
+        <v>0.99999994020350635</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999995678059161</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999996006215497</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9999999462369159</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9999999900064227</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999991661837029</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999991238207275</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999994261949021</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999997079903602</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000568359195</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -5868,7 +5825,10 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <f>B15/$B$24</f>
+        <v>0.9946255473832889</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5896,7 +5856,10 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:B40" si="1">B16/$B$24</f>
+        <v>5.1796867146943282E-3</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5924,7 +5887,10 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6979926896363066E-4</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5952,7 +5918,10 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7796845046773693E-5</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -5980,7 +5949,10 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="B36" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1404978742159741E-6</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -6008,7 +5980,10 @@
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7711364527255794E-8</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -6036,7 +6011,10 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1576726075982676E-8</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6064,7 +6042,10 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>2.04028129567426E-12</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6092,7 +6073,10 @@
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4337062001719611E-15</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F40CA7-3C91-47AA-ACE0-7288E0BFAAD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -310,7 +311,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -398,37 +399,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23.0130216845909</c:v>
+                  <c:v>17.427522983962898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.974116639180998</c:v>
+                  <c:v>16.278331722261601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.5714199305473</c:v>
+                  <c:v>16.947662414344499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.4462114190625</c:v>
+                  <c:v>16.822178404013801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.7770409683853</c:v>
+                  <c:v>24.509869623736598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.061338885281302</c:v>
+                  <c:v>23.534644404506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.466639266320001</c:v>
+                  <c:v>23.656765981922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.9515949329687</c:v>
+                  <c:v>23.6620300217959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.535993073344599</c:v>
+                  <c:v>23.6682141436698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.149766776241101</c:v>
+                  <c:v>23.7018026106898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.3894353085524</c:v>
+                  <c:v>23.853510124384101</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -437,7 +438,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -504,7 +505,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -513,6 +513,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -604,7 +624,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -613,6 +632,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -665,7 +704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -697,14 +735,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -740,7 +778,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -880,7 +918,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1007,7 +1045,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1074,7 +1112,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1083,6 +1120,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1174,7 +1231,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1183,6 +1239,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1235,7 +1311,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1267,14 +1342,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1310,7 +1385,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1450,7 +1525,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1541,34 +1616,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.523586376038601</c:v>
+                  <c:v>16.474012859578799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4846813306287</c:v>
+                  <c:v>15.3248215978775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.081984621995002</c:v>
+                  <c:v>15.9941522899604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.956776110510098</c:v>
+                  <c:v>15.8686682796297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.4876056598329</c:v>
+                  <c:v>9.7563594993525093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.771903576729001</c:v>
+                  <c:v>8.7811342801219201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.1772039577677</c:v>
+                  <c:v>8.9032558575379301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.662159624416301</c:v>
+                  <c:v>8.9085198974118107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.2465577647923</c:v>
+                  <c:v>8.9147040192856704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8603314676887805</c:v>
+                  <c:v>8.9482924863056397</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.1</c:v>
@@ -1577,7 +1652,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1644,7 +1719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1653,6 +1727,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1744,7 +1838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1753,6 +1846,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1805,7 +1918,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1837,14 +1949,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3567,7 +3679,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3603,7 +3715,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3751,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,18 +4027,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,10 +5937,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <f>B15/$B$24</f>
-        <v>0.9946255473832889</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5837,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>23.0130216845909</v>
+        <v>17.427522983962898</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5856,10 +5965,7 @@
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <f t="shared" ref="B33:B40" si="1">B16/$B$24</f>
-        <v>5.1796867146943282E-3</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5868,10 +5974,10 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>19.974116639180998</v>
+        <v>16.278331722261601</v>
       </c>
       <c r="I33">
-        <v>27.523586376038601</v>
+        <v>16.474012859578799</v>
       </c>
       <c r="J33" s="2"/>
       <c r="P33" s="2"/>
@@ -5887,10 +5993,7 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6979926896363066E-4</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5899,10 +6002,10 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>18.5714199305473</v>
+        <v>16.947662414344499</v>
       </c>
       <c r="I34">
-        <v>24.4846813306287</v>
+        <v>15.3248215978775</v>
       </c>
       <c r="J34" s="2"/>
       <c r="P34" s="2"/>
@@ -5918,10 +6021,7 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7796845046773693E-5</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -5930,10 +6030,10 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>16.4462114190625</v>
+        <v>16.822178404013801</v>
       </c>
       <c r="I35">
-        <v>23.081984621995002</v>
+        <v>15.9941522899604</v>
       </c>
       <c r="J35" s="2"/>
       <c r="P35" s="2"/>
@@ -5949,10 +6049,7 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <f t="shared" si="1"/>
-        <v>7.1404978742159741E-6</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5961,10 +6058,10 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>21.7770409683853</v>
+        <v>24.509869623736598</v>
       </c>
       <c r="I36">
-        <v>20.956776110510098</v>
+        <v>15.8686682796297</v>
       </c>
       <c r="J36" s="2"/>
       <c r="P36" s="2"/>
@@ -5980,10 +6077,7 @@
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7711364527255794E-8</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -5992,10 +6086,10 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>21.061338885281302</v>
+        <v>23.534644404506</v>
       </c>
       <c r="I37">
-        <v>12.4876056598329</v>
+        <v>9.7563594993525093</v>
       </c>
       <c r="J37" s="2"/>
       <c r="P37" s="2"/>
@@ -6011,10 +6105,7 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1576726075982676E-8</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6023,10 +6114,10 @@
         <v>7</v>
       </c>
       <c r="H38">
-        <v>20.466639266320001</v>
+        <v>23.656765981922</v>
       </c>
       <c r="I38">
-        <v>11.771903576729001</v>
+        <v>8.7811342801219201</v>
       </c>
       <c r="J38" s="2"/>
       <c r="P38" s="2"/>
@@ -6042,10 +6133,7 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <f t="shared" si="1"/>
-        <v>2.04028129567426E-12</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6054,10 +6142,10 @@
         <v>8</v>
       </c>
       <c r="H39">
-        <v>19.9515949329687</v>
+        <v>23.6620300217959</v>
       </c>
       <c r="I39">
-        <v>11.1772039577677</v>
+        <v>8.9032558575379301</v>
       </c>
       <c r="J39" s="2"/>
       <c r="P39" s="2"/>
@@ -6073,10 +6161,7 @@
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4337062001719611E-15</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -6085,10 +6170,10 @@
         <v>9</v>
       </c>
       <c r="H40">
-        <v>19.535993073344599</v>
+        <v>23.6682141436698</v>
       </c>
       <c r="I40">
-        <v>10.662159624416301</v>
+        <v>8.9085198974118107</v>
       </c>
       <c r="J40" s="2"/>
       <c r="P40" s="2"/>
@@ -6113,10 +6198,10 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>19.149766776241101</v>
+        <v>23.7018026106898</v>
       </c>
       <c r="I41">
-        <v>10.2465577647923</v>
+        <v>8.9147040192856704</v>
       </c>
       <c r="J41" s="2"/>
       <c r="R41">
@@ -6139,10 +6224,10 @@
         <v>11</v>
       </c>
       <c r="H42">
-        <v>18.3894353085524</v>
+        <v>23.853510124384101</v>
       </c>
       <c r="I42">
-        <v>9.8603314676887805</v>
+        <v>8.9482924863056397</v>
       </c>
       <c r="J42" s="2"/>
       <c r="R42">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F40CA7-3C91-47AA-ACE0-7288E0BFAAD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -311,7 +310,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -438,7 +437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -452,11 +451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49927808"/>
-        <c:axId val="49928384"/>
+        <c:axId val="156358272"/>
+        <c:axId val="43772736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49927808"/>
+        <c:axId val="156358272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -505,6 +504,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -513,26 +513,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -571,13 +551,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49928384"/>
+        <c:crossAx val="43772736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49928384"/>
+        <c:axId val="43772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,6 +604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -632,26 +613,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -690,7 +651,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49927808"/>
+        <c:crossAx val="156358272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,6 +665,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -735,14 +697,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -778,7 +740,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -918,7 +880,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1045,7 +1007,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1059,11 +1021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41443328"/>
-        <c:axId val="41443904"/>
+        <c:axId val="43774464"/>
+        <c:axId val="43775040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41443328"/>
+        <c:axId val="43774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1112,6 +1074,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1120,26 +1083,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1178,13 +1121,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41443904"/>
+        <c:crossAx val="43775040"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41443904"/>
+        <c:axId val="43775040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,6 +1174,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1239,26 +1183,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1297,7 +1221,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41443328"/>
+        <c:crossAx val="43774464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1311,6 +1235,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1342,14 +1267,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1385,7 +1310,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1525,7 +1450,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1652,7 +1577,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1666,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41446208"/>
-        <c:axId val="41446784"/>
+        <c:axId val="43776768"/>
+        <c:axId val="43777344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41446208"/>
+        <c:axId val="43776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1719,6 +1644,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1727,26 +1653,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1785,13 +1691,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41446784"/>
+        <c:crossAx val="43777344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41446784"/>
+        <c:axId val="43777344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,6 +1744,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1846,26 +1753,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1904,7 +1791,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41446208"/>
+        <c:crossAx val="43776768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1918,6 +1805,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1949,14 +1837,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3679,7 +3567,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3715,7 +3603,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3639,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,18 +3915,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="R31" sqref="R31:T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB7866E-91FD-4C46-BDC3-78A72404D5C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>x</t>
   </si>
@@ -110,11 +111,47 @@
   <si>
     <t>Vapor</t>
   </si>
+  <si>
+    <t>18)</t>
+  </si>
+  <si>
+    <t>(0.</t>
+  </si>
+  <si>
+    <t>13.9124888569933.</t>
+  </si>
+  <si>
+    <t>29.7484184898231.</t>
+  </si>
+  <si>
+    <t>28.5909841191914.</t>
+  </si>
+  <si>
+    <t>29.5647812518343.</t>
+  </si>
+  <si>
+    <t>21.1622468163416.</t>
+  </si>
+  <si>
+    <t>21.2998335256566.</t>
+  </si>
+  <si>
+    <t>21.197072143876.</t>
+  </si>
+  <si>
+    <t>21.0944724139006.</t>
+  </si>
+  <si>
+    <t>22.6829097067955.</t>
+  </si>
+  <si>
+    <t>20.0033867080203.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -170,7 +207,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -310,7 +347,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -437,7 +474,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -504,7 +541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -513,6 +549,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -604,7 +660,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -613,6 +668,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -665,7 +740,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -697,14 +771,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -740,7 +814,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -880,7 +954,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1007,7 +1081,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1074,7 +1148,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1083,6 +1156,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1174,7 +1267,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1183,6 +1275,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1235,7 +1347,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1267,14 +1378,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1310,7 +1421,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1450,7 +1561,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1535,49 +1646,49 @@
             <c:numRef>
               <c:f>Лист1!$I$32:$I$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.474012859578799</c:v>
+                  <c:v>13.912488856993299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3248215978775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.9941522899604</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.8686682796297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7563594993525093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7811342801219201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9032558575379301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9085198974118107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9147040192856704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.9482924863056397</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1</c:v>
+                  <c:v>29.748418489823099</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>28.5909841191914</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>29.564781251834301</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>21.1622468163416</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>21.299833525656599</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>21.197072143875999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>21.094472413900601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>22.682909706795499</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>20.003386708020301</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1644,7 +1755,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1653,6 +1763,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1744,7 +1874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1753,6 +1882,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1805,7 +1954,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1837,14 +1985,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3567,7 +3715,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3603,7 +3751,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3787,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,18 +4063,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31:T43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5836,7 +5984,7 @@
       <c r="H32">
         <v>17.427522983962898</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="2"/>
@@ -5864,8 +6012,8 @@
       <c r="H33">
         <v>16.278331722261601</v>
       </c>
-      <c r="I33">
-        <v>16.474012859578799</v>
+      <c r="I33" s="3">
+        <v>13.912488856993299</v>
       </c>
       <c r="J33" s="2"/>
       <c r="P33" s="2"/>
@@ -5892,8 +6040,8 @@
       <c r="H34">
         <v>16.947662414344499</v>
       </c>
-      <c r="I34">
-        <v>15.3248215978775</v>
+      <c r="I34" s="3">
+        <v>29.748418489823099</v>
       </c>
       <c r="J34" s="2"/>
       <c r="P34" s="2"/>
@@ -5921,7 +6069,7 @@
         <v>16.822178404013801</v>
       </c>
       <c r="I35">
-        <v>15.9941522899604</v>
+        <v>28.5909841191914</v>
       </c>
       <c r="J35" s="2"/>
       <c r="P35" s="2"/>
@@ -5949,7 +6097,7 @@
         <v>24.509869623736598</v>
       </c>
       <c r="I36">
-        <v>15.8686682796297</v>
+        <v>29.564781251834301</v>
       </c>
       <c r="J36" s="2"/>
       <c r="P36" s="2"/>
@@ -5977,7 +6125,7 @@
         <v>23.534644404506</v>
       </c>
       <c r="I37">
-        <v>9.7563594993525093</v>
+        <v>21.1622468163416</v>
       </c>
       <c r="J37" s="2"/>
       <c r="P37" s="2"/>
@@ -6005,7 +6153,7 @@
         <v>23.656765981922</v>
       </c>
       <c r="I38">
-        <v>8.7811342801219201</v>
+        <v>21.299833525656599</v>
       </c>
       <c r="J38" s="2"/>
       <c r="P38" s="2"/>
@@ -6033,7 +6181,7 @@
         <v>23.6620300217959</v>
       </c>
       <c r="I39">
-        <v>8.9032558575379301</v>
+        <v>21.197072143875999</v>
       </c>
       <c r="J39" s="2"/>
       <c r="P39" s="2"/>
@@ -6061,7 +6209,7 @@
         <v>23.6682141436698</v>
       </c>
       <c r="I40">
-        <v>8.9085198974118107</v>
+        <v>21.094472413900601</v>
       </c>
       <c r="J40" s="2"/>
       <c r="P40" s="2"/>
@@ -6089,7 +6237,7 @@
         <v>23.7018026106898</v>
       </c>
       <c r="I41">
-        <v>8.9147040192856704</v>
+        <v>22.682909706795499</v>
       </c>
       <c r="J41" s="2"/>
       <c r="R41">
@@ -6115,7 +6263,7 @@
         <v>23.853510124384101</v>
       </c>
       <c r="I42">
-        <v>8.9482924863056397</v>
+        <v>20.003386708020301</v>
       </c>
       <c r="J42" s="2"/>
       <c r="R42">
@@ -6141,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>9.1</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2"/>
       <c r="R43">
@@ -6223,9 +6371,42 @@
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB7866E-91FD-4C46-BDC3-78A72404D5C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>x</t>
   </si>
@@ -111,47 +110,11 @@
   <si>
     <t>Vapor</t>
   </si>
-  <si>
-    <t>18)</t>
-  </si>
-  <si>
-    <t>(0.</t>
-  </si>
-  <si>
-    <t>13.9124888569933.</t>
-  </si>
-  <si>
-    <t>29.7484184898231.</t>
-  </si>
-  <si>
-    <t>28.5909841191914.</t>
-  </si>
-  <si>
-    <t>29.5647812518343.</t>
-  </si>
-  <si>
-    <t>21.1622468163416.</t>
-  </si>
-  <si>
-    <t>21.2998335256566.</t>
-  </si>
-  <si>
-    <t>21.197072143876.</t>
-  </si>
-  <si>
-    <t>21.0944724139006.</t>
-  </si>
-  <si>
-    <t>22.6829097067955.</t>
-  </si>
-  <si>
-    <t>20.0033867080203.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -207,7 +170,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -347,7 +310,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -356,9 +319,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Calculation</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -430,51 +390,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$32:$H$43</c:f>
+              <c:f>Лист1!$J$32:$J$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17.427522983962898</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.278331722261601</c:v>
+                  <c:v>7.2075025529546899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.947662414344499</c:v>
+                  <c:v>7.8170713674882997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.822178404013801</c:v>
+                  <c:v>4.6497473972097696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.509869623736598</c:v>
+                  <c:v>15.8427479831357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.534644404506</c:v>
+                  <c:v>17.7078768395099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.656765981922</c:v>
+                  <c:v>27.596054414399099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.6620300217959</c:v>
+                  <c:v>12.347856999605799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.6682141436698</c:v>
+                  <c:v>12.688150489608701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.7018026106898</c:v>
+                  <c:v>13.2050099933428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.853510124384101</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -488,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156358272"/>
-        <c:axId val="43772736"/>
+        <c:axId val="80008832"/>
+        <c:axId val="80009408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156358272"/>
+        <c:axId val="80008832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -541,6 +501,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -549,26 +510,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -607,13 +548,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43772736"/>
+        <c:crossAx val="80009408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43772736"/>
+        <c:axId val="80009408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,6 +601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -668,26 +610,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -726,7 +648,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156358272"/>
+        <c:crossAx val="80008832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -740,6 +662,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,14 +694,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -814,7 +737,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -954,7 +877,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1081,7 +1004,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1095,11 +1018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43774464"/>
-        <c:axId val="43775040"/>
+        <c:axId val="59531264"/>
+        <c:axId val="59531840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43774464"/>
+        <c:axId val="59531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1148,6 +1071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1156,26 +1080,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1214,13 +1118,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43775040"/>
+        <c:crossAx val="59531840"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43775040"/>
+        <c:axId val="59531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,6 +1171,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1275,26 +1180,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1333,7 +1218,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43774464"/>
+        <c:crossAx val="59531264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1347,6 +1232,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1378,14 +1264,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1421,7 +1307,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1561,7 +1447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1570,9 +1456,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Calculation</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1644,51 +1527,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$32:$I$43</c:f>
+              <c:f>Лист1!$K$32:$K$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.912488856993299</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.748418489823099</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>28.5909841191914</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>29.564781251834301</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>21.1622468163416</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>21.299833525656599</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>21.197072143875999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>21.094472413900601</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.682909706795499</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>20.003386708020301</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>11.707502552954701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3170713674883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1497473972097705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5427479831356896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4078768395099299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.296054414399102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0478569996058198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3881504896087402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9050099933428002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.49999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1702,11 +1585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43776768"/>
-        <c:axId val="43777344"/>
+        <c:axId val="59533568"/>
+        <c:axId val="59534144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43776768"/>
+        <c:axId val="59533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1755,6 +1638,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1763,26 +1647,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1821,13 +1685,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43777344"/>
+        <c:crossAx val="59534144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43777344"/>
+        <c:axId val="59534144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,6 +1738,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1882,26 +1747,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1940,7 +1785,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43776768"/>
+        <c:crossAx val="59533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1954,6 +1799,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1985,14 +1831,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3715,7 +3561,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3597,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3787,7 +3633,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,18 +3909,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,6 +5808,12 @@
       <c r="I31" t="s">
         <v>27</v>
       </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
       <c r="R31" t="s">
         <v>4</v>
       </c>
@@ -5981,13 +5833,18 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32">
-        <v>17.427522983962898</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32">
@@ -6009,13 +5866,18 @@
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <v>16.278331722261601</v>
-      </c>
-      <c r="I33" s="3">
-        <v>13.912488856993299</v>
-      </c>
-      <c r="J33" s="2"/>
+      <c r="H33" s="1">
+        <v>31.239191345834801</v>
+      </c>
+      <c r="I33" s="1">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7.2075025529546899</v>
+      </c>
+      <c r="K33" s="1">
+        <v>18</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33">
@@ -6037,13 +5899,18 @@
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34">
-        <v>16.947662414344499</v>
-      </c>
-      <c r="I34" s="3">
-        <v>29.748418489823099</v>
-      </c>
-      <c r="J34" s="2"/>
+      <c r="H34" s="1">
+        <v>25.499633465996201</v>
+      </c>
+      <c r="I34" s="1">
+        <v>35.739191345834797</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.8170713674882997</v>
+      </c>
+      <c r="K34" s="1">
+        <v>11.707502552954701</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34">
@@ -6065,13 +5932,18 @@
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35">
-        <v>16.822178404013801</v>
-      </c>
-      <c r="I35">
-        <v>28.5909841191914</v>
-      </c>
-      <c r="J35" s="2"/>
+      <c r="H35" s="1">
+        <v>37.702711128920001</v>
+      </c>
+      <c r="I35" s="1">
+        <v>29.999633465996201</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4.6497473972097696</v>
+      </c>
+      <c r="K35" s="1">
+        <v>12.3170713674883</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35">
@@ -6093,13 +5965,18 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36">
-        <v>24.509869623736598</v>
-      </c>
-      <c r="I36">
-        <v>29.564781251834301</v>
-      </c>
-      <c r="J36" s="2"/>
+      <c r="H36" s="1">
+        <v>31.022358574271799</v>
+      </c>
+      <c r="I36" s="1">
+        <v>42.202711128920001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>15.8427479831357</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9.1497473972097705</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36">
@@ -6121,13 +5998,18 @@
       <c r="G37">
         <v>6</v>
       </c>
-      <c r="H37">
-        <v>23.534644404506</v>
-      </c>
-      <c r="I37">
-        <v>21.1622468163416</v>
-      </c>
-      <c r="J37" s="2"/>
+      <c r="H37" s="1">
+        <v>32.978588518549302</v>
+      </c>
+      <c r="I37" s="1">
+        <v>21.722358574271802</v>
+      </c>
+      <c r="J37" s="1">
+        <v>17.7078768395099</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6.5427479831356896</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37">
@@ -6149,13 +6031,18 @@
       <c r="G38">
         <v>7</v>
       </c>
-      <c r="H38">
-        <v>23.656765981922</v>
-      </c>
-      <c r="I38">
-        <v>21.299833525656599</v>
-      </c>
-      <c r="J38" s="2"/>
+      <c r="H38" s="1">
+        <v>34.4680734676637</v>
+      </c>
+      <c r="I38" s="1">
+        <v>23.678588518549301</v>
+      </c>
+      <c r="J38" s="1">
+        <v>27.596054414399099</v>
+      </c>
+      <c r="K38" s="1">
+        <v>8.4078768395099299</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38">
@@ -6177,13 +6064,18 @@
       <c r="G39">
         <v>8</v>
       </c>
-      <c r="H39">
-        <v>23.6620300217959</v>
-      </c>
-      <c r="I39">
-        <v>21.197072143875999</v>
-      </c>
-      <c r="J39" s="2"/>
+      <c r="H39" s="1">
+        <v>37.205406369255201</v>
+      </c>
+      <c r="I39" s="1">
+        <v>25.168073467663699</v>
+      </c>
+      <c r="J39" s="1">
+        <v>12.347856999605799</v>
+      </c>
+      <c r="K39" s="1">
+        <v>18.296054414399102</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39">
@@ -6205,13 +6097,18 @@
       <c r="G40">
         <v>9</v>
       </c>
-      <c r="H40">
-        <v>23.6682141436698</v>
-      </c>
-      <c r="I40">
-        <v>21.094472413900601</v>
-      </c>
-      <c r="J40" s="2"/>
+      <c r="H40" s="1">
+        <v>59.653306356555703</v>
+      </c>
+      <c r="I40" s="1">
+        <v>27.9054063692552</v>
+      </c>
+      <c r="J40" s="1">
+        <v>12.688150489608701</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.0478569996058198</v>
+      </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40">
@@ -6233,13 +6130,18 @@
       <c r="G41">
         <v>10</v>
       </c>
-      <c r="H41">
-        <v>23.7018026106898</v>
-      </c>
-      <c r="I41">
-        <v>22.682909706795499</v>
-      </c>
-      <c r="J41" s="2"/>
+      <c r="H41" s="1">
+        <v>36.820479304869501</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50.353306356555699</v>
+      </c>
+      <c r="J41" s="1">
+        <v>13.2050099933428</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3.3881504896087402</v>
+      </c>
       <c r="R41">
         <v>10</v>
       </c>
@@ -6259,13 +6161,18 @@
       <c r="G42">
         <v>11</v>
       </c>
-      <c r="H42">
-        <v>23.853510124384101</v>
-      </c>
-      <c r="I42">
-        <v>20.003386708020301</v>
-      </c>
-      <c r="J42" s="2"/>
+      <c r="H42" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>27.5204793048695</v>
+      </c>
+      <c r="J42" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3.9050099933428002</v>
+      </c>
       <c r="R42">
         <v>11</v>
       </c>
@@ -6285,13 +6192,18 @@
       <c r="G43">
         <v>12</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I43" s="1">
         <v>18</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4.49999999999996</v>
+      </c>
       <c r="R43">
         <v>12</v>
       </c>
@@ -6371,42 +6283,9 @@
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" t="s">
-        <v>38</v>
-      </c>
-      <c r="L64" t="s">
-        <v>39</v>
-      </c>
-      <c r="M64" t="s">
-        <v>28</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C6B59-17DA-40BD-A2BA-2B9EB30890E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -110,11 +111,23 @@
   <si>
     <t>Vapor</t>
   </si>
+  <si>
+    <t>Lj0[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">] := </t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Vj0[</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -170,7 +183,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -310,7 +323,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -434,7 +447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -501,7 +514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -510,6 +522,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -601,7 +633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -610,6 +641,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -662,7 +713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -694,14 +744,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -737,7 +787,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -877,7 +927,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -886,9 +936,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Calculation</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -960,7 +1007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$27:$M$27</c:f>
+              <c:f>Лист1!$B$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -968,43 +1015,43 @@
                   <c:v>-153.10146494358798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5570188447830446</c:v>
+                  <c:v>3.0848981574180243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.120473666489033</c:v>
+                  <c:v>15.653711719811042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.085042624176026</c:v>
+                  <c:v>26.382917328179019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.775411663949001</c:v>
+                  <c:v>38.020983500779039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.519683463871047</c:v>
+                  <c:v>45.042861042917025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.333574159443003</c:v>
+                  <c:v>53.780378191173043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.791222630441041</c:v>
+                  <c:v>61.053244931996005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.22029162794405</c:v>
+                  <c:v>61.866920603812048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.138376711309036</c:v>
+                  <c:v>63.462600646913017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.741248382628044</c:v>
+                  <c:v>66.680343984067008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.420914961398012</c:v>
+                  <c:v>71.627545519172998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1071,7 +1118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1080,6 +1126,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1171,7 +1237,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1180,6 +1245,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1232,7 +1317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,14 +1348,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1307,7 +1391,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1447,7 +1531,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1571,7 +1655,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1638,7 +1722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1647,6 +1730,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1738,7 +1841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1747,6 +1849,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1799,7 +1921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1831,14 +1952,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3561,7 +3682,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,7 +3718,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3754,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3909,21 +4030,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -5028,7 +5153,7 @@
         <v>7.1500884909880198E-9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5109,7 +5234,7 @@
         <v>1.42026606418476E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5190,7 +5315,7 @@
         <v>1.7055176559427499E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5271,7 +5396,7 @@
         <v>4.8793095754239998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5352,7 +5477,7 @@
         <v>0.38119097517539502</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5433,7 +5558,7 @@
         <v>0.35252754790309299</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -5514,7 +5639,7 @@
         <v>0.15017872026333601</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5595,7 +5720,7 @@
         <v>6.5602715831555899E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>SUM(B15:B23)</f>
         <v>6.6573622809326924E-2</v>
@@ -5645,12 +5770,12 @@
         <v>1.0000000568359195</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -5724,7 +5849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>-153.10146494358798</v>
       </c>
@@ -5798,7 +5923,95 @@
         <v>72.963588045544</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B29-273.15</f>
+        <v>-153.10146494358798</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:M28" si="1">C29-273.15</f>
+        <v>3.0848981574180243</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>15.653711719811042</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>26.382917328179019</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>38.020983500779039</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>45.042861042917025</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>53.780378191173043</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>61.053244931996005</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>61.866920603812048</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>63.462600646913017</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>66.680343984067008</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>71.627545519172998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>120.04853505641201</v>
+      </c>
+      <c r="C29">
+        <v>276.234898157418</v>
+      </c>
+      <c r="D29">
+        <v>288.80371171981102</v>
+      </c>
+      <c r="E29">
+        <v>299.532917328179</v>
+      </c>
+      <c r="F29">
+        <v>311.17098350077902</v>
+      </c>
+      <c r="G29">
+        <v>318.192861042917</v>
+      </c>
+      <c r="H29">
+        <v>326.93037819117302</v>
+      </c>
+      <c r="I29">
+        <v>334.20324493199598</v>
+      </c>
+      <c r="J29">
+        <v>335.01692060381203</v>
+      </c>
+      <c r="K29">
+        <v>336.61260064691299</v>
+      </c>
+      <c r="L29">
+        <v>339.83034398406699</v>
+      </c>
+      <c r="M29">
+        <v>344.77754551917297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>4</v>
       </c>
@@ -5824,7 +6037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5856,8 +6069,48 @@
       <c r="T32" s="1">
         <v>2.6853584055969199E-21</v>
       </c>
+      <c r="V32" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="1">
+        <f>S32</f>
+        <v>13.4982019279072</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>T32</f>
+        <v>2.6853584055969199E-21</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="str">
+        <f>_xlfn.CONCAT(V32:Z32)</f>
+        <v>Lj0[1] := 13.4982019279072;</v>
+      </c>
+      <c r="AH32" t="str">
+        <f>_xlfn.CONCAT(AB32:AF32)</f>
+        <v>Vj0[1] := 2.68535840559692E-21;</v>
+      </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5889,8 +6142,48 @@
       <c r="T33" s="1">
         <v>17.997549685555601</v>
       </c>
+      <c r="V33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" ref="Y33:Y43" si="2">S33</f>
+        <v>20.800576995992198</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" ref="AE33:AE43" si="3">T33</f>
+        <v>17.997549685555601</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG33" t="str">
+        <f t="shared" ref="AG33:AG43" si="4">_xlfn.CONCAT(V33:Z33)</f>
+        <v>Lj0[2] := 20.8005769959922;</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" ref="AH33:AH43" si="5">_xlfn.CONCAT(AB33:AF33)</f>
+        <v>Vj0[2] := 17.9975496855556;</v>
+      </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5922,8 +6215,48 @@
       <c r="T34" s="1">
         <v>25.2999247536406</v>
       </c>
+      <c r="V34" t="s">
+        <v>28</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="2"/>
+        <v>21.198150474979101</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="3"/>
+        <v>25.2999247536406</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG34" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[3] := 21.1981504749791;</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[3] := 25.2999247536406;</v>
+      </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5955,8 +6288,48 @@
       <c r="T35" s="1">
         <v>25.6974982326274</v>
       </c>
+      <c r="V35" t="s">
+        <v>28</v>
+      </c>
+      <c r="W35">
+        <v>4</v>
+      </c>
+      <c r="X35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="2"/>
+        <v>20.774814507136</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="3"/>
+        <v>25.6974982326274</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG35" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[4] := 20.774814507136;</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[4] := 25.6974982326274;</v>
+      </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5988,8 +6361,48 @@
       <c r="T36" s="1">
         <v>25.274162264784302</v>
       </c>
+      <c r="V36" t="s">
+        <v>28</v>
+      </c>
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="X36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.257355643670401</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="3"/>
+        <v>25.274162264784302</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG36" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[5] := 19.2573556436704;</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[5] := 25.2741622647843;</v>
+      </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6021,8 +6434,48 @@
       <c r="T37" s="1">
         <v>23.756703401318699</v>
       </c>
+      <c r="V37" t="s">
+        <v>28</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="2"/>
+        <v>25.873471181250501</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC37">
+        <v>6</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="3"/>
+        <v>23.756703401318699</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG37" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[6] := 25.8734711812505;</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[6] := 23.7567034013187;</v>
+      </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -6054,8 +6507,48 @@
       <c r="T38" s="1">
         <v>16.5726132104901</v>
       </c>
+      <c r="V38" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+      <c r="X38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="2"/>
+        <v>26.057153260008501</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC38">
+        <v>7</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="3"/>
+        <v>16.5726132104901</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG38" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[7] := 26.0571532600085;</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[7] := 16.5726132104901;</v>
+      </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -6087,8 +6580,48 @@
       <c r="T39" s="1">
         <v>16.756295289248101</v>
       </c>
+      <c r="V39" t="s">
+        <v>28</v>
+      </c>
+      <c r="W39">
+        <v>8</v>
+      </c>
+      <c r="X39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="2"/>
+        <v>26.092422771373901</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC39">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="3"/>
+        <v>16.756295289248101</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG39" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[8] := 26.0924227713739;</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[8] := 16.7562952892481;</v>
+      </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -6120,8 +6653,48 @@
       <c r="T40" s="1">
         <v>16.7915648006135</v>
       </c>
+      <c r="V40" t="s">
+        <v>28</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="X40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="2"/>
+        <v>26.214133520568399</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC40">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="3"/>
+        <v>16.7915648006135</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG40" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[9] := 26.2141335205684;</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[9] := 16.7915648006135;</v>
+      </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -6151,8 +6724,48 @@
       <c r="T41" s="1">
         <v>16.913275549807999</v>
       </c>
+      <c r="V41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="2"/>
+        <v>26.203097608745601</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC41">
+        <v>10</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="3"/>
+        <v>16.913275549807999</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG41" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[10] := 26.2030976087456;</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[10] := 16.913275549808;</v>
+      </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -6182,8 +6795,48 @@
       <c r="T42" s="1">
         <v>16.9022396379852</v>
       </c>
+      <c r="V42" t="s">
+        <v>28</v>
+      </c>
+      <c r="W42">
+        <v>11</v>
+      </c>
+      <c r="X42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="2"/>
+        <v>25.517547548452399</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC42">
+        <v>11</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="3"/>
+        <v>16.9022396379852</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG42" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[11] := 25.5175475484524;</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[11] := 16.9022396379852;</v>
+      </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -6213,8 +6866,48 @@
       <c r="T43" s="1">
         <v>16.216689577692001</v>
       </c>
+      <c r="V43" t="s">
+        <v>28</v>
+      </c>
+      <c r="W43">
+        <v>12</v>
+      </c>
+      <c r="X43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3008579707604007</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC43">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="3"/>
+        <v>16.216689577692001</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG43" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[12] := 9.3008579707604;</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[12] := 16.216689577692;</v>
+      </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -6224,7 +6917,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -6233,7 +6926,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C6B59-17DA-40BD-A2BA-2B9EB30890E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -284,46 +283,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13.4982019279072</c:v>
+                  <c:v>13.500299833946301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.800576995992198</c:v>
+                  <c:v>20.737343306692999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.198150474979101</c:v>
+                  <c:v>20.928700985846302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.774814507136</c:v>
+                  <c:v>19.550301112881002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.257355643670401</c:v>
+                  <c:v>26.036399214896399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.873471181250501</c:v>
+                  <c:v>26.207099493930599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.057153260008501</c:v>
+                  <c:v>26.116418529036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.092422771373901</c:v>
+                  <c:v>26.099089973248098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.214133520568399</c:v>
+                  <c:v>26.2015883534268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.203097608745601</c:v>
+                  <c:v>26.189796836678799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.517547548452399</c:v>
+                  <c:v>25.511424209470999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3008579707604007</c:v>
+                  <c:v>9.3001586771051894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -403,42 +402,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$J$32:$J$43</c:f>
+              <c:f>Лист1!$L$32:$L$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2075025529546899</c:v>
+                  <c:v>18.690120867568002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8170713674882997</c:v>
+                  <c:v>17.288533248968299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6497473972097696</c:v>
+                  <c:v>15.114592047025599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.8427479831357</c:v>
+                  <c:v>21.508012822022799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.7078768395099</c:v>
+                  <c:v>20.440128886565201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.596054414399099</c:v>
+                  <c:v>19.4933904019991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.347856999605799</c:v>
+                  <c:v>18.686918461706099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.688150489608701</c:v>
+                  <c:v>18.0167782388944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.2050099933428</c:v>
+                  <c:v>17.382588593501801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.8</c:v>
+                  <c:v>16.618385578453601</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.3000000000000007</c:v>
@@ -447,7 +446,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -461,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80008832"/>
-        <c:axId val="80009408"/>
+        <c:axId val="82105984"/>
+        <c:axId val="82106560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80008832"/>
+        <c:axId val="82105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -514,6 +513,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -522,26 +522,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -580,13 +560,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80009408"/>
+        <c:crossAx val="82106560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80009408"/>
+        <c:axId val="82106560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,6 +613,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -641,26 +622,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -699,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80008832"/>
+        <c:crossAx val="82105984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -713,6 +674,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -744,14 +706,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -787,7 +749,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -927,7 +889,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1051,7 +1013,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1065,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59531264"/>
-        <c:axId val="59531840"/>
+        <c:axId val="59596800"/>
+        <c:axId val="59597376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59531264"/>
+        <c:axId val="59596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1118,6 +1080,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,26 +1089,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1184,13 +1127,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59531840"/>
+        <c:crossAx val="59597376"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59531840"/>
+        <c:axId val="59597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,6 +1180,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1245,26 +1189,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1303,7 +1227,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59531264"/>
+        <c:crossAx val="59596800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,6 +1241,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,14 +1273,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1391,7 +1316,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1492,46 +1417,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.6853584055969199E-21</c:v>
+                  <c:v>2.7741825834638801E-21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.997549685555601</c:v>
+                  <c:v>18.000346885249801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.2999247536406</c:v>
+                  <c:v>25.2373903579965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.6974982326274</c:v>
+                  <c:v>25.428748037149798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.274162264784302</c:v>
+                  <c:v>24.050348164184602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.756703401318699</c:v>
+                  <c:v>16.7362405377912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5726132104901</c:v>
+                  <c:v>16.906940816825401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.756295289248101</c:v>
+                  <c:v>16.816259851930798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.7915648006135</c:v>
+                  <c:v>16.7989312961429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.913275549807999</c:v>
+                  <c:v>16.901429676321602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.9022396379852</c:v>
+                  <c:v>16.8896381595736</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.216689577692001</c:v>
+                  <c:v>16.2112655323659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1611,51 +1536,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$K$32:$K$43</c:f>
+              <c:f>Лист1!$M$32:$M$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>17.998361291703599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.707502552954701</c:v>
+                  <c:v>23.188482159271601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.3170713674883</c:v>
+                  <c:v>21.786894540671899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1497473972097705</c:v>
+                  <c:v>19.612953338729199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5427479831356896</c:v>
+                  <c:v>12.206374113726399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4078768395099299</c:v>
+                  <c:v>11.1384901782688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.296054414399102</c:v>
+                  <c:v>10.191751693702701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0478569996058198</c:v>
+                  <c:v>9.3852797534097192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3881504896087402</c:v>
+                  <c:v>8.7151395305979698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9050099933428002</c:v>
+                  <c:v>8.0809498852053991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.49999999999996</c:v>
+                  <c:v>7.31674687015727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1669,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59533568"/>
-        <c:axId val="59534144"/>
+        <c:axId val="59599104"/>
+        <c:axId val="59599680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59533568"/>
+        <c:axId val="59599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1722,6 +1647,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1730,26 +1656,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1788,13 +1694,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59534144"/>
+        <c:crossAx val="59599680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59534144"/>
+        <c:axId val="59599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,6 +1747,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1849,26 +1756,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1907,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59533568"/>
+        <c:crossAx val="59599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1921,6 +1808,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1952,14 +1840,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3682,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3606,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3642,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,18 +3918,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,6 +5915,12 @@
       <c r="K31" t="s">
         <v>27</v>
       </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
       <c r="R31" t="s">
         <v>4</v>
       </c>
@@ -6058,16 +5952,22 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
+      <c r="L32">
+        <v>13.5</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32" s="1">
-        <v>13.4982019279072</v>
+        <v>13.500299833946301</v>
       </c>
       <c r="T32" s="1">
-        <v>2.6853584055969199E-21</v>
+        <v>2.7741825834638801E-21</v>
       </c>
       <c r="V32" t="s">
         <v>28</v>
@@ -6080,7 +5980,7 @@
       </c>
       <c r="Y32" s="1">
         <f>S32</f>
-        <v>13.4982019279072</v>
+        <v>13.500299833946301</v>
       </c>
       <c r="Z32" t="s">
         <v>30</v>
@@ -6096,18 +5996,18 @@
       </c>
       <c r="AE32" s="1">
         <f>T32</f>
-        <v>2.6853584055969199E-21</v>
+        <v>2.7741825834638801E-21</v>
       </c>
       <c r="AF32" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" t="str">
-        <f>_xlfn.CONCAT(V32:Z32)</f>
-        <v>Lj0[1] := 13.4982019279072;</v>
-      </c>
-      <c r="AH32" t="str">
-        <f>_xlfn.CONCAT(AB32:AF32)</f>
-        <v>Vj0[1] := 2.68535840559692E-21;</v>
+      <c r="AG32" t="e">
+        <f ca="1">_xlfn.CONCAT(V32:Z32)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH32" t="e">
+        <f ca="1">_xlfn.CONCAT(AB32:AF32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
@@ -6131,16 +6031,22 @@
       <c r="K33" s="1">
         <v>18</v>
       </c>
+      <c r="L33">
+        <v>18.690120867568002</v>
+      </c>
+      <c r="M33">
+        <v>17.998361291703599</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33" s="1">
-        <v>20.800576995992198</v>
+        <v>20.737343306692999</v>
       </c>
       <c r="T33" s="1">
-        <v>17.997549685555601</v>
+        <v>18.000346885249801</v>
       </c>
       <c r="V33" t="s">
         <v>28</v>
@@ -6153,7 +6059,7 @@
       </c>
       <c r="Y33" s="1">
         <f t="shared" ref="Y33:Y43" si="2">S33</f>
-        <v>20.800576995992198</v>
+        <v>20.737343306692999</v>
       </c>
       <c r="Z33" t="s">
         <v>30</v>
@@ -6169,18 +6075,18 @@
       </c>
       <c r="AE33" s="1">
         <f t="shared" ref="AE33:AE43" si="3">T33</f>
-        <v>17.997549685555601</v>
+        <v>18.000346885249801</v>
       </c>
       <c r="AF33" t="s">
         <v>30</v>
       </c>
-      <c r="AG33" t="str">
-        <f t="shared" ref="AG33:AG43" si="4">_xlfn.CONCAT(V33:Z33)</f>
-        <v>Lj0[2] := 20.8005769959922;</v>
-      </c>
-      <c r="AH33" t="str">
-        <f t="shared" ref="AH33:AH43" si="5">_xlfn.CONCAT(AB33:AF33)</f>
-        <v>Vj0[2] := 17.9975496855556;</v>
+      <c r="AG33" t="e">
+        <f t="shared" ref="AG33:AG43" ca="1" si="4">_xlfn.CONCAT(V33:Z33)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH33" t="e">
+        <f t="shared" ref="AH33:AH43" ca="1" si="5">_xlfn.CONCAT(AB33:AF33)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.25">
@@ -6204,16 +6110,22 @@
       <c r="K34" s="1">
         <v>11.707502552954701</v>
       </c>
+      <c r="L34">
+        <v>17.288533248968299</v>
+      </c>
+      <c r="M34">
+        <v>23.188482159271601</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34">
         <v>3</v>
       </c>
       <c r="S34" s="1">
-        <v>21.198150474979101</v>
+        <v>20.928700985846302</v>
       </c>
       <c r="T34" s="1">
-        <v>25.2999247536406</v>
+        <v>25.2373903579965</v>
       </c>
       <c r="V34" t="s">
         <v>28</v>
@@ -6226,7 +6138,7 @@
       </c>
       <c r="Y34" s="1">
         <f t="shared" si="2"/>
-        <v>21.198150474979101</v>
+        <v>20.928700985846302</v>
       </c>
       <c r="Z34" t="s">
         <v>30</v>
@@ -6242,18 +6154,18 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>25.2999247536406</v>
+        <v>25.2373903579965</v>
       </c>
       <c r="AF34" t="s">
         <v>30</v>
       </c>
-      <c r="AG34" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[3] := 21.1981504749791;</v>
-      </c>
-      <c r="AH34" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[3] := 25.2999247536406;</v>
+      <c r="AG34" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH34" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
@@ -6277,16 +6189,22 @@
       <c r="K35" s="1">
         <v>12.3170713674883</v>
       </c>
+      <c r="L35">
+        <v>15.114592047025599</v>
+      </c>
+      <c r="M35">
+        <v>21.786894540671899</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35">
         <v>4</v>
       </c>
       <c r="S35" s="1">
-        <v>20.774814507136</v>
+        <v>19.550301112881002</v>
       </c>
       <c r="T35" s="1">
-        <v>25.6974982326274</v>
+        <v>25.428748037149798</v>
       </c>
       <c r="V35" t="s">
         <v>28</v>
@@ -6299,7 +6217,7 @@
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="2"/>
-        <v>20.774814507136</v>
+        <v>19.550301112881002</v>
       </c>
       <c r="Z35" t="s">
         <v>30</v>
@@ -6315,18 +6233,18 @@
       </c>
       <c r="AE35" s="1">
         <f t="shared" si="3"/>
-        <v>25.6974982326274</v>
+        <v>25.428748037149798</v>
       </c>
       <c r="AF35" t="s">
         <v>30</v>
       </c>
-      <c r="AG35" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[4] := 20.774814507136;</v>
-      </c>
-      <c r="AH35" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[4] := 25.6974982326274;</v>
+      <c r="AG35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH35" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.25">
@@ -6350,16 +6268,22 @@
       <c r="K36" s="1">
         <v>9.1497473972097705</v>
       </c>
+      <c r="L36">
+        <v>21.508012822022799</v>
+      </c>
+      <c r="M36">
+        <v>19.612953338729199</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36">
         <v>5</v>
       </c>
       <c r="S36" s="1">
-        <v>19.257355643670401</v>
+        <v>26.036399214896399</v>
       </c>
       <c r="T36" s="1">
-        <v>25.274162264784302</v>
+        <v>24.050348164184602</v>
       </c>
       <c r="V36" t="s">
         <v>28</v>
@@ -6372,7 +6296,7 @@
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="2"/>
-        <v>19.257355643670401</v>
+        <v>26.036399214896399</v>
       </c>
       <c r="Z36" t="s">
         <v>30</v>
@@ -6388,18 +6312,18 @@
       </c>
       <c r="AE36" s="1">
         <f t="shared" si="3"/>
-        <v>25.274162264784302</v>
+        <v>24.050348164184602</v>
       </c>
       <c r="AF36" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[5] := 19.2573556436704;</v>
-      </c>
-      <c r="AH36" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[5] := 25.2741622647843;</v>
+      <c r="AG36" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH36" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -6423,16 +6347,22 @@
       <c r="K37" s="1">
         <v>6.5427479831356896</v>
       </c>
+      <c r="L37">
+        <v>20.440128886565201</v>
+      </c>
+      <c r="M37">
+        <v>12.206374113726399</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37">
         <v>6</v>
       </c>
       <c r="S37" s="1">
-        <v>25.873471181250501</v>
+        <v>26.207099493930599</v>
       </c>
       <c r="T37" s="1">
-        <v>23.756703401318699</v>
+        <v>16.7362405377912</v>
       </c>
       <c r="V37" t="s">
         <v>28</v>
@@ -6445,7 +6375,7 @@
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="2"/>
-        <v>25.873471181250501</v>
+        <v>26.207099493930599</v>
       </c>
       <c r="Z37" t="s">
         <v>30</v>
@@ -6461,18 +6391,18 @@
       </c>
       <c r="AE37" s="1">
         <f t="shared" si="3"/>
-        <v>23.756703401318699</v>
+        <v>16.7362405377912</v>
       </c>
       <c r="AF37" t="s">
         <v>30</v>
       </c>
-      <c r="AG37" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[6] := 25.8734711812505;</v>
-      </c>
-      <c r="AH37" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[6] := 23.7567034013187;</v>
+      <c r="AG37" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH37" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
@@ -6496,16 +6426,22 @@
       <c r="K38" s="1">
         <v>8.4078768395099299</v>
       </c>
+      <c r="L38">
+        <v>19.4933904019991</v>
+      </c>
+      <c r="M38">
+        <v>11.1384901782688</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38">
         <v>7</v>
       </c>
       <c r="S38" s="1">
-        <v>26.057153260008501</v>
+        <v>26.116418529036</v>
       </c>
       <c r="T38" s="1">
-        <v>16.5726132104901</v>
+        <v>16.906940816825401</v>
       </c>
       <c r="V38" t="s">
         <v>28</v>
@@ -6518,7 +6454,7 @@
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="2"/>
-        <v>26.057153260008501</v>
+        <v>26.116418529036</v>
       </c>
       <c r="Z38" t="s">
         <v>30</v>
@@ -6534,18 +6470,18 @@
       </c>
       <c r="AE38" s="1">
         <f t="shared" si="3"/>
-        <v>16.5726132104901</v>
+        <v>16.906940816825401</v>
       </c>
       <c r="AF38" t="s">
         <v>30</v>
       </c>
-      <c r="AG38" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[7] := 26.0571532600085;</v>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[7] := 16.5726132104901;</v>
+      <c r="AG38" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH38" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
@@ -6569,16 +6505,22 @@
       <c r="K39" s="1">
         <v>18.296054414399102</v>
       </c>
+      <c r="L39">
+        <v>18.686918461706099</v>
+      </c>
+      <c r="M39">
+        <v>10.191751693702701</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39">
         <v>8</v>
       </c>
       <c r="S39" s="1">
-        <v>26.092422771373901</v>
+        <v>26.099089973248098</v>
       </c>
       <c r="T39" s="1">
-        <v>16.756295289248101</v>
+        <v>16.816259851930798</v>
       </c>
       <c r="V39" t="s">
         <v>28</v>
@@ -6591,7 +6533,7 @@
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="2"/>
-        <v>26.092422771373901</v>
+        <v>26.099089973248098</v>
       </c>
       <c r="Z39" t="s">
         <v>30</v>
@@ -6607,18 +6549,18 @@
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="3"/>
-        <v>16.756295289248101</v>
+        <v>16.816259851930798</v>
       </c>
       <c r="AF39" t="s">
         <v>30</v>
       </c>
-      <c r="AG39" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[8] := 26.0924227713739;</v>
-      </c>
-      <c r="AH39" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[8] := 16.7562952892481;</v>
+      <c r="AG39" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH39" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.25">
@@ -6642,16 +6584,22 @@
       <c r="K40" s="1">
         <v>3.0478569996058198</v>
       </c>
+      <c r="L40">
+        <v>18.0167782388944</v>
+      </c>
+      <c r="M40">
+        <v>9.3852797534097192</v>
+      </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40">
         <v>9</v>
       </c>
       <c r="S40" s="1">
-        <v>26.214133520568399</v>
+        <v>26.2015883534268</v>
       </c>
       <c r="T40" s="1">
-        <v>16.7915648006135</v>
+        <v>16.7989312961429</v>
       </c>
       <c r="V40" t="s">
         <v>28</v>
@@ -6664,7 +6612,7 @@
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="2"/>
-        <v>26.214133520568399</v>
+        <v>26.2015883534268</v>
       </c>
       <c r="Z40" t="s">
         <v>30</v>
@@ -6680,18 +6628,18 @@
       </c>
       <c r="AE40" s="1">
         <f t="shared" si="3"/>
-        <v>16.7915648006135</v>
+        <v>16.7989312961429</v>
       </c>
       <c r="AF40" t="s">
         <v>30</v>
       </c>
-      <c r="AG40" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[9] := 26.2141335205684;</v>
-      </c>
-      <c r="AH40" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[9] := 16.7915648006135;</v>
+      <c r="AG40" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH40" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.25">
@@ -6715,14 +6663,20 @@
       <c r="K41" s="1">
         <v>3.3881504896087402</v>
       </c>
+      <c r="L41">
+        <v>17.382588593501801</v>
+      </c>
+      <c r="M41">
+        <v>8.7151395305979698</v>
+      </c>
       <c r="R41">
         <v>10</v>
       </c>
       <c r="S41" s="1">
-        <v>26.203097608745601</v>
+        <v>26.189796836678799</v>
       </c>
       <c r="T41" s="1">
-        <v>16.913275549807999</v>
+        <v>16.901429676321602</v>
       </c>
       <c r="V41" t="s">
         <v>28</v>
@@ -6735,7 +6689,7 @@
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="2"/>
-        <v>26.203097608745601</v>
+        <v>26.189796836678799</v>
       </c>
       <c r="Z41" t="s">
         <v>30</v>
@@ -6751,18 +6705,18 @@
       </c>
       <c r="AE41" s="1">
         <f t="shared" si="3"/>
-        <v>16.913275549807999</v>
+        <v>16.901429676321602</v>
       </c>
       <c r="AF41" t="s">
         <v>30</v>
       </c>
-      <c r="AG41" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[10] := 26.2030976087456;</v>
-      </c>
-      <c r="AH41" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[10] := 16.913275549808;</v>
+      <c r="AG41" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH41" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
@@ -6786,14 +6740,20 @@
       <c r="K42" s="1">
         <v>3.9050099933428002</v>
       </c>
+      <c r="L42">
+        <v>16.618385578453601</v>
+      </c>
+      <c r="M42">
+        <v>8.0809498852053991</v>
+      </c>
       <c r="R42">
         <v>11</v>
       </c>
       <c r="S42" s="1">
-        <v>25.517547548452399</v>
+        <v>25.511424209470999</v>
       </c>
       <c r="T42" s="1">
-        <v>16.9022396379852</v>
+        <v>16.8896381595736</v>
       </c>
       <c r="V42" t="s">
         <v>28</v>
@@ -6806,7 +6766,7 @@
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="2"/>
-        <v>25.517547548452399</v>
+        <v>25.511424209470999</v>
       </c>
       <c r="Z42" t="s">
         <v>30</v>
@@ -6822,18 +6782,18 @@
       </c>
       <c r="AE42" s="1">
         <f t="shared" si="3"/>
-        <v>16.9022396379852</v>
+        <v>16.8896381595736</v>
       </c>
       <c r="AF42" t="s">
         <v>30</v>
       </c>
-      <c r="AG42" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[11] := 25.5175475484524;</v>
-      </c>
-      <c r="AH42" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[11] := 16.9022396379852;</v>
+      <c r="AG42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH42" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
@@ -6857,14 +6817,20 @@
       <c r="K43" s="1">
         <v>4.49999999999996</v>
       </c>
+      <c r="L43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M43">
+        <v>7.31674687015727</v>
+      </c>
       <c r="R43">
         <v>12</v>
       </c>
       <c r="S43" s="1">
-        <v>9.3008579707604007</v>
+        <v>9.3001586771051894</v>
       </c>
       <c r="T43" s="1">
-        <v>16.216689577692001</v>
+        <v>16.2112655323659</v>
       </c>
       <c r="V43" t="s">
         <v>28</v>
@@ -6877,7 +6843,7 @@
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="2"/>
-        <v>9.3008579707604007</v>
+        <v>9.3001586771051894</v>
       </c>
       <c r="Z43" t="s">
         <v>30</v>
@@ -6893,18 +6859,18 @@
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="3"/>
-        <v>16.216689577692001</v>
+        <v>16.2112655323659</v>
       </c>
       <c r="AF43" t="s">
         <v>30</v>
       </c>
-      <c r="AG43" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[12] := 9.3008579707604;</v>
-      </c>
-      <c r="AH43" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[12] := 16.216689577692;</v>
+      <c r="AG43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH43" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.25">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C648E4-042D-4653-929B-869673CC4978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -322,7 +323,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -446,7 +447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -513,7 +514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -522,6 +522,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -613,7 +633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -622,6 +641,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -674,7 +713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,14 +744,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -749,7 +787,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -889,7 +927,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1013,7 +1051,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1080,7 +1118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1089,6 +1126,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1180,7 +1237,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1189,6 +1245,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1241,7 +1317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1273,14 +1348,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1316,7 +1391,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1456,7 +1531,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1580,7 +1655,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1647,7 +1722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1656,6 +1730,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1747,7 +1841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1756,6 +1849,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1808,7 +1921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1840,14 +1952,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3570,7 +3682,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3718,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3754,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,17 +4030,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
@@ -6001,13 +6113,13 @@
       <c r="AF32" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" t="e">
-        <f ca="1">_xlfn.CONCAT(V32:Z32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH32" t="e">
-        <f ca="1">_xlfn.CONCAT(AB32:AF32)</f>
-        <v>#NAME?</v>
+      <c r="AG32" t="str">
+        <f>_xlfn.CONCAT(V32:Z32)</f>
+        <v>Lj0[1] := 13.5002998339463;</v>
+      </c>
+      <c r="AH32" t="str">
+        <f>_xlfn.CONCAT(AB32:AF32)</f>
+        <v>Vj0[1] := 2.77418258346388E-21;</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
@@ -6080,13 +6192,13 @@
       <c r="AF33" t="s">
         <v>30</v>
       </c>
-      <c r="AG33" t="e">
-        <f t="shared" ref="AG33:AG43" ca="1" si="4">_xlfn.CONCAT(V33:Z33)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH33" t="e">
-        <f t="shared" ref="AH33:AH43" ca="1" si="5">_xlfn.CONCAT(AB33:AF33)</f>
-        <v>#NAME?</v>
+      <c r="AG33" t="str">
+        <f t="shared" ref="AG33:AG43" si="4">_xlfn.CONCAT(V33:Z33)</f>
+        <v>Lj0[2] := 20.737343306693;</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" ref="AH33:AH43" si="5">_xlfn.CONCAT(AB33:AF33)</f>
+        <v>Vj0[2] := 18.0003468852498;</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.25">
@@ -6159,13 +6271,13 @@
       <c r="AF34" t="s">
         <v>30</v>
       </c>
-      <c r="AG34" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG34" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[3] := 20.9287009858463;</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[3] := 25.2373903579965;</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
@@ -6238,13 +6350,13 @@
       <c r="AF35" t="s">
         <v>30</v>
       </c>
-      <c r="AG35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH35" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG35" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[4] := 19.550301112881;</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[4] := 25.4287480371498;</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.25">
@@ -6317,13 +6429,13 @@
       <c r="AF36" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH36" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG36" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[5] := 26.0363992148964;</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[5] := 24.0503481641846;</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -6396,13 +6508,13 @@
       <c r="AF37" t="s">
         <v>30</v>
       </c>
-      <c r="AG37" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH37" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG37" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[6] := 26.2070994939306;</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[6] := 16.7362405377912;</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
@@ -6475,13 +6587,13 @@
       <c r="AF38" t="s">
         <v>30</v>
       </c>
-      <c r="AG38" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH38" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG38" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[7] := 26.116418529036;</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[7] := 16.9069408168254;</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
@@ -6554,13 +6666,13 @@
       <c r="AF39" t="s">
         <v>30</v>
       </c>
-      <c r="AG39" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH39" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG39" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[8] := 26.0990899732481;</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[8] := 16.8162598519308;</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.25">
@@ -6633,13 +6745,13 @@
       <c r="AF40" t="s">
         <v>30</v>
       </c>
-      <c r="AG40" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH40" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG40" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[9] := 26.2015883534268;</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[9] := 16.7989312961429;</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.25">
@@ -6710,13 +6822,13 @@
       <c r="AF41" t="s">
         <v>30</v>
       </c>
-      <c r="AG41" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH41" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG41" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[10] := 26.1897968366788;</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[10] := 16.9014296763216;</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
@@ -6787,13 +6899,13 @@
       <c r="AF42" t="s">
         <v>30</v>
       </c>
-      <c r="AG42" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH42" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG42" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[11] := 25.511424209471;</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[11] := 16.8896381595736;</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
@@ -6864,13 +6976,13 @@
       <c r="AF43" t="s">
         <v>30</v>
       </c>
-      <c r="AG43" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="AG43" t="str">
+        <f t="shared" si="4"/>
+        <v>Lj0[12] := 9.30015867710519;</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="5"/>
+        <v>Vj0[12] := 16.2112655323659;</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.25">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C648E4-042D-4653-929B-869673CC4978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -323,7 +322,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -447,7 +446,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -461,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82105984"/>
-        <c:axId val="82106560"/>
+        <c:axId val="160423232"/>
+        <c:axId val="39799616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82105984"/>
+        <c:axId val="160423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -514,6 +513,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -522,26 +522,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -580,13 +560,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82106560"/>
+        <c:crossAx val="39799616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82106560"/>
+        <c:axId val="39799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,6 +613,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -641,26 +622,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -699,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82105984"/>
+        <c:crossAx val="160423232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -713,6 +674,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -744,14 +706,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -787,7 +749,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -927,7 +889,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1051,7 +1013,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1065,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59596800"/>
-        <c:axId val="59597376"/>
+        <c:axId val="39801344"/>
+        <c:axId val="39801920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59596800"/>
+        <c:axId val="39801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1118,6 +1080,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,26 +1089,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1184,13 +1127,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59597376"/>
+        <c:crossAx val="39801920"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59597376"/>
+        <c:axId val="39801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,6 +1180,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1245,26 +1189,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1303,7 +1227,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59596800"/>
+        <c:crossAx val="39801344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,6 +1241,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,14 +1273,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1391,7 +1316,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1531,7 +1456,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1655,7 +1580,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1669,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59599104"/>
-        <c:axId val="59599680"/>
+        <c:axId val="39803648"/>
+        <c:axId val="39804224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59599104"/>
+        <c:axId val="39803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1722,6 +1647,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1730,26 +1656,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1788,13 +1694,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59599680"/>
+        <c:crossAx val="39804224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59599680"/>
+        <c:axId val="39804224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,6 +1747,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1849,26 +1756,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1907,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59599104"/>
+        <c:crossAx val="39803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1921,6 +1808,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1952,14 +1840,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3682,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3606,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3642,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,18 +3918,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32:T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160423232"/>
-        <c:axId val="39799616"/>
+        <c:axId val="149919360"/>
+        <c:axId val="149919936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160423232"/>
+        <c:axId val="149919360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -560,13 +560,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39799616"/>
+        <c:crossAx val="149919936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39799616"/>
+        <c:axId val="149919936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160423232"/>
+        <c:crossAx val="149919360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39801344"/>
-        <c:axId val="39801920"/>
+        <c:axId val="89374720"/>
+        <c:axId val="89375296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39801344"/>
+        <c:axId val="89374720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1127,13 +1127,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39801920"/>
+        <c:crossAx val="89375296"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39801920"/>
+        <c:axId val="89375296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1227,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39801344"/>
+        <c:crossAx val="89374720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39803648"/>
-        <c:axId val="39804224"/>
+        <c:axId val="89377024"/>
+        <c:axId val="89377600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39803648"/>
+        <c:axId val="89377024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1694,13 +1694,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39804224"/>
+        <c:crossAx val="89377600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39804224"/>
+        <c:axId val="89377600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39803648"/>
+        <c:crossAx val="89377024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3606,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3642,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3929,7 +3929,7 @@
   <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32:T43"/>
+      <selection activeCell="O32" sqref="O32:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149919360"/>
-        <c:axId val="149919936"/>
+        <c:axId val="82105984"/>
+        <c:axId val="82106560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149919360"/>
+        <c:axId val="82105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -560,13 +560,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149919936"/>
+        <c:crossAx val="82106560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149919936"/>
+        <c:axId val="82106560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149919360"/>
+        <c:crossAx val="82105984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89374720"/>
-        <c:axId val="89375296"/>
+        <c:axId val="59596800"/>
+        <c:axId val="59597376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89374720"/>
+        <c:axId val="59596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1127,13 +1127,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89375296"/>
+        <c:crossAx val="59597376"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89375296"/>
+        <c:axId val="59597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1227,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89374720"/>
+        <c:crossAx val="59596800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89377024"/>
-        <c:axId val="89377600"/>
+        <c:axId val="59599104"/>
+        <c:axId val="59599680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89377024"/>
+        <c:axId val="59599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1694,13 +1694,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89377600"/>
+        <c:crossAx val="59599680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89377600"/>
+        <c:axId val="59599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89377024"/>
+        <c:crossAx val="59599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:O43"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,13 +6001,13 @@
       <c r="AF32" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" t="str">
-        <f>_xlfn.CONCAT(V32:Z32)</f>
-        <v>Lj0[1] := 13.5002998339463;</v>
-      </c>
-      <c r="AH32" t="str">
-        <f>_xlfn.CONCAT(AB32:AF32)</f>
-        <v>Vj0[1] := 2.77418258346388E-21;</v>
+      <c r="AG32" t="e">
+        <f ca="1">_xlfn.CONCAT(V32:Z32)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH32" t="e">
+        <f ca="1">_xlfn.CONCAT(AB32:AF32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
@@ -6080,13 +6080,13 @@
       <c r="AF33" t="s">
         <v>30</v>
       </c>
-      <c r="AG33" t="str">
-        <f t="shared" ref="AG33:AG43" si="4">_xlfn.CONCAT(V33:Z33)</f>
-        <v>Lj0[2] := 20.737343306693;</v>
-      </c>
-      <c r="AH33" t="str">
-        <f t="shared" ref="AH33:AH43" si="5">_xlfn.CONCAT(AB33:AF33)</f>
-        <v>Vj0[2] := 18.0003468852498;</v>
+      <c r="AG33" t="e">
+        <f t="shared" ref="AG33:AG43" ca="1" si="4">_xlfn.CONCAT(V33:Z33)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH33" t="e">
+        <f t="shared" ref="AH33:AH43" ca="1" si="5">_xlfn.CONCAT(AB33:AF33)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.25">
@@ -6159,13 +6159,13 @@
       <c r="AF34" t="s">
         <v>30</v>
       </c>
-      <c r="AG34" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[3] := 20.9287009858463;</v>
-      </c>
-      <c r="AH34" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[3] := 25.2373903579965;</v>
+      <c r="AG34" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH34" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
@@ -6238,13 +6238,13 @@
       <c r="AF35" t="s">
         <v>30</v>
       </c>
-      <c r="AG35" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[4] := 19.550301112881;</v>
-      </c>
-      <c r="AH35" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[4] := 25.4287480371498;</v>
+      <c r="AG35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH35" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.25">
@@ -6317,13 +6317,13 @@
       <c r="AF36" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[5] := 26.0363992148964;</v>
-      </c>
-      <c r="AH36" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[5] := 24.0503481641846;</v>
+      <c r="AG36" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH36" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -6396,13 +6396,13 @@
       <c r="AF37" t="s">
         <v>30</v>
       </c>
-      <c r="AG37" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[6] := 26.2070994939306;</v>
-      </c>
-      <c r="AH37" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[6] := 16.7362405377912;</v>
+      <c r="AG37" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH37" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
@@ -6475,13 +6475,13 @@
       <c r="AF38" t="s">
         <v>30</v>
       </c>
-      <c r="AG38" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[7] := 26.116418529036;</v>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[7] := 16.9069408168254;</v>
+      <c r="AG38" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH38" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
@@ -6554,13 +6554,13 @@
       <c r="AF39" t="s">
         <v>30</v>
       </c>
-      <c r="AG39" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[8] := 26.0990899732481;</v>
-      </c>
-      <c r="AH39" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[8] := 16.8162598519308;</v>
+      <c r="AG39" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH39" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.25">
@@ -6633,13 +6633,13 @@
       <c r="AF40" t="s">
         <v>30</v>
       </c>
-      <c r="AG40" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[9] := 26.2015883534268;</v>
-      </c>
-      <c r="AH40" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[9] := 16.7989312961429;</v>
+      <c r="AG40" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH40" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.25">
@@ -6710,13 +6710,13 @@
       <c r="AF41" t="s">
         <v>30</v>
       </c>
-      <c r="AG41" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[10] := 26.1897968366788;</v>
-      </c>
-      <c r="AH41" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[10] := 16.9014296763216;</v>
+      <c r="AG41" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH41" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
@@ -6787,13 +6787,13 @@
       <c r="AF42" t="s">
         <v>30</v>
       </c>
-      <c r="AG42" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[11] := 25.511424209471;</v>
-      </c>
-      <c r="AH42" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[11] := 16.8896381595736;</v>
+      <c r="AG42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH42" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
@@ -6864,13 +6864,13 @@
       <c r="AF43" t="s">
         <v>30</v>
       </c>
-      <c r="AG43" t="str">
-        <f t="shared" si="4"/>
-        <v>Lj0[12] := 9.30015867710519;</v>
-      </c>
-      <c r="AH43" t="str">
-        <f t="shared" si="5"/>
-        <v>Vj0[12] := 16.2112655323659;</v>
+      <c r="AG43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH43" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.25">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$L$32:$L$43</c:f>
+              <c:f>Лист1!$N$32:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -410,34 +410,34 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.690120867568002</c:v>
+                  <c:v>12.498507481297599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.288533248968299</c:v>
+                  <c:v>11.012195734789801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.114592047025599</c:v>
+                  <c:v>9.2464007306696097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.508012822022799</c:v>
+                  <c:v>16.3417959759702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.440128886565201</c:v>
+                  <c:v>15.7821459925804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.4933904019991</c:v>
+                  <c:v>15.3730340389828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.686918461706099</c:v>
+                  <c:v>15.017374707209401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.0167782388944</c:v>
+                  <c:v>14.6828235201297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.382588593501801</c:v>
+                  <c:v>14.310208231839599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.618385578453601</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.3000000000000007</c:v>
@@ -460,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82105984"/>
-        <c:axId val="82106560"/>
+        <c:axId val="68998784"/>
+        <c:axId val="68999360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82105984"/>
+        <c:axId val="68998784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -560,13 +560,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82106560"/>
+        <c:crossAx val="68999360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82106560"/>
+        <c:axId val="68999360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82105984"/>
+        <c:crossAx val="68998784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59596800"/>
-        <c:axId val="59597376"/>
+        <c:axId val="58351616"/>
+        <c:axId val="58352192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59596800"/>
+        <c:axId val="58351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1127,13 +1127,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59597376"/>
+        <c:crossAx val="58352192"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59597376"/>
+        <c:axId val="58352192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1227,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59596800"/>
+        <c:crossAx val="58351616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1536,7 +1536,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$32:$M$43</c:f>
+              <c:f>Лист1!$O$32:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1544,37 +1544,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.998361291703599</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.188482159271601</c:v>
+                  <c:v>16.998507481297601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.786894540671899</c:v>
+                  <c:v>15.512195734789801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.612953338729199</c:v>
+                  <c:v>13.746400730669601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.206374113726399</c:v>
+                  <c:v>7.0417959759702198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.1384901782688</c:v>
+                  <c:v>6.4821459925803699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.191751693702701</c:v>
+                  <c:v>6.0730340389828203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3852797534097192</c:v>
+                  <c:v>5.7173747072093803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7151395305979698</c:v>
+                  <c:v>5.3828235201297296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0809498852053991</c:v>
+                  <c:v>5.0102082318396102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.31674687015727</c:v>
+                  <c:v>4.5000000000000098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59599104"/>
-        <c:axId val="59599680"/>
+        <c:axId val="58353920"/>
+        <c:axId val="58354496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59599104"/>
+        <c:axId val="58353920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1694,13 +1694,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59599680"/>
+        <c:crossAx val="58354496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59599680"/>
+        <c:axId val="58354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59599104"/>
+        <c:crossAx val="58353920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3606,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3642,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,6 +5958,12 @@
       <c r="M32">
         <v>0</v>
       </c>
+      <c r="N32">
+        <v>13.5</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32">
@@ -6037,6 +6043,12 @@
       <c r="M33">
         <v>17.998361291703599</v>
       </c>
+      <c r="N33">
+        <v>12.498507481297599</v>
+      </c>
+      <c r="O33">
+        <v>18</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33">
@@ -6116,6 +6128,12 @@
       <c r="M34">
         <v>23.188482159271601</v>
       </c>
+      <c r="N34">
+        <v>11.012195734789801</v>
+      </c>
+      <c r="O34">
+        <v>16.998507481297601</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34">
@@ -6195,6 +6213,12 @@
       <c r="M35">
         <v>21.786894540671899</v>
       </c>
+      <c r="N35">
+        <v>9.2464007306696097</v>
+      </c>
+      <c r="O35">
+        <v>15.512195734789801</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35">
@@ -6274,6 +6298,12 @@
       <c r="M36">
         <v>19.612953338729199</v>
       </c>
+      <c r="N36">
+        <v>16.3417959759702</v>
+      </c>
+      <c r="O36">
+        <v>13.746400730669601</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36">
@@ -6353,6 +6383,12 @@
       <c r="M37">
         <v>12.206374113726399</v>
       </c>
+      <c r="N37">
+        <v>15.7821459925804</v>
+      </c>
+      <c r="O37">
+        <v>7.0417959759702198</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37">
@@ -6432,6 +6468,12 @@
       <c r="M38">
         <v>11.1384901782688</v>
       </c>
+      <c r="N38">
+        <v>15.3730340389828</v>
+      </c>
+      <c r="O38">
+        <v>6.4821459925803699</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38">
@@ -6511,6 +6553,12 @@
       <c r="M39">
         <v>10.191751693702701</v>
       </c>
+      <c r="N39">
+        <v>15.017374707209401</v>
+      </c>
+      <c r="O39">
+        <v>6.0730340389828203</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39">
@@ -6590,6 +6638,12 @@
       <c r="M40">
         <v>9.3852797534097192</v>
       </c>
+      <c r="N40">
+        <v>14.6828235201297</v>
+      </c>
+      <c r="O40">
+        <v>5.7173747072093803</v>
+      </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40">
@@ -6669,6 +6723,12 @@
       <c r="M41">
         <v>8.7151395305979698</v>
       </c>
+      <c r="N41">
+        <v>14.310208231839599</v>
+      </c>
+      <c r="O41">
+        <v>5.3828235201297296</v>
+      </c>
       <c r="R41">
         <v>10</v>
       </c>
@@ -6746,6 +6806,12 @@
       <c r="M42">
         <v>8.0809498852053991</v>
       </c>
+      <c r="N42">
+        <v>13.8</v>
+      </c>
+      <c r="O42">
+        <v>5.0102082318396102</v>
+      </c>
       <c r="R42">
         <v>11</v>
       </c>
@@ -6822,6 +6888,12 @@
       </c>
       <c r="M43">
         <v>7.31674687015727</v>
+      </c>
+      <c r="N43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O43">
+        <v>4.5000000000000098</v>
       </c>
       <c r="R43">
         <v>12</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
   <si>
     <t>x</t>
   </si>
@@ -121,6 +122,24 @@
   </si>
   <si>
     <t>Vj0[</t>
+  </si>
+  <si>
+    <t>Lj</t>
+  </si>
+  <si>
+    <t>Vj</t>
+  </si>
+  <si>
+    <t>rB</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>rD</t>
   </si>
 </sst>
 </file>
@@ -410,37 +429,37 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.498507481297599</c:v>
+                  <c:v>12.516846870351699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.012195734789801</c:v>
+                  <c:v>11.3592788167596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2464007306696097</c:v>
+                  <c:v>11.0996107617016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.3417959759702</c:v>
+                  <c:v>16.7137325488405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.7821459925804</c:v>
+                  <c:v>15.533025947937199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.3730340389828</c:v>
+                  <c:v>15.216699504944099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.017374707209401</c:v>
+                  <c:v>15.099226334011099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.6828235201297</c:v>
+                  <c:v>15.0475211276349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.310208231839599</c:v>
+                  <c:v>15.022498593210599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.8</c:v>
+                  <c:v>15.011137673483899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>0.30110894515349701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68998784"/>
-        <c:axId val="68999360"/>
+        <c:axId val="69457536"/>
+        <c:axId val="69458112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68998784"/>
+        <c:axId val="69457536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -560,13 +579,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68999360"/>
+        <c:crossAx val="69458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68999360"/>
+        <c:axId val="69458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +679,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68998784"/>
+        <c:crossAx val="69457536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58351616"/>
-        <c:axId val="58352192"/>
+        <c:axId val="39542784"/>
+        <c:axId val="39543360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58351616"/>
+        <c:axId val="39542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1127,13 +1146,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58352192"/>
+        <c:crossAx val="39543360"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58352192"/>
+        <c:axId val="39543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1246,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58351616"/>
+        <c:crossAx val="39542784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1544,37 +1563,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>26.977778606096901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.998507481297601</c:v>
+                  <c:v>25.994625476448501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.512195734789801</c:v>
+                  <c:v>24.8370574228565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.746400730669601</c:v>
+                  <c:v>24.5773893677984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0417959759702198</c:v>
+                  <c:v>16.391511154937401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4821459925803699</c:v>
+                  <c:v>15.2108045540341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0730340389828203</c:v>
+                  <c:v>14.8944781110409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7173747072093803</c:v>
+                  <c:v>14.777004940107901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3828235201297296</c:v>
+                  <c:v>14.7252997337318</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0102082318396102</c:v>
+                  <c:v>14.7002771993075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5000000000000098</c:v>
+                  <c:v>14.688916279580701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,11 +1613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58353920"/>
-        <c:axId val="58354496"/>
+        <c:axId val="39545088"/>
+        <c:axId val="39545664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58353920"/>
+        <c:axId val="39545088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1694,13 +1713,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58354496"/>
+        <c:crossAx val="39545664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58354496"/>
+        <c:axId val="39545664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1813,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58353920"/>
+        <c:crossAx val="39545088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,7 +3589,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3625,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3661,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3929,7 +3948,7 @@
   <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,10 +6063,10 @@
         <v>17.998361291703599</v>
       </c>
       <c r="N33">
-        <v>12.498507481297599</v>
+        <v>12.516846870351699</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>26.977778606096901</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6129,10 +6148,10 @@
         <v>23.188482159271601</v>
       </c>
       <c r="N34">
-        <v>11.012195734789801</v>
+        <v>11.3592788167596</v>
       </c>
       <c r="O34">
-        <v>16.998507481297601</v>
+        <v>25.994625476448501</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6214,10 +6233,10 @@
         <v>21.786894540671899</v>
       </c>
       <c r="N35">
-        <v>9.2464007306696097</v>
+        <v>11.0996107617016</v>
       </c>
       <c r="O35">
-        <v>15.512195734789801</v>
+        <v>24.8370574228565</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6299,10 +6318,10 @@
         <v>19.612953338729199</v>
       </c>
       <c r="N36">
-        <v>16.3417959759702</v>
+        <v>16.7137325488405</v>
       </c>
       <c r="O36">
-        <v>13.746400730669601</v>
+        <v>24.5773893677984</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -6384,10 +6403,10 @@
         <v>12.206374113726399</v>
       </c>
       <c r="N37">
-        <v>15.7821459925804</v>
+        <v>15.533025947937199</v>
       </c>
       <c r="O37">
-        <v>7.0417959759702198</v>
+        <v>16.391511154937401</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -6469,10 +6488,10 @@
         <v>11.1384901782688</v>
       </c>
       <c r="N38">
-        <v>15.3730340389828</v>
+        <v>15.216699504944099</v>
       </c>
       <c r="O38">
-        <v>6.4821459925803699</v>
+        <v>15.2108045540341</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6554,10 +6573,10 @@
         <v>10.191751693702701</v>
       </c>
       <c r="N39">
-        <v>15.017374707209401</v>
+        <v>15.099226334011099</v>
       </c>
       <c r="O39">
-        <v>6.0730340389828203</v>
+        <v>14.8944781110409</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6639,10 +6658,10 @@
         <v>9.3852797534097192</v>
       </c>
       <c r="N40">
-        <v>14.6828235201297</v>
+        <v>15.0475211276349</v>
       </c>
       <c r="O40">
-        <v>5.7173747072093803</v>
+        <v>14.777004940107901</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6724,10 +6743,10 @@
         <v>8.7151395305979698</v>
       </c>
       <c r="N41">
-        <v>14.310208231839599</v>
+        <v>15.022498593210599</v>
       </c>
       <c r="O41">
-        <v>5.3828235201297296</v>
+        <v>14.7252997337318</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -6807,10 +6826,10 @@
         <v>8.0809498852053991</v>
       </c>
       <c r="N42">
-        <v>13.8</v>
+        <v>15.011137673483899</v>
       </c>
       <c r="O42">
-        <v>5.0102082318396102</v>
+        <v>14.7002771993075</v>
       </c>
       <c r="R42">
         <v>11</v>
@@ -6890,10 +6909,10 @@
         <v>7.31674687015727</v>
       </c>
       <c r="N43">
-        <v>9.3000000000000007</v>
+        <v>0.30110894515349701</v>
       </c>
       <c r="O43">
-        <v>4.5000000000000098</v>
+        <v>14.688916279580701</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -7094,4 +7113,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.25</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4.5</v>
+      </c>
+      <c r="G2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>B2+F2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <f>B13*D2</f>
+        <v>20.925000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -423,43 +423,43 @@
             <c:numRef>
               <c:f>Лист1!$N$32:$N$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.516846870351699</c:v>
+                  <c:v>22.068954069943626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3592788167596</c:v>
+                  <c:v>21.081647506853809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0996107617016</c:v>
+                  <c:v>20.418283917662507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.7137325488405</c:v>
+                  <c:v>27.951983743995061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.533025947937199</c:v>
+                  <c:v>27.772689531131345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.216699504944099</c:v>
+                  <c:v>27.691229036142968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.099226334011099</c:v>
+                  <c:v>27.643542186949087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0475211276349</c:v>
+                  <c:v>27.594651015604168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.022498593210599</c:v>
+                  <c:v>27.514370739711502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.011137673483899</c:v>
+                  <c:v>30.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30110894515349701</c:v>
+                  <c:v>9.3000000000000025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69457536"/>
-        <c:axId val="69458112"/>
+        <c:axId val="60596800"/>
+        <c:axId val="60597376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69457536"/>
+        <c:axId val="60596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -579,13 +579,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69458112"/>
+        <c:crossAx val="60597376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69458112"/>
+        <c:axId val="60597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +679,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69457536"/>
+        <c:crossAx val="60596800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,12 +739,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -993,40 +988,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-153.10146494358798</c:v>
+                  <c:v>-153.10146494358776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0848981574180243</c:v>
+                  <c:v>9.9587229773402441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.653711719811042</c:v>
+                  <c:v>27.319636730849766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.382917328179019</c:v>
+                  <c:v>37.666646181046985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.020983500779039</c:v>
+                  <c:v>48.523106960952305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.042861042917025</c:v>
+                  <c:v>55.734062357246899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.780378191173043</c:v>
+                  <c:v>58.639069809019588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.053244931996005</c:v>
+                  <c:v>60.393264679610752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.866920603812048</c:v>
+                  <c:v>61.962757794559025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.462600646913017</c:v>
+                  <c:v>64.01488201171162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.680343984067008</c:v>
+                  <c:v>67.2372484341264</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.627545519172998</c:v>
+                  <c:v>75.760406418144726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,11 +1041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39542784"/>
-        <c:axId val="39543360"/>
+        <c:axId val="60603712"/>
+        <c:axId val="69911104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39542784"/>
+        <c:axId val="60603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1146,13 +1141,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39543360"/>
+        <c:crossAx val="69911104"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39543360"/>
+        <c:axId val="69911104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1241,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39542784"/>
+        <c:crossAx val="60603712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1306,12 +1301,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1557,43 +1547,43 @@
             <c:numRef>
               <c:f>Лист1!$O$32:$O$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.977778606096901</c:v>
+                  <c:v>27.660475425136838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.994625476448501</c:v>
+                  <c:v>26.568954069943626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.8370574228565</c:v>
+                  <c:v>25.581647506853809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.5773893677984</c:v>
+                  <c:v>24.918283917662507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.391511154937401</c:v>
+                  <c:v>18.651983743995061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.2108045540341</c:v>
+                  <c:v>18.472689531131344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.8944781110409</c:v>
+                  <c:v>18.391229036142967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.777004940107901</c:v>
+                  <c:v>18.343542186949087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.7252997337318</c:v>
+                  <c:v>18.294651015604167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.7002771993075</c:v>
+                  <c:v>18.214370739711502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.688916279580701</c:v>
+                  <c:v>18.000006363463623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,11 +1603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39545088"/>
-        <c:axId val="39545664"/>
+        <c:axId val="69913408"/>
+        <c:axId val="69913984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39545088"/>
+        <c:axId val="69913408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1713,13 +1703,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39545664"/>
+        <c:crossAx val="69913984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39545664"/>
+        <c:axId val="69913984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1803,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39545088"/>
+        <c:crossAx val="69913408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1873,12 +1863,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3589,7 +3574,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3610,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3646,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +3922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3947,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,40 +4029,40 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>6.6392431025638604E-2</v>
+        <v>6.1219029772215154E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>5.0719123047376804E-4</v>
+        <v>4.2523800991368867E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>2.24637104942661E-4</v>
+        <v>8.3696982491264011E-5</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0673658300852401E-4</v>
+        <v>7.1053013017314547E-5</v>
       </c>
       <c r="F3" s="2">
-        <v>1.7898246713658801E-4</v>
+        <v>6.1899211515293288E-5</v>
       </c>
       <c r="G3" s="2">
-        <v>1.74367695021621E-6</v>
+        <v>4.0262786732032821E-7</v>
       </c>
       <c r="H3" s="2">
-        <v>1.6168893914761599E-8</v>
+        <v>2.5923470743378824E-9</v>
       </c>
       <c r="I3" s="2">
-        <v>1.43671537574828E-10</v>
+        <v>1.6772867111554299E-11</v>
       </c>
       <c r="J3" s="2">
-        <v>1.2322830206246401E-12</v>
+        <v>1.1029028983562037E-13</v>
       </c>
       <c r="K3" s="2">
-        <v>1.02783320455861E-14</v>
+        <v>7.4806875299882364E-16</v>
       </c>
       <c r="L3" s="2">
-        <v>8.3101732499733198E-17</v>
+        <v>5.4069609018114411E-18</v>
       </c>
       <c r="M3" s="2">
-        <v>6.2241645036936301E-19</v>
+        <v>4.0144720545146481E-20</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -4125,40 +4110,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>0.13278486204016601</v>
+        <v>0.12243805954402466</v>
       </c>
       <c r="C4" s="2">
-        <v>1.05274047462164E-2</v>
+        <v>8.2821729756557914E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>4.5417695966331103E-3</v>
+        <v>1.6606873160241963E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>3.76926841362168E-3</v>
+        <v>1.1310228128116782E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>2.9055188781075499E-3</v>
+        <v>8.9473222232685069E-4</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0815332748871701E-4</v>
+        <v>3.8811050018533449E-5</v>
       </c>
       <c r="H4" s="2">
-        <v>1.36345476460698E-5</v>
+        <v>1.632415468732383E-6</v>
       </c>
       <c r="I4" s="2">
-        <v>8.2627093592045799</v>
+        <v>6.8156311114407332E-8</v>
       </c>
       <c r="J4" s="2">
-        <v>4.6926209926752098E-8</v>
+        <v>2.8609190809300386E-9</v>
       </c>
       <c r="K4" s="2">
-        <v>2.5296951422005601E-9</v>
+        <v>1.2215874210381412E-10</v>
       </c>
       <c r="L4" s="2">
-        <v>1.28537986804795E-10</v>
+        <v>5.4359726912943226E-12</v>
       </c>
       <c r="M4" s="2">
-        <v>5.5898469693506601E-12</v>
+        <v>2.3118067765997093E-13</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s">
@@ -4206,40 +4191,40 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>0.19917689278054701</v>
+        <v>0.18365707815078297</v>
       </c>
       <c r="C5" s="2">
-        <v>7.2685387210475794E-2</v>
+        <v>5.4915314584041065E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>3.7388814247178701E-2</v>
+        <v>1.6063842812570759E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>2.7004947435421801E-2</v>
+        <v>7.9641812990846102E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>1.8647085885872001E-2</v>
+        <v>5.3817124482557436E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>4.9390993554325104E-3</v>
+        <v>8.1106762902191122E-4</v>
       </c>
       <c r="H5" s="2">
-        <v>1.1659247610255499E-3</v>
+        <v>1.1697917349684393E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>2.4899408840679598E-4</v>
+        <v>1.6617517849925014E-5</v>
       </c>
       <c r="J5" s="2">
-        <v>4.8889779179319799E-5</v>
+        <v>2.3567315323857365E-6</v>
       </c>
       <c r="K5" s="2">
-        <v>8.95861153399795E-6</v>
+        <v>3.3668933973899931E-7</v>
       </c>
       <c r="L5" s="2">
-        <v>1.5085186719807099E-6</v>
+        <v>4.9115141267275816E-8</v>
       </c>
       <c r="M5" s="2">
-        <v>2.01390826546206E-7</v>
+        <v>6.3628357959796849E-9</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s">
@@ -4287,40 +4272,40 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.264589955021651</v>
+        <v>0.24484939250555229</v>
       </c>
       <c r="C6" s="2">
-        <v>0.28776603713863103</v>
+        <v>0.21269824470999271</v>
       </c>
       <c r="D6" s="2">
-        <v>0.218422153230699</v>
+        <v>0.11303090135343394</v>
       </c>
       <c r="E6" s="2">
-        <v>0.154239842875735</v>
+        <v>5.530459386466343E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>9.2298101732746496E-2</v>
+        <v>2.8474128737222704E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>6.3293124919979196E-2</v>
+        <v>1.0709463789083808E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>3.8017367290179398E-2</v>
+        <v>3.8218352312734956E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>2.0318427880131201E-2</v>
+        <v>1.3354964292894348E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>9.8135587687767107E-3</v>
+        <v>4.6260986931029313E-4</v>
       </c>
       <c r="K6" s="2">
-        <v>4.3303112188261403E-3</v>
+        <v>1.5920894914638915E-4</v>
       </c>
       <c r="L6" s="2">
-        <v>1.69578188966639E-3</v>
+        <v>5.4168580169602282E-5</v>
       </c>
       <c r="M6" s="2">
-        <v>4.9292604296281395E-4</v>
+        <v>1.5230069096481105E-5</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s">
@@ -4368,40 +4353,40 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>0.31508501848825698</v>
+        <v>0.30555295844172586</v>
       </c>
       <c r="C7" s="2">
-        <v>0.51157969623688504</v>
+        <v>0.39148145224929343</v>
       </c>
       <c r="D7" s="2">
-        <v>0.47966459050085197</v>
+        <v>0.27257235028207316</v>
       </c>
       <c r="E7" s="2">
-        <v>0.367655770237788</v>
+        <v>0.15242951273386762</v>
       </c>
       <c r="F7" s="2">
-        <v>0.213288063315594</v>
+        <v>7.5604465408180097E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>0.200970856423561</v>
+        <v>3.8976056676282594E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.16460068636061201</v>
+        <v>1.8969829335401665E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.118894839554362</v>
+        <v>8.999723969422814E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>7.6825663923204904E-2</v>
+        <v>4.205640996886373E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>4.4817075956243797E-2</v>
+        <v>1.9317003099641218E-3</v>
       </c>
       <c r="L7" s="2">
-        <v>2.2863363563004901E-2</v>
+        <v>8.6109358078940599E-4</v>
       </c>
       <c r="M7" s="2">
-        <v>8.4909601074485194E-3</v>
+        <v>3.0896570110537468E-4</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s">
@@ -4449,40 +4434,40 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>1.3052675839237299E-2</v>
+        <v>5.3253082179929516E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>6.5531967498479199E-2</v>
+        <v>0.20479962126571413</v>
       </c>
       <c r="D8" s="2">
-        <v>0.135122442632061</v>
+        <v>0.3460894510197286</v>
       </c>
       <c r="E8" s="2">
-        <v>0.19686118803382199</v>
+        <v>0.40730986432099442</v>
       </c>
       <c r="F8" s="2">
-        <v>0.17860669932533699</v>
+        <v>0.34398346160977494</v>
       </c>
       <c r="G8" s="2">
-        <v>0.20757411712416299</v>
+        <v>0.36639313753406072</v>
       </c>
       <c r="H8" s="2">
-        <v>0.23993062919220201</v>
+        <v>0.36854049474350165</v>
       </c>
       <c r="I8" s="2">
-        <v>0.27001710993334099</v>
+        <v>0.3585790802411179</v>
       </c>
       <c r="J8" s="2">
-        <v>0.29103381281384599</v>
+        <v>0.33888936623164628</v>
       </c>
       <c r="K8" s="2">
-        <v>0.29712779473022499</v>
+        <v>0.30814964400639722</v>
       </c>
       <c r="L8" s="2">
-        <v>0.27595632878262999</v>
+        <v>0.26361494339667924</v>
       </c>
       <c r="M8" s="2">
-        <v>0.193847049982598</v>
+        <v>0.17896684152399528</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s">
@@ -4530,40 +4515,40 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>8.86325764333642E-3</v>
+        <v>2.8920103770206297E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>5.0162541463418697E-2</v>
+        <v>0.12555727350973747</v>
       </c>
       <c r="D9" s="2">
-        <v>0.114675342764996</v>
+        <v>0.23832424831920224</v>
       </c>
       <c r="E9" s="2">
-        <v>0.185699468791162</v>
+        <v>0.31544260400779645</v>
       </c>
       <c r="F9" s="2">
-        <v>0.18775762889841499</v>
+        <v>0.2997206116161808</v>
       </c>
       <c r="G9" s="2">
-        <v>0.211263434852247</v>
+        <v>0.3268520385194853</v>
       </c>
       <c r="H9" s="2">
-        <v>0.238416181468115</v>
+        <v>0.34119149802756854</v>
       </c>
       <c r="I9" s="2">
-        <v>0.26608141338468899</v>
+        <v>0.34783387145427613</v>
       </c>
       <c r="J9" s="2">
-        <v>0.29000119056307699</v>
+        <v>0.34726863988836304</v>
       </c>
       <c r="K9" s="2">
-        <v>0.30579893944248898</v>
+        <v>0.33607968862439591</v>
       </c>
       <c r="L9" s="2">
-        <v>0.300285613990523</v>
+        <v>0.30810559473240712</v>
       </c>
       <c r="M9" s="2">
-        <v>0.22935708221353299</v>
+        <v>0.22771841522497693</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s">
@@ -4611,40 +4596,40 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>5.4210839461795301E-5</v>
+        <v>1.0875691380295465E-4</v>
       </c>
       <c r="C10" s="2">
-        <v>1.19046207116358E-3</v>
+        <v>1.7626789377568671E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>8.8630850206098209E-3</v>
+        <v>1.0805125650519404E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>4.7206476850797797E-2</v>
+        <v>4.4633802526065365E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>0.15015696424925101</v>
+        <v>0.12668639394298306</v>
       </c>
       <c r="G10" s="2">
-        <v>0.15410713000840401</v>
+        <v>0.13304243514126093</v>
       </c>
       <c r="H10" s="2">
-        <v>0.15851565116762101</v>
+        <v>0.13963332447734542</v>
       </c>
       <c r="I10" s="2">
-        <v>0.16329724646767699</v>
+        <v>0.14886239212568494</v>
       </c>
       <c r="J10" s="2">
-        <v>0.16920847168629899</v>
+        <v>0.16375562623856224</v>
       </c>
       <c r="K10" s="2">
-        <v>0.18098777653270001</v>
+        <v>0.18858673709690676</v>
       </c>
       <c r="L10" s="2">
-        <v>0.21241251083064</v>
+        <v>0.22804439715289856</v>
       </c>
       <c r="M10" s="2">
-        <v>0.26719126948678201</v>
+        <v>0.27902197471831958</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s">
@@ -4692,40 +4677,40 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>6.9632170493483698E-7</v>
+        <v>1.5387217603480597E-6</v>
       </c>
       <c r="C11" s="2">
-        <v>4.9312404256588597E-5</v>
+        <v>7.8003757895017529E-5</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0971649020275801E-3</v>
+        <v>1.3696962639563458E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.7356300778644501E-2</v>
+        <v>1.5713365421699155E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.15616095524754101</v>
+        <v>0.11919259480356052</v>
       </c>
       <c r="G11" s="2">
-        <v>0.15764234031177399</v>
+        <v>0.12317658703291895</v>
       </c>
       <c r="H11" s="2">
-        <v>0.15933990904370501</v>
+        <v>0.12772440400359644</v>
       </c>
       <c r="I11" s="2">
-        <v>0.161141142276786</v>
+        <v>0.1343727500892748</v>
       </c>
       <c r="J11" s="2">
-        <v>0.163068365538176</v>
+        <v>0.14541575718267014</v>
       </c>
       <c r="K11" s="2">
-        <v>0.16692914097827599</v>
+        <v>0.16509268420169029</v>
       </c>
       <c r="L11" s="2">
-        <v>0.186784892296326</v>
+        <v>0.19931975343647898</v>
       </c>
       <c r="M11" s="2">
-        <v>0.30062051077025997</v>
+        <v>0.31396856639943943</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s">
@@ -4769,18 +4754,54 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="2">
+        <f>SUM(B3:B11)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:M12" si="0">SUM(C3:C11)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -4903,40 +4924,40 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>6.6215826028015401E-2</v>
+        <v>0.99462502672097219</v>
       </c>
       <c r="C15" s="2">
-        <v>6.6443414035464998E-2</v>
+        <v>6.0948719441571327E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>3.3333098535634903E-2</v>
+        <v>1.475729970639688E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>3.3317252459264403E-2</v>
+        <v>1.3991403508331765E-2</v>
       </c>
       <c r="F15" s="2">
-        <v>3.3363009597988998E-2</v>
+        <v>1.3581888230109373E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>3.5748729735879002E-4</v>
+        <v>9.440369586603348E-5</v>
       </c>
       <c r="H15" s="2">
-        <v>3.48426641219577E-6</v>
+        <v>6.2215779782830935E-7</v>
       </c>
       <c r="I15" s="2">
-        <v>3.2328856773454998E-8</v>
+        <v>4.0747136823344742E-9</v>
       </c>
       <c r="J15" s="2">
-        <v>2.8745641820328702E-10</v>
+        <v>2.7070907453339715E-11</v>
       </c>
       <c r="K15" s="2">
-        <v>2.4676808855078901E-12</v>
+        <v>1.8631392559372783E-13</v>
       </c>
       <c r="L15" s="2">
-        <v>2.0612431158953299E-14</v>
+        <v>1.3805928224072559E-15</v>
       </c>
       <c r="M15" s="2">
-        <v>1.6650160397057101E-16</v>
+        <v>1.0949816659959201E-17</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s">
@@ -4984,40 +5005,40 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>3.4483050961454199E-4</v>
+        <v>5.1796840036703803E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.13282882316653499</v>
+        <v>0.12219357526599835</v>
       </c>
       <c r="D16" s="2">
-        <v>7.1405076236445097E-2</v>
+        <v>3.5244270024982795E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>6.8632578991891305E-2</v>
+        <v>2.9183108507869489E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>6.8364140191886899E-2</v>
+        <v>2.7957128861698127E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>5.7980480704492004E-3</v>
+        <v>1.3653774681216522E-3</v>
       </c>
       <c r="H16" s="2">
-        <v>4.15481978296236E-4</v>
+        <v>5.999452051354475E-5</v>
       </c>
       <c r="I16" s="2">
-        <v>2.7232470948426601E-5</v>
+        <v>2.5665251575458374E-6</v>
       </c>
       <c r="J16" s="2">
-        <v>1.65178555475809E-6</v>
+        <v>1.1002581307482252E-7</v>
       </c>
       <c r="K16" s="2">
-        <v>9.3911126679848794E-8</v>
+        <v>4.8338953336398583E-9</v>
       </c>
       <c r="L16" s="2">
-        <v>5.0658467293260603E-9</v>
+        <v>2.2532236591778997E-10</v>
       </c>
       <c r="M16" s="2">
-        <v>2.5281149456144101E-10</v>
+        <v>1.0815136306087107E-11</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s">
@@ -5065,40 +5086,40 @@
         <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>1.1304152485284199E-5</v>
+        <v>1.6979951100889876E-4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.19918751725417</v>
+        <v>0.18357342857009015</v>
       </c>
       <c r="D17" s="2">
-        <v>0.13565390596542201</v>
+        <v>8.5323238776620861E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.11821023733217501</v>
+        <v>5.4284143604166148E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>0.113178522465137</v>
+        <v>4.6835886743101997E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>3.7189250218945397E-2</v>
+        <v>8.2156634129173026E-3</v>
       </c>
       <c r="H17" s="2">
-        <v>9.8515537311986198E-3</v>
+        <v>1.2540460569216935E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>2.3269371898189499E-3</v>
+        <v>1.8394387049376246E-4</v>
       </c>
       <c r="J17" s="2">
-        <v>4.9729248930704105E-4</v>
+        <v>2.6825721197979668E-5</v>
       </c>
       <c r="K17" s="2">
-        <v>9.7609160572367299E-5</v>
+        <v>3.9783156694377886E-6</v>
       </c>
       <c r="L17" s="2">
-        <v>1.7753709571423301E-5</v>
+        <v>6.1628777870352742E-7</v>
       </c>
       <c r="M17" s="2">
-        <v>2.8294362130497602E-6</v>
+        <v>9.3317859448229593E-8</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s">
@@ -5146,40 +5167,40 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>1.18480044933995E-6</v>
+        <v>1.7860787309556425E-5</v>
       </c>
       <c r="C18" s="2">
-        <v>0.26455776264185799</v>
+        <v>0.24497604070778353</v>
       </c>
       <c r="D18" s="2">
-        <v>0.27622109478633</v>
+        <v>0.22023698644156184</v>
       </c>
       <c r="E18" s="2">
-        <v>0.24147199458292901</v>
+        <v>0.14307093599759674</v>
       </c>
       <c r="F18" s="2">
-        <v>0.20945825566678899</v>
+        <v>9.7242403284259205E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>0.183521606377995</v>
+        <v>4.3470544194576501E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.12570222460464101</v>
+        <v>1.6552778412451768E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>7.5358375721162996E-2</v>
+        <v>6.0016540094844058E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>4.0091292725841901E-2</v>
+        <v>2.1470335622018667E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>1.9135959998938801E-2</v>
+        <v>7.7133566573387466E-4</v>
       </c>
       <c r="L18" s="2">
-        <v>8.1832819422695598E-3</v>
+        <v>2.811046951502341E-4</v>
       </c>
       <c r="M18" s="2">
-        <v>2.9111712960521699E-3</v>
+        <v>9.4437423600039178E-5</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s">
@@ -5227,40 +5248,40 @@
         <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>4.7536881214885501E-7</v>
+        <v>7.5096402830216406E-6</v>
       </c>
       <c r="C19" s="2">
-        <v>0.31502050750260002</v>
+        <v>0.30585220484904369</v>
       </c>
       <c r="D19" s="2">
-        <v>0.413737255706846</v>
+        <v>0.37114482248879938</v>
       </c>
       <c r="E19" s="2">
-        <v>0.39742037036518102</v>
+        <v>0.28005663605771663</v>
       </c>
       <c r="F19" s="2">
-        <v>0.34132564693371498</v>
+        <v>0.18630199234565056</v>
       </c>
       <c r="G19" s="2">
-        <v>0.416718145746933</v>
+        <v>0.11529425208195018</v>
       </c>
       <c r="H19" s="2">
-        <v>0.392173354135402</v>
+        <v>6.0107840923713934E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>0.31988573557697703</v>
+        <v>2.9657207837306604E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>0.22897141278621599</v>
+        <v>1.4342287945104778E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>0.14515915318625899</v>
+        <v>6.8949077774218565E-3</v>
       </c>
       <c r="L19" s="2">
-        <v>8.1286160065179303E-2</v>
+        <v>3.3056915165999728E-3</v>
       </c>
       <c r="M19" s="2">
-        <v>3.7384539702679798E-2</v>
+        <v>1.4321541061283619E-3</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s">
@@ -5308,40 +5329,40 @@
         <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>1.17910970147602E-9</v>
+        <v>7.8366259743733112E-8</v>
       </c>
       <c r="C20" s="2">
-        <v>1.30473425679332E-2</v>
+        <v>5.3365681377932843E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>3.9400623296147803E-2</v>
+        <v>0.16908730843758546</v>
       </c>
       <c r="E20" s="2">
-        <v>7.4129994992171697E-2</v>
+        <v>0.27937470083158905</v>
       </c>
       <c r="F20" s="2">
-        <v>0.10485866509894901</v>
+        <v>0.3289834563036213</v>
       </c>
       <c r="G20" s="2">
-        <v>0.163422277575686</v>
+        <v>0.43104254620768623</v>
       </c>
       <c r="H20" s="2">
-        <v>0.22114484338162199</v>
+        <v>0.46887250340669773</v>
       </c>
       <c r="I20" s="2">
-        <v>0.285691521940867</v>
+        <v>0.47714697491528435</v>
       </c>
       <c r="J20" s="2">
-        <v>0.34588561748469698</v>
+        <v>0.46902209959552071</v>
       </c>
       <c r="K20" s="2">
-        <v>0.38816101672058201</v>
+        <v>0.4492862208188188</v>
       </c>
       <c r="L20" s="2">
-        <v>0.40077881027606199</v>
+        <v>0.41756085714685487</v>
       </c>
       <c r="M20" s="2">
-        <v>0.35890003411932198</v>
+        <v>0.35119374703099387</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s">
@@ -5389,40 +5410,40 @@
         <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>7.7070459514937003E-10</v>
+        <v>4.0966053864538688E-8</v>
       </c>
       <c r="C21" s="2">
-        <v>8.8597236432205202E-3</v>
+        <v>2.8979662369695181E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>2.9599241786665301E-2</v>
+        <v>0.10277154166280895</v>
       </c>
       <c r="E21" s="2">
-        <v>6.1808490322426801E-2</v>
+        <v>0.1906032720124998</v>
       </c>
       <c r="F21" s="2">
-        <v>9.7189459052497304E-2</v>
+        <v>0.25204811084690076</v>
       </c>
       <c r="G21" s="2">
-        <v>0.14640456777236099</v>
+        <v>0.33770786573682277</v>
       </c>
       <c r="H21" s="2">
-        <v>0.19325291119875301</v>
+        <v>0.38105221247949611</v>
       </c>
       <c r="I21" s="2">
-        <v>0.247385666383345</v>
+        <v>0.40619679468735953</v>
       </c>
       <c r="J21" s="2">
-        <v>0.30265667852461597</v>
+        <v>0.42168932793295599</v>
       </c>
       <c r="K21" s="2">
-        <v>0.35061149070359998</v>
+        <v>0.42979230334505286</v>
       </c>
       <c r="L21" s="2">
-        <v>0.38251909781925802</v>
+        <v>0.42785133138484976</v>
       </c>
       <c r="M21" s="2">
-        <v>0.37193829784341698</v>
+        <v>0.39126914012537006</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s">
@@ -5470,40 +5491,40 @@
         <v>12</v>
       </c>
       <c r="B22" s="2">
-        <v>1.3582891740314301E-13</v>
+        <v>4.4390771412468548E-12</v>
       </c>
       <c r="C22" s="2">
-        <v>5.4174871266280598E-5</v>
+        <v>1.0914145441884396E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>6.2455127257486198E-4</v>
+        <v>1.3744129823354729E-3</v>
       </c>
       <c r="E22" s="2">
-        <v>4.4601253836416797E-3</v>
+        <v>8.3759157416247003E-3</v>
       </c>
       <c r="F22" s="2">
-        <v>2.35980989577598E-2</v>
+        <v>3.4800461694665226E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>3.3904007228458002E-2</v>
+        <v>4.6348333549064924E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>4.17930137841135E-2</v>
+        <v>5.3236061988149716E-2</v>
       </c>
       <c r="I22" s="2">
-        <v>5.04477546067129E-2</v>
+        <v>5.9783520973317253E-2</v>
       </c>
       <c r="J22" s="2">
-        <v>5.9747791680714903E-2</v>
+        <v>6.8832094744335937E-2</v>
       </c>
       <c r="K22" s="2">
-        <v>7.1256387072803296E-2</v>
+        <v>8.4190536792835044E-2</v>
       </c>
       <c r="L22" s="2">
-        <v>9.4461358385329999E-2</v>
+        <v>0.11200025573448791</v>
       </c>
       <c r="M22" s="2">
-        <v>0.15707003469953801</v>
+        <v>0.1753136892640875</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s">
@@ -5551,40 +5572,40 @@
         <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>9.5447015789641506E-17</v>
+        <v>3.435913545174978E-15</v>
       </c>
       <c r="C23" s="2">
-        <v>6.9571376231372101E-7</v>
+        <v>1.5459634660172421E-6</v>
       </c>
       <c r="D23" s="2">
-        <v>2.5092617440327199E-5</v>
+        <v>6.0119478908493494E-5</v>
       </c>
       <c r="E23" s="2">
-        <v>5.4891235091083601E-4</v>
+        <v>1.0598837386057217E-3</v>
       </c>
       <c r="F23" s="2">
-        <v>8.6641620974320498E-3</v>
+        <v>1.2248671689993555E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>1.26845559487296E-2</v>
+        <v>1.6461013652994579E-2</v>
       </c>
       <c r="H23" s="2">
-        <v>1.5663122925984201E-2</v>
+        <v>1.8863940054257726E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>1.8876660399681201E-2</v>
+        <v>2.1027333106882699E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>2.2148174617668801E-2</v>
+        <v>2.3940220445798768E-2</v>
       </c>
       <c r="K23" s="2">
-        <v>2.55782318631405E-2</v>
+        <v>2.9060712450386453E-2</v>
       </c>
       <c r="L23" s="2">
-        <v>3.2753503535498302E-2</v>
+        <v>3.9000143008954921E-2</v>
       </c>
       <c r="M23" s="2">
-        <v>7.1793149485885804E-2</v>
+        <v>8.069673872114555E-2</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s">
@@ -5630,51 +5651,51 @@
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>SUM(B15:B23)</f>
-        <v>6.6573622809326924E-2</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C15:C23)</f>
-        <v>0.99999996139681013</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:M24" si="0">SUM(D15:D23)</f>
-        <v>0.99999994020350635</v>
+        <f t="shared" ref="D24:M24" si="1">SUM(D15:D23)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999995678059161</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999996006215497</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9999999462369159</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9999999900064227</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999991661837029</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999999978</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999991238207275</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999994261949021</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999997079903602</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0000000568359195</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -5833,89 +5854,89 @@
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>B29-273.15</f>
-        <v>-153.10146494358798</v>
+        <v>-153.10146494358776</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:M28" si="1">C29-273.15</f>
-        <v>3.0848981574180243</v>
+        <f t="shared" ref="C28:M28" si="2">C29-273.15</f>
+        <v>9.9587229773402441</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>15.653711719811042</v>
+        <f t="shared" si="2"/>
+        <v>27.319636730849766</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>26.382917328179019</v>
+        <f t="shared" si="2"/>
+        <v>37.666646181046985</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>38.020983500779039</v>
+        <f t="shared" si="2"/>
+        <v>48.523106960952305</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>45.042861042917025</v>
+        <f t="shared" si="2"/>
+        <v>55.734062357246899</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
-        <v>53.780378191173043</v>
+        <f t="shared" si="2"/>
+        <v>58.639069809019588</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>61.053244931996005</v>
+        <f t="shared" si="2"/>
+        <v>60.393264679610752</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>61.866920603812048</v>
+        <f t="shared" si="2"/>
+        <v>61.962757794559025</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
-        <v>63.462600646913017</v>
+        <f t="shared" si="2"/>
+        <v>64.01488201171162</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
-        <v>66.680343984067008</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>71.627545519172998</v>
+        <f t="shared" si="2"/>
+        <v>67.2372484341264</v>
+      </c>
+      <c r="M28" s="1">
+        <f>M29-273.15</f>
+        <v>75.760406418144726</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>120.04853505641201</v>
-      </c>
-      <c r="C29">
-        <v>276.234898157418</v>
-      </c>
-      <c r="D29">
-        <v>288.80371171981102</v>
-      </c>
-      <c r="E29">
-        <v>299.532917328179</v>
-      </c>
-      <c r="F29">
-        <v>311.17098350077902</v>
-      </c>
-      <c r="G29">
-        <v>318.192861042917</v>
-      </c>
-      <c r="H29">
-        <v>326.93037819117302</v>
-      </c>
-      <c r="I29">
-        <v>334.20324493199598</v>
-      </c>
-      <c r="J29">
-        <v>335.01692060381203</v>
-      </c>
-      <c r="K29">
-        <v>336.61260064691299</v>
-      </c>
-      <c r="L29">
-        <v>339.83034398406699</v>
-      </c>
-      <c r="M29">
-        <v>344.77754551917297</v>
+      <c r="B29" s="1">
+        <v>120.04853505641222</v>
+      </c>
+      <c r="C29" s="1">
+        <v>283.10872297734022</v>
+      </c>
+      <c r="D29" s="1">
+        <v>300.46963673084974</v>
+      </c>
+      <c r="E29" s="1">
+        <v>310.81664618104696</v>
+      </c>
+      <c r="F29" s="1">
+        <v>321.67310696095228</v>
+      </c>
+      <c r="G29" s="1">
+        <v>328.88406235724688</v>
+      </c>
+      <c r="H29" s="1">
+        <v>331.78906980901957</v>
+      </c>
+      <c r="I29" s="1">
+        <v>333.54326467961073</v>
+      </c>
+      <c r="J29" s="1">
+        <v>335.112757794559</v>
+      </c>
+      <c r="K29" s="1">
+        <v>337.1648820117116</v>
+      </c>
+      <c r="L29" s="1">
+        <v>340.38724843412638</v>
+      </c>
+      <c r="M29" s="1">
+        <v>348.9104064181447</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -5977,10 +5998,10 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>13.5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="2"/>
@@ -6062,11 +6083,11 @@
       <c r="M33">
         <v>17.998361291703599</v>
       </c>
-      <c r="N33">
-        <v>12.516846870351699</v>
-      </c>
-      <c r="O33">
-        <v>26.977778606096901</v>
+      <c r="N33" s="1">
+        <v>22.068954069943626</v>
+      </c>
+      <c r="O33" s="1">
+        <v>27.660475425136838</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6089,7 +6110,7 @@
         <v>29</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" ref="Y33:Y43" si="2">S33</f>
+        <f t="shared" ref="Y33:Y43" si="3">S33</f>
         <v>20.737343306692999</v>
       </c>
       <c r="Z33" t="s">
@@ -6105,18 +6126,18 @@
         <v>29</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" ref="AE33:AE43" si="3">T33</f>
+        <f t="shared" ref="AE33:AE43" si="4">T33</f>
         <v>18.000346885249801</v>
       </c>
       <c r="AF33" t="s">
         <v>30</v>
       </c>
       <c r="AG33" t="e">
-        <f t="shared" ref="AG33:AG43" ca="1" si="4">_xlfn.CONCAT(V33:Z33)</f>
+        <f t="shared" ref="AG33:AG43" ca="1" si="5">_xlfn.CONCAT(V33:Z33)</f>
         <v>#NAME?</v>
       </c>
       <c r="AH33" t="e">
-        <f t="shared" ref="AH33:AH43" ca="1" si="5">_xlfn.CONCAT(AB33:AF33)</f>
+        <f t="shared" ref="AH33:AH43" ca="1" si="6">_xlfn.CONCAT(AB33:AF33)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6147,11 +6168,11 @@
       <c r="M34">
         <v>23.188482159271601</v>
       </c>
-      <c r="N34">
-        <v>11.3592788167596</v>
-      </c>
-      <c r="O34">
-        <v>25.994625476448501</v>
+      <c r="N34" s="1">
+        <v>21.081647506853809</v>
+      </c>
+      <c r="O34" s="1">
+        <v>26.568954069943626</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6174,7 +6195,7 @@
         <v>29</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.928700985846302</v>
       </c>
       <c r="Z34" t="s">
@@ -6190,18 +6211,18 @@
         <v>29</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.2373903579965</v>
       </c>
       <c r="AF34" t="s">
         <v>30</v>
       </c>
       <c r="AG34" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH34" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6232,11 +6253,11 @@
       <c r="M35">
         <v>21.786894540671899</v>
       </c>
-      <c r="N35">
-        <v>11.0996107617016</v>
-      </c>
-      <c r="O35">
-        <v>24.8370574228565</v>
+      <c r="N35" s="1">
+        <v>20.418283917662507</v>
+      </c>
+      <c r="O35" s="1">
+        <v>25.581647506853809</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6259,7 +6280,7 @@
         <v>29</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.550301112881002</v>
       </c>
       <c r="Z35" t="s">
@@ -6275,18 +6296,18 @@
         <v>29</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.428748037149798</v>
       </c>
       <c r="AF35" t="s">
         <v>30</v>
       </c>
       <c r="AG35" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH35" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6317,11 +6338,11 @@
       <c r="M36">
         <v>19.612953338729199</v>
       </c>
-      <c r="N36">
-        <v>16.7137325488405</v>
-      </c>
-      <c r="O36">
-        <v>24.5773893677984</v>
+      <c r="N36" s="1">
+        <v>27.951983743995061</v>
+      </c>
+      <c r="O36" s="1">
+        <v>24.918283917662507</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -6344,7 +6365,7 @@
         <v>29</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.036399214896399</v>
       </c>
       <c r="Z36" t="s">
@@ -6360,18 +6381,18 @@
         <v>29</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.050348164184602</v>
       </c>
       <c r="AF36" t="s">
         <v>30</v>
       </c>
       <c r="AG36" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH36" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6402,11 +6423,11 @@
       <c r="M37">
         <v>12.206374113726399</v>
       </c>
-      <c r="N37">
-        <v>15.533025947937199</v>
-      </c>
-      <c r="O37">
-        <v>16.391511154937401</v>
+      <c r="N37" s="1">
+        <v>27.772689531131345</v>
+      </c>
+      <c r="O37" s="1">
+        <v>18.651983743995061</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -6429,7 +6450,7 @@
         <v>29</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.207099493930599</v>
       </c>
       <c r="Z37" t="s">
@@ -6445,18 +6466,18 @@
         <v>29</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.7362405377912</v>
       </c>
       <c r="AF37" t="s">
         <v>30</v>
       </c>
       <c r="AG37" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH37" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6487,11 +6508,11 @@
       <c r="M38">
         <v>11.1384901782688</v>
       </c>
-      <c r="N38">
-        <v>15.216699504944099</v>
-      </c>
-      <c r="O38">
-        <v>15.2108045540341</v>
+      <c r="N38" s="1">
+        <v>27.691229036142968</v>
+      </c>
+      <c r="O38" s="1">
+        <v>18.472689531131344</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6514,7 +6535,7 @@
         <v>29</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.116418529036</v>
       </c>
       <c r="Z38" t="s">
@@ -6530,18 +6551,18 @@
         <v>29</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.906940816825401</v>
       </c>
       <c r="AF38" t="s">
         <v>30</v>
       </c>
       <c r="AG38" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH38" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6572,11 +6593,11 @@
       <c r="M39">
         <v>10.191751693702701</v>
       </c>
-      <c r="N39">
-        <v>15.099226334011099</v>
-      </c>
-      <c r="O39">
-        <v>14.8944781110409</v>
+      <c r="N39" s="1">
+        <v>27.643542186949087</v>
+      </c>
+      <c r="O39" s="1">
+        <v>18.391229036142967</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6599,7 +6620,7 @@
         <v>29</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.099089973248098</v>
       </c>
       <c r="Z39" t="s">
@@ -6615,18 +6636,18 @@
         <v>29</v>
       </c>
       <c r="AE39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.816259851930798</v>
       </c>
       <c r="AF39" t="s">
         <v>30</v>
       </c>
       <c r="AG39" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH39" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6657,11 +6678,11 @@
       <c r="M40">
         <v>9.3852797534097192</v>
       </c>
-      <c r="N40">
-        <v>15.0475211276349</v>
-      </c>
-      <c r="O40">
-        <v>14.777004940107901</v>
+      <c r="N40" s="1">
+        <v>27.594651015604168</v>
+      </c>
+      <c r="O40" s="1">
+        <v>18.343542186949087</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6684,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.2015883534268</v>
       </c>
       <c r="Z40" t="s">
@@ -6700,18 +6721,18 @@
         <v>29</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.7989312961429</v>
       </c>
       <c r="AF40" t="s">
         <v>30</v>
       </c>
       <c r="AG40" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH40" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6742,11 +6763,11 @@
       <c r="M41">
         <v>8.7151395305979698</v>
       </c>
-      <c r="N41">
-        <v>15.022498593210599</v>
-      </c>
-      <c r="O41">
-        <v>14.7252997337318</v>
+      <c r="N41" s="1">
+        <v>27.514370739711502</v>
+      </c>
+      <c r="O41" s="1">
+        <v>18.294651015604167</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -6767,7 +6788,7 @@
         <v>29</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.189796836678799</v>
       </c>
       <c r="Z41" t="s">
@@ -6783,18 +6804,18 @@
         <v>29</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.901429676321602</v>
       </c>
       <c r="AF41" t="s">
         <v>30</v>
       </c>
       <c r="AG41" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH41" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6825,11 +6846,11 @@
       <c r="M42">
         <v>8.0809498852053991</v>
       </c>
-      <c r="N42">
-        <v>15.011137673483899</v>
-      </c>
-      <c r="O42">
-        <v>14.7002771993075</v>
+      <c r="N42" s="1">
+        <v>30.29999999999999</v>
+      </c>
+      <c r="O42" s="1">
+        <v>18.214370739711502</v>
       </c>
       <c r="R42">
         <v>11</v>
@@ -6850,7 +6871,7 @@
         <v>29</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.511424209470999</v>
       </c>
       <c r="Z42" t="s">
@@ -6866,18 +6887,18 @@
         <v>29</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.8896381595736</v>
       </c>
       <c r="AF42" t="s">
         <v>30</v>
       </c>
       <c r="AG42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH42" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6908,11 +6929,11 @@
       <c r="M43">
         <v>7.31674687015727</v>
       </c>
-      <c r="N43">
-        <v>0.30110894515349701</v>
-      </c>
-      <c r="O43">
-        <v>14.688916279580701</v>
+      <c r="N43" s="1">
+        <v>9.3000000000000025</v>
+      </c>
+      <c r="O43" s="1">
+        <v>18.000006363463623</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -6933,7 +6954,7 @@
         <v>29</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.3001586771051894</v>
       </c>
       <c r="Z43" t="s">
@@ -6949,18 +6970,18 @@
         <v>29</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.2112655323659</v>
       </c>
       <c r="AF43" t="s">
         <v>30</v>
       </c>
       <c r="AG43" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AH43" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA67B59-503C-4E76-B181-4F9DDF7538EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="41">
   <si>
     <t>x</t>
   </si>
@@ -141,20 +142,37 @@
   <si>
     <t>rD</t>
   </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,17 +193,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{4E723D6B-B4EC-4F5C-9D7B-E89C45B454FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +226,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -341,7 +366,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -426,46 +451,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13.5</c:v>
+                  <c:v>13.499999223365014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.068954069943626</c:v>
+                  <c:v>23.036874400192566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.081647506853809</c:v>
+                  <c:v>22.67688469841093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.418283917662507</c:v>
+                  <c:v>22.266961636234228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.951983743995061</c:v>
+                  <c:v>29.61978267791627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.772689531131345</c:v>
+                  <c:v>29.371167861545615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.691229036142968</c:v>
+                  <c:v>28.984600516134741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.643542186949087</c:v>
+                  <c:v>28.49707289926495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.594651015604168</c:v>
+                  <c:v>28.041872424847973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.514370739711502</c:v>
+                  <c:v>27.677702699356125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.29999999999999</c:v>
+                  <c:v>27.300007123396959</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3000000000000025</c:v>
+                  <c:v>9.3000002588783328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -532,7 +557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -541,6 +565,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -632,7 +676,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -641,6 +684,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -693,7 +756,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -725,14 +787,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -763,7 +825,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -903,7 +965,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -991,43 +1053,43 @@
                   <c:v>-153.10146494358776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9587229773402441</c:v>
+                  <c:v>0.18973851054909119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.319636730849766</c:v>
+                  <c:v>10.839857695996784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.666646181046985</c:v>
+                  <c:v>15.39834642261269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.523106960952305</c:v>
+                  <c:v>26.309201283752941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.734062357246899</c:v>
+                  <c:v>31.186758889257931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.639069809019588</c:v>
+                  <c:v>35.939961834251903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.393264679610752</c:v>
+                  <c:v>42.136390669643902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.962757794559025</c:v>
+                  <c:v>49.037840007245563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.01488201171162</c:v>
+                  <c:v>55.57188072651627</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.2372484341264</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75.760406418144726</c:v>
+                  <c:v>62.141747190058254</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>72.219414426386379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EF46-428C-A646-CC648140D497}"/>
             </c:ext>
@@ -1094,7 +1156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1103,6 +1164,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1194,7 +1275,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1203,6 +1283,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1255,7 +1355,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1287,14 +1386,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1325,7 +1424,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1465,7 +1564,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1553,43 +1652,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.660475425136838</c:v>
+                  <c:v>17.999998964486686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.568954069943626</c:v>
+                  <c:v>27.536874141314239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.581647506853809</c:v>
+                  <c:v>27.1768844395326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.918283917662507</c:v>
+                  <c:v>26.766961377355898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.651983743995061</c:v>
+                  <c:v>20.319782419037942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.472689531131344</c:v>
+                  <c:v>20.071167602667288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.391229036142967</c:v>
+                  <c:v>19.684600257256413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.343542186949087</c:v>
+                  <c:v>19.197072640386619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.294651015604167</c:v>
+                  <c:v>18.741872165969642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.214370739711502</c:v>
+                  <c:v>18.377702440477794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.000006363463623</c:v>
+                  <c:v>18.000006864518632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF46-44E1-A6EE-018B0BED1170}"/>
             </c:ext>
@@ -1656,7 +1755,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1665,6 +1763,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1756,7 +1874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1765,6 +1882,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1817,7 +1954,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1849,14 +1985,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3574,7 +3710,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF84E65-D7B8-494D-8A42-528AB9382B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C7E28-171D-4493-B5E2-810E7126CB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3782,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9EBE75-519E-4134-9130-0BF7506AED15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,18 +4058,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="L135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE145" sqref="AE145:AF156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,7 +4078,7 @@
     <col min="34" max="34" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -4024,747 +4160,990 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>6.1219029772215154E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.2523800991368867E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.3696982491264011E-5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.1053013017314547E-5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.1899211515293288E-5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4.0262786732032821E-7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.5923470743378824E-9</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.6772867111554299E-11</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.1029028983562037E-13</v>
-      </c>
-      <c r="K3" s="2">
-        <v>7.4806875299882364E-16</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5.4069609018114411E-18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4.0144720545146481E-20</v>
+      <c r="B3" s="6">
+        <v>6.8866696406360603E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.4799703056124434E-4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8.1252321844983011E-5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.5518000396418512E-5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.7616314121935722E-5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5.4850436634933119E-7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4.2943529349762778E-9</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.2246045089444464E-11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.333177470303827E-13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.6593023837958955E-15</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.1952012247757638E-17</v>
+      </c>
+      <c r="M3" s="6">
+        <v>9.1531996811421531E-20</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2">
-        <v>6.8159043249714196E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>7.9995591476864102E-4</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1.39006606358986E-4</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1.2780494351673501E-4</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1.3084930825156999E-4</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1.4299625786415001E-4</v>
-      </c>
-      <c r="V3" s="2">
-        <v>2.4326762504817602E-6</v>
-      </c>
-      <c r="W3" s="2">
-        <v>4.1167237003781301E-8</v>
-      </c>
-      <c r="X3" s="2">
-        <v>6.9071469778928199E-10</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1.13684533852204E-11</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1.8192851080123801E-13</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>2.7954873193237002E-15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P3" s="8">
+        <v>6.8148451541245103E-2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8.0168703130431996E-4</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1.4009437335128701E-4</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1.3078297700382999E-4</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1.40882744098026E-4</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2.3717407570549399E-6</v>
+      </c>
+      <c r="V3" s="8">
+        <v>3.9838318383923002E-8</v>
+      </c>
+      <c r="W3" s="8">
+        <v>6.71441542929902E-10</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1.12488778567059E-11</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1.8508189076740301E-13</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2.9619732876736098E-15</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4.5515226551489703E-17</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.99999085592420101</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>8.8795953974875392E-6</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>2.5382268834583698E-7</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>8.8482148733180501E-9</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1.8082755008622501E-9</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1.16869052720697E-12</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>5.3686935790017198E-14</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1.2574000136534899E-18</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1.1400226227836901E-22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.12243805954402466</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.2821729756557914E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.6606873160241963E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.1310228128116782E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.9473222232685069E-4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.8811050018533449E-5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.632415468732383E-6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6.8156311114407332E-8</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.8609190809300386E-9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.2215874210381412E-10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5.4359726912943226E-12</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2.3118067765997093E-13</v>
+      <c r="B4" s="6">
+        <v>0.13773339281006169</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.1724444527570071E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.1585728651311825E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.4947085335916223E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.1868186141175577E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.7345577251919522E-5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4.6762853321147359E-6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.5811956173144829E-7</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.3034209339647089E-8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>6.174300233514548E-10</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.8295811604468334E-11</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1.2670622711555226E-12</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.13631808595279901</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1.46293603156918E-2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>3.2245807159100698E-3</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2.2252396212470299E-3</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2.0277231768058802E-3</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1.7226350670540801E-3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.5425463307054701E-4</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1.27251203898842E-5</v>
-      </c>
-      <c r="X4" s="2">
-        <v>9.7405029256275198E-7</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>6.9747476781863505E-8</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>4.6403476772447598E-9</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>2.64440871131991E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P4" s="8">
+        <v>0.136296903029588</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.45738379248411E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>3.1858718850521798E-3</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2.1514893860572399E-3</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1.7737565192956701E-3</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1.67594153624125E-4</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1.4838235932335699E-5</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1.2241792201347399E-6</v>
+      </c>
+      <c r="X4" s="8">
+        <v>9.3919476700148304E-8</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>6.7395457190267599E-9</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>4.4897911996687601E-10</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2.5597659448106899E-11</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>6.81484515412452E-2</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.13629690302958899</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.20444530432937999</v>
+      </c>
+      <c r="AF4">
+        <v>0.27210498387287702</v>
+      </c>
+      <c r="AG4">
+        <v>0.31614737338425097</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>2.2336583597157701E-3</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>6.2081364333058196E-4</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>2.4946052505807101E-6</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1.7234360947588599E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.18365707815078297</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5.4915314584041065E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.6063842812570759E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7.9641812990846102E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.3817124482557436E-3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8.1106762902191122E-4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.1697917349684393E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.6617517849925014E-5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.3567315323857365E-6</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.3668933973899931E-7</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4.9115141267275816E-8</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6.3628357959796849E-9</v>
+      <c r="B5" s="6">
+        <v>0.20659994278602581</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8.2526093099999531E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.0129425253927443E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.5389789789794987E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.2804009936496394E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.3655413560264345E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.454845314024708E-4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.1129083500482134E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.0093774549772118E-5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3.3002978259557509E-6</v>
+      </c>
+      <c r="L5" s="6">
+        <v>5.0609872586411447E-7</v>
+      </c>
+      <c r="M5" s="6">
+        <v>6.9763202884077211E-8</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="2">
-        <v>0.204476939356392</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>7.7547200009370099E-2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>2.8337047306764101E-2</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1.5202557280953599E-2</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1.1083860950896101E-2</v>
-      </c>
-      <c r="U5" s="2">
-        <v>7.6865191391417504E-3</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1.65676683013477E-3</v>
-      </c>
-      <c r="W5" s="2">
-        <v>3.0973447524046302E-4</v>
-      </c>
-      <c r="X5" s="2">
-        <v>5.0634324899852698E-5</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>7.3472544450231297E-6</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>9.3616587207162003E-7</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>9.2103682897251294E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P5" s="8">
+        <v>0.20444530432937999</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>7.7114338311163405E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2.77182575632237E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1.4208298688100101E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <v>8.5627137163025394E-3</v>
+      </c>
+      <c r="U5" s="8">
+        <v>2.0334320852702001E-3</v>
+      </c>
+      <c r="V5" s="8">
+        <v>4.3188340614681999E-4</v>
+      </c>
+      <c r="W5" s="8">
+        <v>8.0834956844246799E-5</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1.3275940319579701E-5</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1.93449634241879E-6</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>2.4712350050840998E-7</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>2.4335817639602399E-8</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1.28102031555464E-2</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>3.6278123210688303E-2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>9.9818561293091204E-2</v>
+      </c>
+      <c r="AF5">
+        <v>0.31427928063327198</v>
+      </c>
+      <c r="AG5">
+        <v>0.52262840624607998</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>1.02573169872617E-2</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>3.8619967017696098E-3</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>6.44211084680827E-5</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1.6906638219040401E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.24484939250555229</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.21269824470999271</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.11303090135343394</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.530459386466343E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.8474128737222704E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.0709463789083808E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.8218352312734956E-3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.3354964292894348E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>4.6260986931029313E-4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.5920894914638915E-4</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5.4168580169602282E-5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1.5230069096481105E-5</v>
+      <c r="B6" s="6">
+        <v>0.27441970343850902</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.33068282544939187</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.27247515471796796</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2009800875580558</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.11372930144520764</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7.7859066323774401E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.7429750051740431E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2.5026987911614351E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.1406947075810104E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4.6015451353987715E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.6637356179810868E-3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.9884779386958646E-4</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.27206729040514999</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.32532463223594399</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.26964096751460898</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.20688781806579001</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.14555096896448699</v>
-      </c>
-      <c r="U6" s="2">
-        <v>7.6890294047051805E-2</v>
-      </c>
-      <c r="V6" s="2">
-        <v>4.5567012400576201E-2</v>
-      </c>
-      <c r="W6" s="2">
-        <v>2.2945335945677499E-2</v>
-      </c>
-      <c r="X6" s="2">
-        <v>9.8936928870480799E-3</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>3.7071025918896101E-3</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1.1841831963194699E-3</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>2.7520048478439901E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P6" s="8">
+        <v>0.27210498387287702</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.32343119160714201</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.26271185981658202</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.18850667201813701</v>
+      </c>
+      <c r="T6" s="8">
+        <v>9.9739351473494803E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>6.6088824693048595E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <v>3.8556394806373101E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1.9446412080199E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>8.4302030573965396E-3</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>3.1738293349137998E-3</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1.01673507974246E-3</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>2.3652535301437E-4</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1.2175323425535499E-2</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>2.6742120203798899E-2</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>5.8993097540550599E-2</v>
+      </c>
+      <c r="AF6">
+        <v>0.26437413198783899</v>
+      </c>
+      <c r="AG6">
+        <v>0.59119196400518403</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>3.0210092963168199E-2</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1.52395115380654E-2</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>9.8192086440269401E-4</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>9.1837471455260202E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.30555295844172586</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.39148145224929343</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.27257235028207316</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.15242951273386762</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.5604465408180097E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.8976056676282594E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.8969829335401665E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8.999723969422814E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4.205640996886373E-3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.9317003099641218E-3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8.6109358078940599E-4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.0896570110537468E-4</v>
+      <c r="B7" s="6">
+        <v>0.31015099095391857</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.56116962669321235</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.6488053349995262</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.63741060216784762</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.44481616833736226</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.42851175832190436</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.36455817407962499</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.26579898241187444</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.16519739559064495</v>
+      </c>
+      <c r="K7" s="6">
+        <v>8.9463467301275398E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4.2545083828900598E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.6285121145179184E-2</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="2">
-        <v>0.31751581967070103</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.57332040291734399</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.67088054925208895</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.69379657600872402</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.62013886372330695</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0.37836826141512397</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0.32658085853051999</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0.23783834693497699</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.147056961138956</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>7.8269814038415195E-2</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>3.5113272012992899E-2</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1.1261552549394999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P7" s="8">
+        <v>0.31614737338425097</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.56743522404033897</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.650331496833226</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.62661879735260195</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.41269003254419601</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.399930863752749</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.33971247674045502</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0.24779611601172699</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.15405232169352601</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>8.2389629906335402E-2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3.7067971950509898E-2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1.1900671860870699E-2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1.28575304972276E-2</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2.7251361911454899E-2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>4.9803437288202003E-2</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.20414870489798101</v>
+      </c>
+      <c r="AG7">
+        <v>0.56852666469801605</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>7.2682884007384596E-2</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>4.9055784942638299E-2</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1.18308575527951E-2</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>3.84277420430011E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>5.3253082179929516E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20479962126571413</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.3460894510197286</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.40730986432099442</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.34398346160977494</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.36639313753406072</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.36854049474350165</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.3585790802411179</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.33888936623164628</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.30814964400639722</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.26361494339667924</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.17896684152399528</v>
+      <c r="B8" s="6">
+        <v>1.3616788139928096E-3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.7270269167051455E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.4905047507551525E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6.6114546908494734E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.11797567727109641</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.14743219917256581</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.19299220771705414</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.2461809730923197</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.28699861133482879</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.29889865639161856</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.27265304860474765</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.19620687805774492</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="2">
-        <v>1.2316509004782301E-3</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>6.6612614778531198E-3</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2.06052236606671E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>5.4944933133982E-2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.12339986240551799</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.17603577810541199</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.232952387566912</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0.29682452111678398</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.34454152521940201</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0.35612073414613898</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0.31414231731138598</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0.19723834193623799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P8" s="8">
+        <v>2.2336583597157601E-3</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1.1998467761184701E-2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>3.62255294744162E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>8.8898738091265306E-2</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.139516963503554</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.175454492833995</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.23007079539297101</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.29289105232242302</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.34114456101239699</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.35398484677682901</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0.31307325547896803</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0.19676824087358999</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2.1916985236578E-4</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2.7594149656288199E-3</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1.3320913131604601E-2</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.15503206011085499</v>
+      </c>
+      <c r="AG8">
+        <v>0.63540460467488502</v>
+      </c>
+      <c r="AH8">
+        <v>0.10770301085355399</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>6.6003058851174606E-2</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1.4716740438853499E-2</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>4.8410271210780897E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.8920103770206297E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.12555727350973747</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.23832424831920224</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.31544260400779645</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.2997206116161808</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.3268520385194853</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.34119149802756854</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.34783387145427613</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.34726863988836304</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.33607968862439591</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.30810559473240712</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.22771841522497693</v>
+      <c r="B9" s="6">
+        <v>8.6371081526640729E-4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.5212935754379621E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.0019587023350181E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5.9932948295657873E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.12099224995782697</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.14421067332087401</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.18203383993732122</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.23057143232419328</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.27544222944559538</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.30114498113738175</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.29350822906917207</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.22925338600410203</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="2">
-        <v>2.3094457866715501E-4</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1.71003950313672E-3</v>
-      </c>
-      <c r="R9" s="2">
-        <v>7.0577380639255697E-3</v>
-      </c>
-      <c r="S9" s="2">
-        <v>2.5162312112089202E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <v>7.5528177460205306E-2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.14223862484764299</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.17255596181107599</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0.215002632815956</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0.26188833832032199</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0.30101988662946599</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.30812088684822198</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.230694799946073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P9" s="8">
+        <v>6.2081364333058196E-4</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>4.5653402327684002E-3</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1.8382794458471598E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>6.02044444193875E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.12476948216261501</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.141707920274424</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.17125004648856401</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0.21304842742424299</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.26002820213125999</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0.299797517241842</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0.30758753953197798</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.23052348381283999</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>3.6763863236375101E-6</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>2.5978421928319901E-4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>3.1519676577342701E-3</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.102312813393894</v>
+      </c>
+      <c r="AG9">
+        <v>0.61337825173382599</v>
+      </c>
+      <c r="AH9">
+        <v>0.163730240592287</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>9.2852314588399099E-2</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1.8278292922597101E-2</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>6.0326585056547904E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.0875691380295465E-4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.7626789377568671E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0805125650519404E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.4633802526065365E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.12668639394298306</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.13304243514126093</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.13963332447734542</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.14886239212568494</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.16375562623856224</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.18858673709690676</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.22804439715289856</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.27902197471831958</v>
+      <c r="B10" s="6">
+        <v>3.8392470422303978E-6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.6995003012345123E-5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.2751879971366106E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.3684088431174612E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9.3843671931339051E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9.8386708695238884E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.10611473533138556</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.1180536008483184</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.13530906930445363</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.16202363687561802</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.20641449623870176</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.26247231097701978</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="2">
-        <v>2.2543815891958601E-7</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>7.0937846120525104E-6</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1.11866748389367E-4</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1.5096645076208199E-3</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1.67053496519028E-2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.10642060738772099</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0.109540443110049</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.114644019759944</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0.12259547613371501</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0.141734031779889</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0.19158465645457501</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0.26377877187897802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P10" s="8">
+        <v>2.4946052505807101E-6</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>7.7859289727854597E-5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1.19251512213744E-3</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1.4553485173541899E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0.10368797801364101</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.10540612091568401</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.10923946954760901</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0.114406993500818</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.122383679980842</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0.141533048948246</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0.1914525195732</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0.263797507828684</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>6.1870725425592294E-8</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>2.30444430088104E-5</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>6.7072116885820996E-4</v>
+      </c>
+      <c r="AF10">
+        <v>5.9749030359116002E-2</v>
+      </c>
+      <c r="AG10">
+        <v>0.52100735612817595</v>
+      </c>
+      <c r="AH10">
+        <v>0.24848862695066001</v>
+      </c>
+      <c r="AI10">
+        <v>0.138469132224212</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>2.3761825083697102E-2</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>7.8302017715471805E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.5387217603480597E-6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7.8003757895017529E-5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.3696962639563458E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.5713365421699155E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.11919259480356052</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.12317658703291895</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.12772440400359644</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.1343727500892748</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.14541575718267014</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.16509268420169029</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.19931975343647898</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.31396856639943943</v>
+      <c r="B11" s="6">
+        <v>4.4728823054460191E-8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.6977041095148344E-6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.5043731356374367E-4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.9177103149863908E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.8108095135278642E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.10115615872799805</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.10632112777178609</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.11425647442486708</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.12562564043967475</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.14386441224344987</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.18321490051347528</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.29528338625761452</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="2">
-        <v>4.47939004521347E-10</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>5.38412802529707E-8</v>
-      </c>
-      <c r="R11" s="2">
-        <v>3.0201312875516499E-6</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1.4309432607630601E-4</v>
-      </c>
-      <c r="T11" s="2">
-        <v>5.4343443586260497E-3</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0.110494283732988</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0.110989882441411</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.11242264266379499</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.113972397234649</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0.11914101380091099</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0.14985374337010299</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0.29675124083640397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P11" s="8">
+        <v>1.7234360947588599E-8</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>2.0538015295635798E-6</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1.11580473539608E-4</v>
+      </c>
+      <c r="S11" s="8">
+        <v>4.7272918939052803E-3</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.109118839322803</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.109208379550448</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0.110724055543631</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0.112328938853083</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0.11394766225353301</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0.11911918655576</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0.14980173081312001</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0.29677354590958599</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1.04316236006208E-9</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1.90189036338987E-6</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1.25573016968073E-4</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>3.00813144786066E-2</v>
+      </c>
+      <c r="AG11">
+        <v>0.37839162968662898</v>
+      </c>
+      <c r="AH11">
+        <v>0.34610618745241101</v>
+      </c>
+      <c r="AI11">
+        <v>0.20337395501642799</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>3.17020009265283E-2</v>
+      </c>
+      <c r="AK11">
+        <v>1.0217436488903E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f>SUM(B3:B11)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:M12" si="0">SUM(C3:C11)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
@@ -4776,23 +5155,23 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
@@ -4815,8 +5194,35 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC12" s="3">
+        <v>1.7438645687676599E-11</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1.4558540027055499E-7</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>2.05677509506616E-5</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1.29388454775446E-2</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.23227250335709901</v>
+      </c>
+      <c r="AH12">
+        <v>0.42058888686067503</v>
+      </c>
+      <c r="AI12">
+        <v>0.27626342999893799</v>
+      </c>
+      <c r="AJ12">
+        <v>4.4569491281509999E-2</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1.33461296704439E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -4844,8 +5250,35 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC13" s="3">
+        <v>2.8697084998059299E-13</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1.04365332870245E-8</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>2.9863125987143298E-6</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>4.7912348030749504E-3</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.121203871431992</v>
+      </c>
+      <c r="AH13">
+        <v>0.44055504844495902</v>
+      </c>
+      <c r="AI13">
+        <v>0.33794276920081501</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>7.4208997514146099E-2</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>2.1295081855594301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -4918,740 +5351,767 @@
       <c r="AA14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC14" s="3">
+        <v>4.6351013164142403E-15</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>6.9186668207039203E-10</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>3.7493343600344102E-7</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>1.4643296395567701E-3</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>5.15060726552738E-2</v>
+      </c>
+      <c r="AH14">
+        <v>0.379795689246617</v>
+      </c>
+      <c r="AI14">
+        <v>0.35179802668107502</v>
+      </c>
+      <c r="AJ14">
+        <v>0.149949290295632</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>6.5486215856538396E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.99462502672097219</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.0948719441571327E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.475729970639688E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.3991403508331765E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.3581888230109373E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9.440369586603348E-5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6.2215779782830935E-7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.0747136823344742E-9</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.7070907453339715E-11</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.8631392559372783E-13</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1.3805928224072559E-15</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.0949816659959201E-17</v>
+      <c r="B15" s="8">
+        <v>0.99462593781521691</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.8911646871228055E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.1727583796429441E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.1496793448510886E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.168245306647572E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>9.9743110935215207E-5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8.1937596387295246E-7</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6.5437741316867388E-9</v>
+      </c>
+      <c r="J15" s="8">
+        <v>5.0586446296479982E-11</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3.8189427020504689E-13</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2.913792737654107E-15</v>
+      </c>
+      <c r="M15" s="8">
+        <v>2.4217295524276775E-17</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0.99999103706283898</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>6.8159043249714196E-2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1.27791203395211E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1.2048562804240499E-2</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1.2238837400941701E-2</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1.30148970945448E-2</v>
-      </c>
-      <c r="V15" s="2">
-        <v>2.23248410486456E-4</v>
-      </c>
-      <c r="W15" s="2">
-        <v>3.7829733106613299E-6</v>
-      </c>
-      <c r="X15" s="2">
-        <v>6.3969793106615905E-8</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1.0705472904237201E-9</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1.76226760277075E-11</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>2.8466777835002899E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P15" s="8">
+        <v>0.99999085592420101</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6.81484515412452E-2</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1.28102031555464E-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1.2175323425535499E-2</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1.28575304972276E-2</v>
+      </c>
+      <c r="U15" s="8">
+        <v>2.1916985236578E-4</v>
+      </c>
+      <c r="V15" s="8">
+        <v>3.6763863236375101E-6</v>
+      </c>
+      <c r="W15" s="8">
+        <v>6.1870725425592294E-8</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1.04316236006208E-9</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>1.7438645687676599E-11</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>2.8697084998059299E-13</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>4.6351013164142403E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
-        <v>5.1796840036703803E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.12219357526599835</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.5244270024982795E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.9183108507869489E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.7957128861698127E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.3653774681216522E-3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5.999452051354475E-5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2.5665251575458374E-6</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.1002581307482252E-7</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4.8338953336398583E-9</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2.2532236591778997E-10</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.0815136306087107E-11</v>
+      <c r="B16" s="8">
+        <v>5.1796887482703554E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.13777136175696658</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3.234140893556002E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.4650092569708005E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2.4469921214278958E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1.7487114703265624E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.1531490261129842E-4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>7.1078156966330819E-6</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4.039696141294456E-7</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.1296988382742149E-8</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1.082165026626921E-9</v>
+      </c>
+      <c r="M16" s="8">
+        <v>5.6217526368060852E-11</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="2">
-        <v>8.7040935337701998E-6</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.13631808595279901</v>
-      </c>
-      <c r="R16" s="2">
-        <v>3.6270527242388502E-2</v>
-      </c>
-      <c r="S16" s="2">
-        <v>2.6527781631586301E-2</v>
-      </c>
-      <c r="T16" s="2">
-        <v>2.6096667727855301E-2</v>
-      </c>
-      <c r="U16" s="2">
-        <v>2.74613463703508E-2</v>
-      </c>
-      <c r="V16" s="2">
-        <v>2.68940967472143E-3</v>
-      </c>
-      <c r="W16" s="2">
-        <v>2.39876063656969E-4</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1.9773425850720801E-5</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1.50954939643814E-6</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>1.07982164150193E-7</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>7.1500884909880198E-9</v>
+      <c r="P16" s="8">
+        <v>8.8795953974875392E-6</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.13629690302958899</v>
+      </c>
+      <c r="R16" s="8">
+        <v>3.6278123210688303E-2</v>
+      </c>
+      <c r="S16" s="8">
+        <v>2.6742120203798899E-2</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2.7251361911454899E-2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>2.7594149656288199E-3</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2.5978421928319901E-4</v>
+      </c>
+      <c r="W16" s="8">
+        <v>2.30444430088104E-5</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1.90189036338987E-6</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>1.4558540027055499E-7</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>1.04365332870245E-8</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>6.9186668207039203E-10</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
-        <v>1.6979951100889876E-4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.18357342857009015</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.5323238776620861E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.4284143604166148E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.6835886743101997E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>8.2156634129173026E-3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.2540460569216935E-3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.8394387049376246E-4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2.6825721197979668E-5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>3.9783156694377886E-6</v>
-      </c>
-      <c r="L17" s="2">
-        <v>6.1628777870352742E-7</v>
-      </c>
-      <c r="M17" s="2">
-        <v>9.3317859448229593E-8</v>
+      <c r="B17" s="8">
+        <v>1.6979955652181482E-4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.20660736810472849</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.10282895163983491</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5.9402335085792575E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.7627182668976281E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.3664162752084104E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.5223595152632779E-3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>8.2775555725046106E-4</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.7387442750916923E-4</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3.2753237938701582E-5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5.7331868542877112E-6</v>
+      </c>
+      <c r="M17" s="8">
+        <v>9.5656179521567564E-7</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="2">
-        <v>2.4843661775690698E-7</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.204476939356392</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.10012043070752601</v>
-      </c>
-      <c r="S17" s="2">
-        <v>5.9177194512988099E-2</v>
-      </c>
-      <c r="T17" s="2">
-        <v>4.8897492751000297E-2</v>
-      </c>
-      <c r="U17" s="2">
-        <v>4.7711110909329897E-2</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1.2000284581646901E-2</v>
-      </c>
-      <c r="W17" s="2">
-        <v>2.5763314515797201E-3</v>
-      </c>
-      <c r="X17" s="2">
-        <v>4.8124557344860202E-4</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>7.8428232690292004E-5</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1.13395731104938E-5</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>1.42026606418476E-6</v>
+      <c r="P17" s="8">
+        <v>2.5382268834583698E-7</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.20444530432937999</v>
+      </c>
+      <c r="R17" s="8">
+        <v>9.9818561293091204E-2</v>
+      </c>
+      <c r="S17" s="8">
+        <v>5.8993097540550599E-2</v>
+      </c>
+      <c r="T17" s="8">
+        <v>4.9803437288202003E-2</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1.3320913131604601E-2</v>
+      </c>
+      <c r="V17" s="8">
+        <v>3.1519676577342701E-3</v>
+      </c>
+      <c r="W17" s="8">
+        <v>6.7072116885820996E-4</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1.25573016968073E-4</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>2.05677509506616E-5</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>2.9863125987143298E-6</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>3.7493343600344102E-7</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
-        <v>1.7860787309556425E-5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.24497604070778353</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.22023698644156184</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.14307093599759674</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9.7242403284259205E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4.3470544194576501E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.6552778412451768E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6.0016540094844058E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2.1470335622018667E-3</v>
-      </c>
-      <c r="K18" s="2">
-        <v>7.7133566573387466E-4</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2.811046951502341E-4</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9.4437423600039178E-5</v>
+      <c r="B18" s="8">
+        <v>1.7794854809025216E-5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.27438810955977644</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.32148236638394434</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.27280490218673631</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.21337193648192798</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.16713969307834725</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.11560117705791081</v>
+      </c>
+      <c r="I18" s="8">
+        <v>7.1646607974579946E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3.8792993564287587E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.8291377314673399E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>7.6884778456877273E-3</v>
+      </c>
+      <c r="M18" s="8">
+        <v>2.8659062976613718E-3</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="2">
-        <v>8.6358568966113697E-9</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.27206729040514999</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.31585332732582899</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.27006578982057999</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.21849117447548699</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0.16951224496999401</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.119888105833796</v>
-      </c>
-      <c r="W18" s="2">
-        <v>7.0706979356009197E-2</v>
-      </c>
-      <c r="X18" s="2">
-        <v>3.5502337785789699E-2</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>1.5183042750877901E-2</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>5.5955880678619403E-3</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>1.7055176559427499E-3</v>
+      <c r="P18" s="8">
+        <v>8.8482148733180501E-9</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.27210498387287702</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.31427928063327198</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.26437413198783899</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.20414870489798101</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.15503206011085499</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.102312813393894</v>
+      </c>
+      <c r="W18" s="8">
+        <v>5.9749030359116002E-2</v>
+      </c>
+      <c r="X18" s="8">
+        <v>3.00813144786066E-2</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1.29388454775446E-2</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>4.7912348030749504E-3</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>1.4643296395567701E-3</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
-        <v>7.5096402830216406E-6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.30585220484904369</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.37114482248879938</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.28005663605771663</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.18630199234565056</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.11529425208195018</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6.0107840923713934E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2.9657207837306604E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.4342287945104778E-2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>6.8949077774218565E-3</v>
-      </c>
-      <c r="L19" s="2">
-        <v>3.3056915165999728E-3</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1.4321541061283619E-3</v>
+      <c r="B19" s="8">
+        <v>6.7761561415844126E-6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.31009304241804359</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.52009130554236049</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.59262110386034839</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.58224088022714726</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.64681560679249961</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.62939945550311782</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.54402163926040337</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.40566401199118934</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.25910502241572275</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.14450026506439667</v>
+      </c>
+      <c r="M19" s="8">
+        <v>6.964032278687142E-2</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="2">
-        <v>1.7705057017710601E-9</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.31751581967070103</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.527828023424739</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.60901029288388897</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.62681045953377101</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.56282424848947699</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.58439535659358299</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0.50160403816206001</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.36333937135251598</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0.22173284545559399</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0.11514269812510899</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>4.8793095754239998E-2</v>
+      <c r="P19" s="8">
+        <v>1.8082755008622501E-9</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.31614737338425097</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.52262840624607998</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.59119196400518403</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.56852666469801605</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.63540460467488502</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.61337825173382599</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0.52100735612817595</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.37839162968662898</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0.23227250335709901</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0.121203871431992</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>5.15060726552738E-2</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.8366259743733112E-8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5.3365681377932843E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.16908730843758546</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.27937470083158905</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.3289834563036213</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.43104254620768623</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.46887250340669773</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.47714697491528435</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.46902209959552071</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.4492862208188188</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.41756085714685487</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.35119374703099387</v>
+      <c r="B20" s="8">
+        <v>1.7812982492134014E-9</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.3611847769556616E-3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6.6848064528755875E-3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.0996139222177725E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.518611491721185E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>8.1067290596806424E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.12359202590081587</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.19120253302349374</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.2740196159750789</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.34409938839943871</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.37603337866305242</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.35148790486138365</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="2">
-        <v>6.2762821241362405E-13</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1.2316509004782301E-3</v>
-      </c>
-      <c r="R20" s="2">
-        <v>5.6956575713553396E-3</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1.72131253183655E-2</v>
-      </c>
-      <c r="T20" s="2">
-        <v>4.5382806665007602E-2</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.100262086965657</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.16413650595672899</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.25277605743177201</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.35198536642258299</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0.42554570340611397</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0.44354953622500298</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0.38119097517539502</v>
+      <c r="P20" s="8">
+        <v>1.16869052720697E-12</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>2.2336583597157701E-3</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1.02573169872617E-2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3.0210092963168199E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <v>7.2682884007384596E-2</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.10770301085355399</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.163730240592287</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0.24848862695066001</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.34610618745241101</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>0.42058888686067503</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>0.44055504844495902</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>0.379795689246617</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2">
-        <v>4.0966053864538688E-8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.8979662369695181E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.10277154166280895</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.1906032720124998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.25204811084690076</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.33770786573682277</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.38105221247949611</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.40619679468735953</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.42168932793295599</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.42979230334505286</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.42785133138484976</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.39126914012537006</v>
+      <c r="B21" s="8">
+        <v>1.0876025891107484E-9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8.6340480831693944E-4</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4.7587468401227E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.6839347759019598E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.9964486891974497E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6.9938178907790138E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.10272732490946983</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.15763371488094116</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.23121996467777164</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.30448368804856885</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.35515342454259607</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.35977948280255928</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="2">
-        <v>1.94181335362279E-14</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>2.3094457866715501E-4</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1.4469967274540101E-3</v>
-      </c>
-      <c r="S21" s="2">
-        <v>5.8624420206389097E-3</v>
-      </c>
-      <c r="T21" s="2">
-        <v>2.07239892339099E-2</v>
-      </c>
-      <c r="U21" s="2">
-        <v>6.1267426286123403E-2</v>
-      </c>
-      <c r="V21" s="2">
-        <v>9.2595378439982098E-2</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0.14028504113652701</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0.20631073188452401</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0.27904212199575301</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.33971793239339598</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0.35252754790309299</v>
+      <c r="P21" s="8">
+        <v>5.3686935790017198E-14</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>6.2081364333058196E-4</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3.8619967017696098E-3</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1.52395115380654E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <v>4.9055784942638299E-2</v>
+      </c>
+      <c r="U21" s="8">
+        <v>6.6003058851174606E-2</v>
+      </c>
+      <c r="V21" s="8">
+        <v>9.2852314588399099E-2</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0.138469132224212</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0.20337395501642799</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>0.27626342999893799</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0.33794276920081501</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0.35179802668107502</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>4.4390771412468548E-12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.0914145441884396E-4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.3744129823354729E-3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>8.3759157416247003E-3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3.4800461694665226E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4.6348333549064924E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5.3236061988149716E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5.9783520973317253E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>6.8832094744335937E-2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>8.4190536792835044E-2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.11200025573448791</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.1753136892640875</v>
+      <c r="B22" s="8">
+        <v>1.3930267803620001E-13</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3.8370093246749542E-6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8.1731625532898504E-5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.0638703597341667E-3</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.1371655616852721E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.4354131642937236E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.8443277527741223E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2.5603122279268916E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>3.7188867995042563E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>5.519729194801818E-2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>8.6521761237902992E-2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.14858312765855777</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="2">
-        <v>1.09937810048934E-19</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>2.2543815891958601E-7</v>
-      </c>
-      <c r="R22" s="2">
-        <v>5.8723153976743597E-6</v>
-      </c>
-      <c r="S22" s="2">
-        <v>9.2319589584292596E-5</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1.2409516924802399E-3</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1.3541519978120101E-2</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1.81082863382966E-2</v>
-      </c>
-      <c r="W22" s="2">
-        <v>2.3927915712793301E-2</v>
-      </c>
-      <c r="X22" s="2">
-        <v>3.20381897236015E-2</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>4.4956713748301902E-2</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>7.45760208859364E-2</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0.15017872026333601</v>
+      <c r="P22" s="8">
+        <v>1.2574000136534899E-18</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>2.4946052505807101E-6</v>
+      </c>
+      <c r="R22" s="8">
+        <v>6.44211084680827E-5</v>
+      </c>
+      <c r="S22" s="8">
+        <v>9.8192086440269401E-4</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1.18308575527951E-2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1.4716740438853499E-2</v>
+      </c>
+      <c r="V22" s="8">
+        <v>1.8278292922597101E-2</v>
+      </c>
+      <c r="W22" s="8">
+        <v>2.3761825083697102E-2</v>
+      </c>
+      <c r="X22" s="8">
+        <v>3.17020009265283E-2</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>4.4569491281509999E-2</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>7.4208997514146099E-2</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0.149949290295632</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
-        <v>3.435913545174978E-15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.5459634660172421E-6</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6.0119478908493494E-5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.0598837386057217E-3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.2248671689993555E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.6461013652994579E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.8863940054257726E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.1027333106882699E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2.3940220445798768E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2.9060712450386453E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <v>3.9000143008954921E-2</v>
-      </c>
-      <c r="M23" s="2">
-        <v>8.069673872114555E-2</v>
+      <c r="B23" s="8">
+        <v>8.8786552482890902E-17</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4.4694659593733738E-8</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3.0987833396468106E-6</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.2541550797233472E-4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.0853689151547409E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5.1724816482735577E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6.5982453071059873E-3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>9.0575126645917169E-3</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.2940267348920191E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1.8790457338269104E-2</v>
+      </c>
+      <c r="L23" s="8">
+        <v>3.0096958377341831E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>6.7642298974953802E-2</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="2">
-        <v>2.86573040708471E-24</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>4.47939004521347E-10</v>
-      </c>
-      <c r="R23" s="2">
-        <v>4.4345789157290903E-8</v>
-      </c>
-      <c r="S23" s="2">
-        <v>2.4914181272237401E-6</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1.17620519546728E-4</v>
-      </c>
-      <c r="U23" s="2">
-        <v>4.4051189364034404E-3</v>
-      </c>
-      <c r="V23" s="2">
-        <v>5.9634241707583798E-3</v>
-      </c>
-      <c r="W23" s="2">
-        <v>7.8799777122914895E-3</v>
-      </c>
-      <c r="X23" s="2">
-        <v>1.03229198618928E-2</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>1.3459633790725701E-2</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>2.1406776729796202E-2</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>6.5602715831555899E-2</v>
+      <c r="P23" s="8">
+        <v>1.1400226227836901E-22</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>1.7234360947588599E-8</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1.6906638219040401E-6</v>
+      </c>
+      <c r="S23" s="8">
+        <v>9.1837471455260202E-5</v>
+      </c>
+      <c r="T23" s="8">
+        <v>3.84277420430011E-3</v>
+      </c>
+      <c r="U23" s="8">
+        <v>4.8410271210780897E-3</v>
+      </c>
+      <c r="V23" s="8">
+        <v>6.0326585056547904E-3</v>
+      </c>
+      <c r="W23" s="8">
+        <v>7.8302017715471805E-3</v>
+      </c>
+      <c r="X23" s="8">
+        <v>1.0217436488903E-2</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>1.33461296704439E-2</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>2.1295081855594301E-2</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>6.5486215856538396E-2</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>SUM(B15:B23)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C15:C23)</f>
@@ -5659,7 +6119,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:M24" si="1">SUM(D15:D23)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -5667,7 +6127,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
@@ -5675,15 +6135,15 @@
       </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="1"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
@@ -5857,86 +6317,86 @@
         <v>-153.10146494358776</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:M28" si="2">C29-273.15</f>
-        <v>9.9587229773402441</v>
+        <f t="shared" ref="C28:L28" si="2">C29-273.15</f>
+        <v>0.18973851054909119</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>27.319636730849766</v>
+        <v>10.839857695996784</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>37.666646181046985</v>
+        <v>15.39834642261269</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>48.523106960952305</v>
+        <v>26.309201283752941</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>55.734062357246899</v>
+        <v>31.186758889257931</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>58.639069809019588</v>
+        <v>35.939961834251903</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>60.393264679610752</v>
+        <v>42.136390669643902</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>61.962757794559025</v>
+        <v>49.037840007245563</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>64.01488201171162</v>
+        <v>55.57188072651627</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>67.2372484341264</v>
+        <v>62.141747190058254</v>
       </c>
       <c r="M28" s="1">
         <f>M29-273.15</f>
-        <v>75.760406418144726</v>
+        <v>72.219414426386379</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>120.04853505641222</v>
       </c>
-      <c r="C29" s="1">
-        <v>283.10872297734022</v>
-      </c>
-      <c r="D29" s="1">
-        <v>300.46963673084974</v>
-      </c>
-      <c r="E29" s="1">
-        <v>310.81664618104696</v>
-      </c>
-      <c r="F29" s="1">
-        <v>321.67310696095228</v>
-      </c>
-      <c r="G29" s="1">
-        <v>328.88406235724688</v>
-      </c>
-      <c r="H29" s="1">
-        <v>331.78906980901957</v>
-      </c>
-      <c r="I29" s="1">
-        <v>333.54326467961073</v>
-      </c>
-      <c r="J29" s="1">
-        <v>335.112757794559</v>
-      </c>
-      <c r="K29" s="1">
-        <v>337.1648820117116</v>
-      </c>
-      <c r="L29" s="1">
-        <v>340.38724843412638</v>
-      </c>
-      <c r="M29" s="1">
-        <v>348.9104064181447</v>
+      <c r="C29" s="5">
+        <v>273.33973851054907</v>
+      </c>
+      <c r="D29" s="5">
+        <v>283.98985769599676</v>
+      </c>
+      <c r="E29" s="5">
+        <v>288.54834642261267</v>
+      </c>
+      <c r="F29" s="5">
+        <v>299.45920128375292</v>
+      </c>
+      <c r="G29" s="5">
+        <v>304.33675888925791</v>
+      </c>
+      <c r="H29" s="5">
+        <v>309.08996183425188</v>
+      </c>
+      <c r="I29" s="5">
+        <v>315.28639066964388</v>
+      </c>
+      <c r="J29" s="5">
+        <v>322.18784000724554</v>
+      </c>
+      <c r="K29" s="5">
+        <v>328.72188072651625</v>
+      </c>
+      <c r="L29" s="5">
+        <v>335.29174719005823</v>
+      </c>
+      <c r="M29" s="5">
+        <v>345.36941442638636</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -5998,10 +6458,10 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="O32" s="1">
+      <c r="N32" s="4">
+        <v>13.499999223365014</v>
+      </c>
+      <c r="O32" s="4">
         <v>0</v>
       </c>
       <c r="P32" s="2"/>
@@ -6047,13 +6507,13 @@
       <c r="AF32" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" t="e">
-        <f ca="1">_xlfn.CONCAT(V32:Z32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH32" t="e">
-        <f ca="1">_xlfn.CONCAT(AB32:AF32)</f>
-        <v>#NAME?</v>
+      <c r="AG32" t="str">
+        <f>_xlfn.CONCAT(V32:Z32)</f>
+        <v>Lj0[1] := 13.5002998339463;</v>
+      </c>
+      <c r="AH32" t="str">
+        <f>_xlfn.CONCAT(AB32:AF32)</f>
+        <v>Vj0[1] := 2.77418258346388E-21;</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
@@ -6083,11 +6543,11 @@
       <c r="M33">
         <v>17.998361291703599</v>
       </c>
-      <c r="N33" s="1">
-        <v>22.068954069943626</v>
-      </c>
-      <c r="O33" s="1">
-        <v>27.660475425136838</v>
+      <c r="N33" s="4">
+        <v>23.036874400192566</v>
+      </c>
+      <c r="O33" s="4">
+        <v>17.999998964486686</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6132,13 +6592,13 @@
       <c r="AF33" t="s">
         <v>30</v>
       </c>
-      <c r="AG33" t="e">
-        <f t="shared" ref="AG33:AG43" ca="1" si="5">_xlfn.CONCAT(V33:Z33)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH33" t="e">
-        <f t="shared" ref="AH33:AH43" ca="1" si="6">_xlfn.CONCAT(AB33:AF33)</f>
-        <v>#NAME?</v>
+      <c r="AG33" t="str">
+        <f t="shared" ref="AG33:AG43" si="5">_xlfn.CONCAT(V33:Z33)</f>
+        <v>Lj0[2] := 20.737343306693;</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" ref="AH33:AH43" si="6">_xlfn.CONCAT(AB33:AF33)</f>
+        <v>Vj0[2] := 18.0003468852498;</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.25">
@@ -6168,11 +6628,11 @@
       <c r="M34">
         <v>23.188482159271601</v>
       </c>
-      <c r="N34" s="1">
-        <v>21.081647506853809</v>
-      </c>
-      <c r="O34" s="1">
-        <v>26.568954069943626</v>
+      <c r="N34" s="4">
+        <v>22.67688469841093</v>
+      </c>
+      <c r="O34" s="4">
+        <v>27.536874141314239</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -6217,13 +6677,13 @@
       <c r="AF34" t="s">
         <v>30</v>
       </c>
-      <c r="AG34" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG34" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[3] := 20.9287009858463;</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[3] := 25.2373903579965;</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
@@ -6253,11 +6713,11 @@
       <c r="M35">
         <v>21.786894540671899</v>
       </c>
-      <c r="N35" s="1">
-        <v>20.418283917662507</v>
-      </c>
-      <c r="O35" s="1">
-        <v>25.581647506853809</v>
+      <c r="N35" s="4">
+        <v>22.266961636234228</v>
+      </c>
+      <c r="O35" s="4">
+        <v>27.1768844395326</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6302,13 +6762,13 @@
       <c r="AF35" t="s">
         <v>30</v>
       </c>
-      <c r="AG35" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH35" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG35" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[4] := 19.550301112881;</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[4] := 25.4287480371498;</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.25">
@@ -6338,11 +6798,11 @@
       <c r="M36">
         <v>19.612953338729199</v>
       </c>
-      <c r="N36" s="1">
-        <v>27.951983743995061</v>
-      </c>
-      <c r="O36" s="1">
-        <v>24.918283917662507</v>
+      <c r="N36" s="4">
+        <v>29.61978267791627</v>
+      </c>
+      <c r="O36" s="4">
+        <v>26.766961377355898</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -6387,13 +6847,13 @@
       <c r="AF36" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH36" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG36" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[5] := 26.0363992148964;</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[5] := 24.0503481641846;</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
@@ -6423,11 +6883,11 @@
       <c r="M37">
         <v>12.206374113726399</v>
       </c>
-      <c r="N37" s="1">
-        <v>27.772689531131345</v>
-      </c>
-      <c r="O37" s="1">
-        <v>18.651983743995061</v>
+      <c r="N37" s="4">
+        <v>29.371167861545615</v>
+      </c>
+      <c r="O37" s="4">
+        <v>20.319782419037942</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -6472,13 +6932,13 @@
       <c r="AF37" t="s">
         <v>30</v>
       </c>
-      <c r="AG37" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH37" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG37" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[6] := 26.2070994939306;</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[6] := 16.7362405377912;</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
@@ -6508,11 +6968,11 @@
       <c r="M38">
         <v>11.1384901782688</v>
       </c>
-      <c r="N38" s="1">
-        <v>27.691229036142968</v>
-      </c>
-      <c r="O38" s="1">
-        <v>18.472689531131344</v>
+      <c r="N38" s="4">
+        <v>28.984600516134741</v>
+      </c>
+      <c r="O38" s="4">
+        <v>20.071167602667288</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -6557,13 +7017,13 @@
       <c r="AF38" t="s">
         <v>30</v>
       </c>
-      <c r="AG38" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH38" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG38" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[7] := 26.116418529036;</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[7] := 16.9069408168254;</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
@@ -6593,11 +7053,11 @@
       <c r="M39">
         <v>10.191751693702701</v>
       </c>
-      <c r="N39" s="1">
-        <v>27.643542186949087</v>
-      </c>
-      <c r="O39" s="1">
-        <v>18.391229036142967</v>
+      <c r="N39" s="4">
+        <v>28.49707289926495</v>
+      </c>
+      <c r="O39" s="4">
+        <v>19.684600257256413</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -6642,13 +7102,13 @@
       <c r="AF39" t="s">
         <v>30</v>
       </c>
-      <c r="AG39" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH39" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG39" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[8] := 26.0990899732481;</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[8] := 16.8162598519308;</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.25">
@@ -6678,11 +7138,11 @@
       <c r="M40">
         <v>9.3852797534097192</v>
       </c>
-      <c r="N40" s="1">
-        <v>27.594651015604168</v>
-      </c>
-      <c r="O40" s="1">
-        <v>18.343542186949087</v>
+      <c r="N40" s="4">
+        <v>28.041872424847973</v>
+      </c>
+      <c r="O40" s="4">
+        <v>19.197072640386619</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -6727,13 +7187,13 @@
       <c r="AF40" t="s">
         <v>30</v>
       </c>
-      <c r="AG40" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH40" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG40" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[9] := 26.2015883534268;</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[9] := 16.7989312961429;</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.25">
@@ -6763,11 +7223,11 @@
       <c r="M41">
         <v>8.7151395305979698</v>
       </c>
-      <c r="N41" s="1">
-        <v>27.514370739711502</v>
-      </c>
-      <c r="O41" s="1">
-        <v>18.294651015604167</v>
+      <c r="N41" s="4">
+        <v>27.677702699356125</v>
+      </c>
+      <c r="O41" s="4">
+        <v>18.741872165969642</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -6810,13 +7270,13 @@
       <c r="AF41" t="s">
         <v>30</v>
       </c>
-      <c r="AG41" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH41" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG41" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[10] := 26.1897968366788;</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[10] := 16.9014296763216;</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.25">
@@ -6846,11 +7306,11 @@
       <c r="M42">
         <v>8.0809498852053991</v>
       </c>
-      <c r="N42" s="1">
-        <v>30.29999999999999</v>
-      </c>
-      <c r="O42" s="1">
-        <v>18.214370739711502</v>
+      <c r="N42" s="4">
+        <v>27.300007123396959</v>
+      </c>
+      <c r="O42" s="4">
+        <v>18.377702440477794</v>
       </c>
       <c r="R42">
         <v>11</v>
@@ -6893,13 +7353,13 @@
       <c r="AF42" t="s">
         <v>30</v>
       </c>
-      <c r="AG42" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH42" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG42" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[11] := 25.511424209471;</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[11] := 16.8896381595736;</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
@@ -6929,11 +7389,11 @@
       <c r="M43">
         <v>7.31674687015727</v>
       </c>
-      <c r="N43" s="1">
-        <v>9.3000000000000025</v>
-      </c>
-      <c r="O43" s="1">
-        <v>18.000006363463623</v>
+      <c r="N43" s="4">
+        <v>9.3000002588783328</v>
+      </c>
+      <c r="O43" s="4">
+        <v>18.000006864518632</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -6976,13 +7436,13 @@
       <c r="AF43" t="s">
         <v>30</v>
       </c>
-      <c r="AG43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AH43" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+      <c r="AG43" t="str">
+        <f t="shared" si="5"/>
+        <v>Lj0[12] := 9.30015867710519;</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="6"/>
+        <v>Vj0[12] := 16.2112655323659;</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.25">
@@ -7054,20 +7514,50 @@
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>-153.10146494358776</v>
+      </c>
+      <c r="C65">
+        <v>0.18973851054909119</v>
+      </c>
+      <c r="D65">
+        <v>10.839857695996784</v>
+      </c>
+      <c r="E65">
+        <v>15.39834642261269</v>
+      </c>
+      <c r="F65" s="3">
+        <v>26.309201283752941</v>
+      </c>
+      <c r="G65" s="3">
+        <v>31.186758889257931</v>
+      </c>
+      <c r="H65" s="3">
+        <v>35.939961834251903</v>
+      </c>
+      <c r="I65" s="3">
+        <v>42.136390669643902</v>
+      </c>
+      <c r="J65" s="3">
+        <v>49.037840007245563</v>
+      </c>
+      <c r="K65" s="3">
+        <v>55.57188072651627</v>
+      </c>
+      <c r="L65" s="3">
+        <v>62.141747190058254</v>
+      </c>
+      <c r="M65">
+        <v>72.219414426386379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -7075,20 +7565,83 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>-153.10146494358776</v>
+      </c>
+      <c r="C67">
+        <v>-167.31689903985401</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0.18973851054909119</v>
+      </c>
+      <c r="C68">
+        <v>-0.221705949773082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>10.839857695996784</v>
+      </c>
+      <c r="C69">
+        <v>10.042497826360099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>15.39834642261269</v>
+      </c>
+      <c r="C70">
+        <v>13.4750726904222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>26.309201283752941</v>
+      </c>
+      <c r="C71">
+        <v>17.920268728971699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>31.186758889257931</v>
+      </c>
+      <c r="C72">
+        <v>30.472006212462201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>35.939961834251903</v>
+      </c>
+      <c r="C73">
+        <v>37.067983790006203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>42.136390669643902</v>
+      </c>
+      <c r="C74">
+        <v>43.194891742773102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>49.037840007245563</v>
+      </c>
+      <c r="C75">
+        <v>49.363067341817903</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -7096,39 +7649,5125 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>55.57188072651627</v>
+      </c>
+      <c r="C76">
+        <v>54.930422617590899</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
+      <c r="B77" s="3">
+        <v>62.141747190058254</v>
+      </c>
+      <c r="C77">
+        <v>61.082497436394597</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>72.219414426386379</v>
+      </c>
+      <c r="C78">
+        <v>72.963588045544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="B81">
+        <v>13.5</v>
+      </c>
+      <c r="C81">
+        <v>18.690120867568002</v>
+      </c>
+      <c r="D81">
+        <v>17.288533248968299</v>
+      </c>
+      <c r="E81">
+        <v>15.114592047025599</v>
+      </c>
+      <c r="F81">
+        <v>21.508012822022799</v>
+      </c>
+      <c r="G81">
+        <v>20.440128886565201</v>
+      </c>
+      <c r="H81">
+        <v>19.4933904019991</v>
+      </c>
+      <c r="I81">
+        <v>18.686918461706099</v>
+      </c>
+      <c r="J81">
+        <v>18.0167782388944</v>
+      </c>
+      <c r="K81">
+        <v>17.382588593501801</v>
+      </c>
+      <c r="L81">
+        <v>16.618385578453601</v>
+      </c>
+      <c r="M81">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="8">
+        <f>B3*B$81</f>
+        <v>0.92970040148586819</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" ref="C83:M83" si="7">C3*C$81</f>
+        <v>1.0242130736258013E-2</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="7"/>
+        <v>1.4047334677728621E-3</v>
+      </c>
+      <c r="E83" s="8">
+        <f t="shared" si="7"/>
+        <v>1.1414237681989833E-3</v>
+      </c>
+      <c r="F83" s="8">
+        <f t="shared" si="7"/>
+        <v>1.4542925511125148E-3</v>
+      </c>
+      <c r="G83" s="8">
+        <f t="shared" si="7"/>
+        <v>1.1211499943024106E-5</v>
+      </c>
+      <c r="H83" s="8">
+        <f t="shared" si="7"/>
+        <v>8.371149828546324E-8</v>
+      </c>
+      <c r="I83" s="8">
+        <f t="shared" si="7"/>
+        <v>6.0257921529894713E-10</v>
+      </c>
+      <c r="J83" s="8">
+        <f t="shared" si="7"/>
+        <v>4.2036341074448677E-12</v>
+      </c>
+      <c r="K83" s="8">
+        <f t="shared" si="7"/>
+        <v>2.8842970689740881E-14</v>
+      </c>
+      <c r="L83" s="8">
+        <f t="shared" si="7"/>
+        <v>1.9862314797163635E-16</v>
+      </c>
+      <c r="M83" s="8">
+        <f t="shared" si="7"/>
+        <v>8.5124757034622033E-19</v>
+      </c>
+      <c r="O83">
+        <v>0.92970040148586819</v>
+      </c>
+      <c r="P83">
+        <v>1.0242130736258013E-2</v>
+      </c>
+      <c r="Q83">
+        <v>1.4047334677728621E-3</v>
+      </c>
+      <c r="R83">
+        <v>1.1414237681989833E-3</v>
+      </c>
+      <c r="S83">
+        <v>1.4542925511125148E-3</v>
+      </c>
+      <c r="T83">
+        <v>1.1211499943024106E-5</v>
+      </c>
+      <c r="U83">
+        <v>8.371149828546324E-8</v>
+      </c>
+      <c r="V83">
+        <v>6.0257921529894713E-10</v>
+      </c>
+      <c r="W83">
+        <v>4.2036341074448677E-12</v>
+      </c>
+      <c r="X83">
+        <v>2.8842970689740881E-14</v>
+      </c>
+      <c r="Y83">
+        <v>1.9862314797163635E-16</v>
+      </c>
+      <c r="Z83">
+        <v>8.5124757034622033E-19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" ref="B84:M91" si="8">B4*B$81</f>
+        <v>1.8594008029358329</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" si="8"/>
+        <v>0.21913128532538084</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="8"/>
+        <v>3.7318558749141216E-2</v>
+      </c>
+      <c r="E84" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2591909714445229E-2</v>
+      </c>
+      <c r="F84" s="8">
+        <f t="shared" si="8"/>
+        <v>2.552610996985576E-2</v>
+      </c>
+      <c r="G84" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5809535678350205E-3</v>
+      </c>
+      <c r="H84" s="8">
+        <f t="shared" si="8"/>
+        <v>9.1156655610054573E-5</v>
+      </c>
+      <c r="I84" s="8">
+        <f t="shared" si="8"/>
+        <v>4.8234592034468886E-6</v>
+      </c>
+      <c r="J84" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3483445919174782E-7</v>
+      </c>
+      <c r="K84" s="8">
+        <f t="shared" si="8"/>
+        <v>1.0732532081194549E-8</v>
+      </c>
+      <c r="L84" s="8">
+        <f t="shared" si="8"/>
+        <v>4.7023070749833658E-10</v>
+      </c>
+      <c r="M84" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1783679121746361E-11</v>
+      </c>
+      <c r="O84">
+        <v>1.8594008029358329</v>
+      </c>
+      <c r="P84">
+        <v>0.21913128532538084</v>
+      </c>
+      <c r="Q84">
+        <v>3.7318558749141216E-2</v>
+      </c>
+      <c r="R84">
+        <v>2.2591909714445229E-2</v>
+      </c>
+      <c r="S84">
+        <v>2.552610996985576E-2</v>
+      </c>
+      <c r="T84">
+        <v>1.5809535678350205E-3</v>
+      </c>
+      <c r="U84">
+        <v>9.1156655610054573E-5</v>
+      </c>
+      <c r="V84">
+        <v>4.8234592034468886E-6</v>
+      </c>
+      <c r="W84">
+        <v>2.3483445919174782E-7</v>
+      </c>
+      <c r="X84">
+        <v>1.0732532081194549E-8</v>
+      </c>
+      <c r="Y84">
+        <v>4.7023070749833658E-10</v>
+      </c>
+      <c r="Z84">
+        <v>1.1783679121746361E-11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="8"/>
+        <v>2.7890992276113482</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5424226547671609</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="8"/>
+        <v>0.52089357027482974</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="8"/>
+        <v>0.23261039436223108</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" si="8"/>
+        <v>0.19960298356492956</v>
+      </c>
+      <c r="G85" s="8">
+        <f t="shared" si="8"/>
+        <v>4.8351970203680539E-2</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" si="8"/>
+        <v>1.0633342928879901E-2</v>
+      </c>
+      <c r="I85" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0796827592702832E-3</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="8"/>
+        <v>3.620250800455844E-4</v>
+      </c>
+      <c r="K85" s="8">
+        <f t="shared" si="8"/>
+        <v>5.7367719344617226E-5</v>
+      </c>
+      <c r="L85" s="8">
+        <f t="shared" si="8"/>
+        <v>8.4105437671739419E-6</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="8"/>
+        <v>6.4879778682191816E-7</v>
+      </c>
+      <c r="O85">
+        <v>2.7890992276113482</v>
+      </c>
+      <c r="P85">
+        <v>1.5424226547671609</v>
+      </c>
+      <c r="Q85">
+        <v>0.52089357027482974</v>
+      </c>
+      <c r="R85">
+        <v>0.23261039436223108</v>
+      </c>
+      <c r="S85">
+        <v>0.19960298356492956</v>
+      </c>
+      <c r="T85">
+        <v>4.8351970203680539E-2</v>
+      </c>
+      <c r="U85">
+        <v>1.0633342928879901E-2</v>
+      </c>
+      <c r="V85">
+        <v>2.0796827592702832E-3</v>
+      </c>
+      <c r="W85">
+        <v>3.620250800455844E-4</v>
+      </c>
+      <c r="X85">
+        <v>5.7367719344617226E-5</v>
+      </c>
+      <c r="Y85">
+        <v>8.4105437671739419E-6</v>
+      </c>
+      <c r="Z85">
+        <v>6.4879778682191816E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="8"/>
+        <v>3.7046659964198718</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" si="8"/>
+        <v>6.180501976478026</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="8"/>
+        <v>4.7106957718593705</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0377320330154989</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4460912737232219</v>
+      </c>
+      <c r="G86" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5914493506455769</v>
+      </c>
+      <c r="H86" s="8">
+        <f t="shared" si="8"/>
+        <v>0.92456663442781328</v>
+      </c>
+      <c r="I86" s="8">
+        <f t="shared" si="8"/>
+        <v>0.46767728244644158</v>
+      </c>
+      <c r="J86" s="8">
+        <f t="shared" si="8"/>
+        <v>0.20551643584767559</v>
+      </c>
+      <c r="K86" s="8">
+        <f t="shared" si="8"/>
+        <v>7.998676598306638E-2</v>
+      </c>
+      <c r="L86" s="8">
+        <f t="shared" si="8"/>
+        <v>2.7648600000216485E-2</v>
+      </c>
+      <c r="M86" s="8">
+        <f t="shared" si="8"/>
+        <v>4.6392844829871542E-3</v>
+      </c>
+      <c r="O86">
+        <v>3.7046659964198718</v>
+      </c>
+      <c r="P86">
+        <v>6.180501976478026</v>
+      </c>
+      <c r="Q86">
+        <v>4.7106957718593705</v>
+      </c>
+      <c r="R86">
+        <v>3.0377320330154989</v>
+      </c>
+      <c r="S86">
+        <v>2.4460912737232219</v>
+      </c>
+      <c r="T86">
+        <v>1.5914493506455769</v>
+      </c>
+      <c r="U86">
+        <v>0.92456663442781328</v>
+      </c>
+      <c r="V86">
+        <v>0.46767728244644158</v>
+      </c>
+      <c r="W86">
+        <v>0.20551643584767559</v>
+      </c>
+      <c r="X86">
+        <v>7.998676598306638E-2</v>
+      </c>
+      <c r="Y86">
+        <v>2.7648600000216485E-2</v>
+      </c>
+      <c r="Z86">
+        <v>4.6392844829871542E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="8"/>
+        <v>4.1870383778779008</v>
+      </c>
+      <c r="C87" s="8">
+        <f t="shared" si="8"/>
+        <v>10.488328150104154</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="8"/>
+        <v>11.216892606247324</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="8"/>
+        <v>9.6342012182159475</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="8"/>
+        <v>9.5671118520430394</v>
+      </c>
+      <c r="G87" s="8">
+        <f t="shared" si="8"/>
+        <v>8.7588355695084044</v>
+      </c>
+      <c r="H87" s="8">
+        <f t="shared" si="8"/>
+        <v>7.1064748115740786</v>
+      </c>
+      <c r="I87" s="8">
+        <f t="shared" si="8"/>
+        <v>4.9669639115351512</v>
+      </c>
+      <c r="J87" s="8">
+        <f t="shared" si="8"/>
+        <v>2.9763248419995616</v>
+      </c>
+      <c r="K87" s="8">
+        <f t="shared" si="8"/>
+        <v>1.555106646246271</v>
+      </c>
+      <c r="L87" s="8">
+        <f t="shared" si="8"/>
+        <v>0.7070306075363012</v>
+      </c>
+      <c r="M87" s="8">
+        <f t="shared" si="8"/>
+        <v>0.15145162665016643</v>
+      </c>
+      <c r="O87">
+        <v>4.1870383778779008</v>
+      </c>
+      <c r="P87">
+        <v>10.488328150104154</v>
+      </c>
+      <c r="Q87">
+        <v>11.216892606247324</v>
+      </c>
+      <c r="R87">
+        <v>9.6342012182159475</v>
+      </c>
+      <c r="S87">
+        <v>9.5671118520430394</v>
+      </c>
+      <c r="T87">
+        <v>8.7588355695084044</v>
+      </c>
+      <c r="U87">
+        <v>7.1064748115740786</v>
+      </c>
+      <c r="V87">
+        <v>4.9669639115351512</v>
+      </c>
+      <c r="W87">
+        <v>2.9763248419995616</v>
+      </c>
+      <c r="X87">
+        <v>1.555106646246271</v>
+      </c>
+      <c r="Y87">
+        <v>0.7070306075363012</v>
+      </c>
+      <c r="Z87">
+        <v>0.15145162665016643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8382663988902929E-2</v>
+      </c>
+      <c r="C88" s="8">
+        <f t="shared" si="8"/>
+        <v>0.14441906702017049</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="8"/>
+        <v>0.4305717419014396</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="8"/>
+        <v>0.99929440489583543</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="8"/>
+        <v>2.5374223794335653</v>
+      </c>
+      <c r="G88" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0135331531169967</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" si="8"/>
+        <v>3.7620724495722397</v>
+      </c>
+      <c r="I88" s="8">
+        <f t="shared" si="8"/>
+        <v>4.6003637709996417</v>
+      </c>
+      <c r="J88" s="8">
+        <f t="shared" si="8"/>
+        <v>5.1707903352902553</v>
+      </c>
+      <c r="K88" s="8">
+        <f t="shared" si="8"/>
+        <v>5.195632375205963</v>
+      </c>
+      <c r="L88" s="8">
+        <f t="shared" si="8"/>
+        <v>4.5310534908545472</v>
+      </c>
+      <c r="M88" s="8">
+        <f t="shared" si="8"/>
+        <v>1.824723965937028</v>
+      </c>
+      <c r="O88">
+        <v>1.8382663988902929E-2</v>
+      </c>
+      <c r="P88">
+        <v>0.14441906702017049</v>
+      </c>
+      <c r="Q88">
+        <v>0.4305717419014396</v>
+      </c>
+      <c r="R88">
+        <v>0.99929440489583543</v>
+      </c>
+      <c r="S88">
+        <v>2.5374223794335653</v>
+      </c>
+      <c r="T88">
+        <v>3.0135331531169967</v>
+      </c>
+      <c r="U88">
+        <v>3.7620724495722397</v>
+      </c>
+      <c r="V88">
+        <v>4.6003637709996417</v>
+      </c>
+      <c r="W88">
+        <v>5.1707903352902553</v>
+      </c>
+      <c r="X88">
+        <v>5.195632375205963</v>
+      </c>
+      <c r="Y88">
+        <v>4.5310534908545472</v>
+      </c>
+      <c r="Z88">
+        <v>1.824723965937028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1660096006096498E-2</v>
+      </c>
+      <c r="C89" s="8">
+        <f t="shared" si="8"/>
+        <v>0.1031936442702622</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3461092958838039</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="8"/>
+        <v>0.90586206366434696</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="8"/>
+        <v>2.6023028634583301</v>
+      </c>
+      <c r="G89" s="8">
+        <f t="shared" si="8"/>
+        <v>2.9476847494970144</v>
+      </c>
+      <c r="H89" s="8">
+        <f t="shared" si="8"/>
+        <v>3.5484567082732181</v>
+      </c>
+      <c r="I89" s="8">
+        <f t="shared" si="8"/>
+        <v>4.3086695554409857</v>
+      </c>
+      <c r="J89" s="8">
+        <f t="shared" si="8"/>
+        <v>4.9625815655479615</v>
+      </c>
+      <c r="K89" s="8">
+        <f t="shared" si="8"/>
+        <v>5.2346793141089671</v>
+      </c>
+      <c r="L89" s="8">
+        <f t="shared" si="8"/>
+        <v>4.8776329211205853</v>
+      </c>
+      <c r="M89" s="8">
+        <f t="shared" si="8"/>
+        <v>2.1320564898381491</v>
+      </c>
+      <c r="O89">
+        <v>1.1660096006096498E-2</v>
+      </c>
+      <c r="P89">
+        <v>0.1031936442702622</v>
+      </c>
+      <c r="Q89">
+        <v>0.3461092958838039</v>
+      </c>
+      <c r="R89">
+        <v>0.90586206366434696</v>
+      </c>
+      <c r="S89">
+        <v>2.6023028634583301</v>
+      </c>
+      <c r="T89">
+        <v>2.9476847494970144</v>
+      </c>
+      <c r="U89">
+        <v>3.5484567082732181</v>
+      </c>
+      <c r="V89">
+        <v>4.3086695554409857</v>
+      </c>
+      <c r="W89">
+        <v>4.9625815655479615</v>
+      </c>
+      <c r="X89">
+        <v>5.2346793141089671</v>
+      </c>
+      <c r="Y89">
+        <v>4.8776329211205853</v>
+      </c>
+      <c r="Z89">
+        <v>2.1320564898381491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="8"/>
+        <v>5.1829835070110373E-5</v>
+      </c>
+      <c r="C90" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8128483298508527E-3</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2046130087181585E-2</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="8"/>
+        <v>0.20682941417262679</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0183908991649413</v>
+      </c>
+      <c r="G90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.011037006455628</v>
+      </c>
+      <c r="H90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0685359632195062</v>
+      </c>
+      <c r="I90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2060580131633238</v>
+      </c>
+      <c r="J90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4378334953695342</v>
+      </c>
+      <c r="K90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.8163902222317954</v>
+      </c>
+      <c r="L90" s="8">
+        <f t="shared" si="8"/>
+        <v>3.4302756874770064</v>
+      </c>
+      <c r="M90" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4409924920862842</v>
+      </c>
+      <c r="O90">
+        <v>5.1829835070110373E-5</v>
+      </c>
+      <c r="P90">
+        <v>1.8128483298508527E-3</v>
+      </c>
+      <c r="Q90">
+        <v>2.2046130087181585E-2</v>
+      </c>
+      <c r="R90">
+        <v>0.20682941417262679</v>
+      </c>
+      <c r="S90">
+        <v>2.0183908991649413</v>
+      </c>
+      <c r="T90">
+        <v>2.011037006455628</v>
+      </c>
+      <c r="U90">
+        <v>2.0685359632195062</v>
+      </c>
+      <c r="V90">
+        <v>2.2060580131633238</v>
+      </c>
+      <c r="W90">
+        <v>2.4378334953695342</v>
+      </c>
+      <c r="X90">
+        <v>2.8163902222317954</v>
+      </c>
+      <c r="Y90">
+        <v>3.4302756874770064</v>
+      </c>
+      <c r="Z90">
+        <v>2.4409924920862842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="8"/>
+        <v>6.0383911123521262E-7</v>
+      </c>
+      <c r="C91" s="8">
+        <f t="shared" si="8"/>
+        <v>6.9110536739335168E-5</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.6008404974322522E-3</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="8"/>
+        <v>7.4329185216469057E-2</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.1101101681138057</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0676449220701274</v>
+      </c>
+      <c r="H91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.072559251636255</v>
+      </c>
+      <c r="I91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.1351014212994994</v>
+      </c>
+      <c r="J91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2633693049207042</v>
+      </c>
+      <c r="K91" s="8">
+        <f t="shared" si="8"/>
+        <v>2.5007358912738327</v>
+      </c>
+      <c r="L91" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0447358604509489</v>
+      </c>
+      <c r="M91" s="8">
+        <f>M11*M$81</f>
+        <v>2.7461354921958154</v>
+      </c>
+      <c r="O91">
+        <v>6.0383911123521262E-7</v>
+      </c>
+      <c r="P91">
+        <v>6.9110536739335168E-5</v>
+      </c>
+      <c r="Q91">
+        <v>2.6008404974322522E-3</v>
+      </c>
+      <c r="R91">
+        <v>7.4329185216469057E-2</v>
+      </c>
+      <c r="S91">
+        <v>2.1101101681138057</v>
+      </c>
+      <c r="T91">
+        <v>2.0676449220701274</v>
+      </c>
+      <c r="U91">
+        <v>2.072559251636255</v>
+      </c>
+      <c r="V91">
+        <v>2.1351014212994994</v>
+      </c>
+      <c r="W91">
+        <v>2.2633693049207042</v>
+      </c>
+      <c r="X91">
+        <v>2.5007358912738327</v>
+      </c>
+      <c r="Y91">
+        <v>3.0447358604509489</v>
+      </c>
+      <c r="Z91">
+        <v>2.7461354921958154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>13.500299833946301</v>
+      </c>
+      <c r="C93" s="1">
+        <v>20.737343306692999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>20.928700985846302</v>
+      </c>
+      <c r="E93" s="1">
+        <v>19.550301112881002</v>
+      </c>
+      <c r="F93" s="1">
+        <v>26.036399214896399</v>
+      </c>
+      <c r="G93" s="1">
+        <v>26.207099493930599</v>
+      </c>
+      <c r="H93" s="1">
+        <v>26.116418529036</v>
+      </c>
+      <c r="I93" s="1">
+        <v>26.099089973248098</v>
+      </c>
+      <c r="J93" s="1">
+        <v>26.2015883534268</v>
+      </c>
+      <c r="K93" s="1">
+        <v>26.189796836678799</v>
+      </c>
+      <c r="L93" s="1">
+        <v>25.511424209470999</v>
+      </c>
+      <c r="M93" s="1">
+        <v>9.3001586771051894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2">
+        <f>P3*B$93</f>
+        <v>0.92002452902596876</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" ref="C95:M103" si="9">Q3*C$93</f>
+        <v>1.662485919268122E-2</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9319932496686004E-3</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5568465808638681E-3</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="9"/>
+        <v>3.6680793678262945E-3</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2156445993949094E-5</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0404341964075221E-6</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7524013240704039E-8</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9473846703938593E-10</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="9"/>
+        <v>4.8472571173466621E-12</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5564157038962936E-14</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2329882915324549E-16</v>
+      </c>
+      <c r="O95">
+        <v>0.92002452902596876</v>
+      </c>
+      <c r="P95">
+        <v>1.662485919268122E-2</v>
+      </c>
+      <c r="Q95">
+        <v>2.9319932496686004E-3</v>
+      </c>
+      <c r="R95">
+        <v>2.5568465808638681E-3</v>
+      </c>
+      <c r="S95">
+        <v>3.6680793678262945E-3</v>
+      </c>
+      <c r="T95">
+        <v>6.2156445993949094E-5</v>
+      </c>
+      <c r="U95">
+        <v>1.0404341964075221E-6</v>
+      </c>
+      <c r="V95">
+        <v>1.7524013240704039E-8</v>
+      </c>
+      <c r="W95">
+        <v>2.9473846703938593E-10</v>
+      </c>
+      <c r="X95">
+        <v>4.8472571173466621E-12</v>
+      </c>
+      <c r="Y95">
+        <v>7.5564157038962936E-14</v>
+      </c>
+      <c r="Z95">
+        <v>4.2329882915324549E-16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" ref="B96:B103" si="10">P4*B$93</f>
+        <v>1.8400490573377419</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="9"/>
+        <v>0.30222268034353217</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="9"/>
+        <v>6.6676160061471576E-2</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2062265338586521E-2</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="9"/>
+        <v>4.6182232846407156E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="9"/>
+        <v>4.3921566586285331E-3</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8752157984145983E-4</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="9"/>
+        <v>3.1949963609677269E-5</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4608394668665456E-6</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7650733315281917E-7</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1454096790669944E-8</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3806229462989503E-10</v>
+      </c>
+      <c r="O96">
+        <v>1.8400490573377419</v>
+      </c>
+      <c r="P96">
+        <v>0.30222268034353217</v>
+      </c>
+      <c r="Q96">
+        <v>6.6676160061471576E-2</v>
+      </c>
+      <c r="R96">
+        <v>4.2062265338586521E-2</v>
+      </c>
+      <c r="S96">
+        <v>4.6182232846407156E-2</v>
+      </c>
+      <c r="T96">
+        <v>4.3921566586285331E-3</v>
+      </c>
+      <c r="U96">
+        <v>3.8752157984145983E-4</v>
+      </c>
+      <c r="V96">
+        <v>3.1949963609677269E-5</v>
+      </c>
+      <c r="W96">
+        <v>2.4608394668665456E-6</v>
+      </c>
+      <c r="X96">
+        <v>1.7650733315281917E-7</v>
+      </c>
+      <c r="Y96">
+        <v>1.1454096790669944E-8</v>
+      </c>
+      <c r="Z96">
+        <v>2.3806229462989503E-10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7600729080890294</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5991465074270639</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5801071243893815</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27777651765410905</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22294223268052207</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="9"/>
+        <v>5.3290356972826906E-2</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1279247790675989E-2</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1097188116616242E-3</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4785072325828873E-4</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="9"/>
+        <v>5.0664066189246332E-5</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="9"/>
+        <v>6.3044724535994692E-6</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2632696558539778E-7</v>
+      </c>
+      <c r="O97">
+        <v>2.7600729080890294</v>
+      </c>
+      <c r="P97">
+        <v>1.5991465074270639</v>
+      </c>
+      <c r="Q97">
+        <v>0.5801071243893815</v>
+      </c>
+      <c r="R97">
+        <v>0.27777651765410905</v>
+      </c>
+      <c r="S97">
+        <v>0.22294223268052207</v>
+      </c>
+      <c r="T97">
+        <v>5.3290356972826906E-2</v>
+      </c>
+      <c r="U97">
+        <v>1.1279247790675989E-2</v>
+      </c>
+      <c r="V97">
+        <v>2.1097188116616242E-3</v>
+      </c>
+      <c r="W97">
+        <v>3.4785072325828873E-4</v>
+      </c>
+      <c r="X97">
+        <v>5.0664066189246332E-5</v>
+      </c>
+      <c r="Y97">
+        <v>6.3044724535994692E-6</v>
+      </c>
+      <c r="Z97">
+        <v>2.2632696558539778E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="10"/>
+        <v>3.6734988685949626</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="9"/>
+        <v>6.7071036564501076</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="9"/>
+        <v>5.4982179595368157</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="9"/>
+        <v>3.6853621997416779</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5968535723987762</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7319964041676619</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="9"/>
+        <v>1.00695494373399</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50753365853797239</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22088471024570416</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3121945475683814E-2</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="9"/>
+        <v>2.593835992796022E-2</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1997233141919613E-3</v>
+      </c>
+      <c r="O98">
+        <v>3.6734988685949626</v>
+      </c>
+      <c r="P98">
+        <v>6.7071036564501076</v>
+      </c>
+      <c r="Q98">
+        <v>5.4982179595368157</v>
+      </c>
+      <c r="R98">
+        <v>3.6853621997416779</v>
+      </c>
+      <c r="S98">
+        <v>2.5968535723987762</v>
+      </c>
+      <c r="T98">
+        <v>1.7319964041676619</v>
+      </c>
+      <c r="U98">
+        <v>1.00695494373399</v>
+      </c>
+      <c r="V98">
+        <v>0.50753365853797239</v>
+      </c>
+      <c r="W98">
+        <v>0.22088471024570416</v>
+      </c>
+      <c r="X98">
+        <v>8.3121945475683814E-2</v>
+      </c>
+      <c r="Y98">
+        <v>2.593835992796022E-2</v>
+      </c>
+      <c r="Z98">
+        <v>2.1997233141919613E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="10"/>
+        <v>4.2680843324019628</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="9"/>
+        <v>11.767099045234765</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="9"/>
+        <v>13.610593438900437</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="9"/>
+        <v>12.250586171234728</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="9"/>
+        <v>10.744962439329274</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="9"/>
+        <v>10.481027937061896</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="9"/>
+        <v>8.8720732220891314</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="9"/>
+        <v>6.4672531268114861</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="9"/>
+        <v>4.0364155179034498</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1577676686960801</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="9"/>
+        <v>0.94565675701423013</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11067813667025819</v>
+      </c>
+      <c r="O99">
+        <v>4.2680843324019628</v>
+      </c>
+      <c r="P99">
+        <v>11.767099045234765</v>
+      </c>
+      <c r="Q99">
+        <v>13.610593438900437</v>
+      </c>
+      <c r="R99">
+        <v>12.250586171234728</v>
+      </c>
+      <c r="S99">
+        <v>10.744962439329274</v>
+      </c>
+      <c r="T99">
+        <v>10.481027937061896</v>
+      </c>
+      <c r="U99">
+        <v>8.8720732220891314</v>
+      </c>
+      <c r="V99">
+        <v>6.4672531268114861</v>
+      </c>
+      <c r="W99">
+        <v>4.0364155179034498</v>
+      </c>
+      <c r="X99">
+        <v>2.1577676686960801</v>
+      </c>
+      <c r="Y99">
+        <v>0.94565675701423013</v>
+      </c>
+      <c r="Z99">
+        <v>0.11067813667025819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="10"/>
+        <v>3.0155057582763444E-2</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="9"/>
+        <v>0.24881634511797529</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75815327442401859</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7379970982393809</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="9"/>
+        <v>3.6325193590286626</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="9"/>
+        <v>4.5981533503576406</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0086251837910387</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="9"/>
+        <v>7.6441899269222349</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9385293566573196</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2707912203480252</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="9"/>
+        <v>7.9869446291640438</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="9"/>
+        <v>1.829975862739242</v>
+      </c>
+      <c r="O100">
+        <v>3.0155057582763444E-2</v>
+      </c>
+      <c r="P100">
+        <v>0.24881634511797529</v>
+      </c>
+      <c r="Q100">
+        <v>0.75815327442401859</v>
+      </c>
+      <c r="R100">
+        <v>1.7379970982393809</v>
+      </c>
+      <c r="S100">
+        <v>3.6325193590286626</v>
+      </c>
+      <c r="T100">
+        <v>4.5981533503576406</v>
+      </c>
+      <c r="U100">
+        <v>6.0086251837910387</v>
+      </c>
+      <c r="V100">
+        <v>7.6441899269222349</v>
+      </c>
+      <c r="W100">
+        <v>8.9385293566573196</v>
+      </c>
+      <c r="X100">
+        <v>9.2707912203480252</v>
+      </c>
+      <c r="Y100">
+        <v>7.9869446291640438</v>
+      </c>
+      <c r="Z100">
+        <v>1.829975862739242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="10"/>
+        <v>8.381170325967453E-3</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="9"/>
+        <v>9.4673027718776046E-2</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3847280085056245</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1770150167327338</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2485480474217394</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="9"/>
+        <v>3.7137535657098146</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="9"/>
+        <v>4.4724378872122097</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="9"/>
+        <v>5.5603700760043351</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="9"/>
+        <v>6.8131519125249316</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="9"/>
+        <v>7.8516360687045514</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="9"/>
+        <v>7.8469962025477207</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1439049782585013</v>
+      </c>
+      <c r="O101">
+        <v>8.381170325967453E-3</v>
+      </c>
+      <c r="P101">
+        <v>9.4673027718776046E-2</v>
+      </c>
+      <c r="Q101">
+        <v>0.3847280085056245</v>
+      </c>
+      <c r="R101">
+        <v>1.1770150167327338</v>
+      </c>
+      <c r="S101">
+        <v>3.2485480474217394</v>
+      </c>
+      <c r="T101">
+        <v>3.7137535657098146</v>
+      </c>
+      <c r="U101">
+        <v>4.4724378872122097</v>
+      </c>
+      <c r="V101">
+        <v>5.5603700760043351</v>
+      </c>
+      <c r="W101">
+        <v>6.8131519125249316</v>
+      </c>
+      <c r="X101">
+        <v>7.8516360687045514</v>
+      </c>
+      <c r="Y101">
+        <v>7.8469962025477207</v>
+      </c>
+      <c r="Z101">
+        <v>2.1439049782585013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="10"/>
+        <v>3.3677918850176328E-5</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6145948207017965E-3</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4957792412314463E-2</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="9"/>
+        <v>0.28452501738459335</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.6996615893485578</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7623886981066099</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8529437065952399</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9859184169466593</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2066468040355423</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="9"/>
+        <v>3.7067217976302786</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="9"/>
+        <v>4.8842264428039543</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4533586814316597</v>
+      </c>
+      <c r="O102">
+        <v>3.3677918850176328E-5</v>
+      </c>
+      <c r="P102">
+        <v>1.6145948207017965E-3</v>
+      </c>
+      <c r="Q102">
+        <v>2.4957792412314463E-2</v>
+      </c>
+      <c r="R102">
+        <v>0.28452501738459335</v>
+      </c>
+      <c r="S102">
+        <v>2.6996615893485578</v>
+      </c>
+      <c r="T102">
+        <v>2.7623886981066099</v>
+      </c>
+      <c r="U102">
+        <v>2.8529437065952399</v>
+      </c>
+      <c r="V102">
+        <v>2.9859184169466593</v>
+      </c>
+      <c r="W102">
+        <v>3.2066468040355423</v>
+      </c>
+      <c r="X102">
+        <v>3.7067217976302786</v>
+      </c>
+      <c r="Y102">
+        <v>4.8842264428039543</v>
+      </c>
+      <c r="Z102">
+        <v>2.4533586814316597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="10"/>
+        <v>2.3266904023890097E-7</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2590387402371146E-5</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3352343665695909E-3</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2419979974329741E-2</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8410616624746345</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8620348684495265</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8917157758096961</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.931683081726097</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9856097402023809</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="9"/>
+        <v>3.1197072952457949</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8216555020864873</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7600410681263114</v>
+      </c>
+      <c r="O103">
+        <v>2.3266904023890097E-7</v>
+      </c>
+      <c r="P103">
+        <v>4.2590387402371146E-5</v>
+      </c>
+      <c r="Q103">
+        <v>2.3352343665695909E-3</v>
+      </c>
+      <c r="R103">
+        <v>9.2419979974329741E-2</v>
+      </c>
+      <c r="S103">
+        <v>2.8410616624746345</v>
+      </c>
+      <c r="T103">
+        <v>2.8620348684495265</v>
+      </c>
+      <c r="U103">
+        <v>2.8917157758096961</v>
+      </c>
+      <c r="V103">
+        <v>2.931683081726097</v>
+      </c>
+      <c r="W103">
+        <v>2.9856097402023809</v>
+      </c>
+      <c r="X103">
+        <v>3.1197072952457949</v>
+      </c>
+      <c r="Y103">
+        <v>3.8216555020864873</v>
+      </c>
+      <c r="Z103">
+        <v>2.7600410681263114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="O104" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>6</v>
+      </c>
+      <c r="S104" t="s">
+        <v>7</v>
+      </c>
+      <c r="U104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W104" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="O105" t="s">
+        <v>39</v>
+      </c>
+      <c r="P105" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>39</v>
+      </c>
+      <c r="R105" t="s">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s">
+        <v>39</v>
+      </c>
+      <c r="T105" t="s">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s">
+        <v>39</v>
+      </c>
+      <c r="V105" t="s">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s">
+        <v>39</v>
+      </c>
+      <c r="X105" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="O106">
+        <v>0.92970040148586819</v>
+      </c>
+      <c r="P106">
+        <v>0.92002452902596876</v>
+      </c>
+      <c r="Q106">
+        <v>1.8594008029358329</v>
+      </c>
+      <c r="R106">
+        <v>1.8400490573377419</v>
+      </c>
+      <c r="S106">
+        <v>2.7890992276113482</v>
+      </c>
+      <c r="T106">
+        <v>2.7600729080890294</v>
+      </c>
+      <c r="U106">
+        <v>3.7046659964198718</v>
+      </c>
+      <c r="V106">
+        <v>3.6734988685949626</v>
+      </c>
+      <c r="W106">
+        <v>4.1870383778779008</v>
+      </c>
+      <c r="X106">
+        <v>4.2680843324019628</v>
+      </c>
+      <c r="Y106">
+        <v>1.8382663988902929E-2</v>
+      </c>
+      <c r="Z106">
+        <v>3.0155057582763444E-2</v>
+      </c>
+      <c r="AA106">
+        <v>1.1660096006096498E-2</v>
+      </c>
+      <c r="AB106">
+        <v>8.381170325967453E-3</v>
+      </c>
+      <c r="AC106">
+        <v>5.1829835070110373E-5</v>
+      </c>
+      <c r="AD106">
+        <v>3.3677918850176328E-5</v>
+      </c>
+      <c r="AE106">
+        <v>6.0383911123521262E-7</v>
+      </c>
+      <c r="AF106">
+        <v>2.3266904023890097E-7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>1.0242130736258013E-2</v>
+      </c>
+      <c r="P107">
+        <v>1.662485919268122E-2</v>
+      </c>
+      <c r="Q107">
+        <v>0.21913128532538084</v>
+      </c>
+      <c r="R107">
+        <v>0.30222268034353217</v>
+      </c>
+      <c r="S107">
+        <v>1.5424226547671609</v>
+      </c>
+      <c r="T107">
+        <v>1.5991465074270639</v>
+      </c>
+      <c r="U107">
+        <v>6.180501976478026</v>
+      </c>
+      <c r="V107">
+        <v>6.7071036564501076</v>
+      </c>
+      <c r="W107">
+        <v>10.488328150104154</v>
+      </c>
+      <c r="X107">
+        <v>11.767099045234765</v>
+      </c>
+      <c r="Y107">
+        <v>0.14441906702017049</v>
+      </c>
+      <c r="Z107">
+        <v>0.24881634511797529</v>
+      </c>
+      <c r="AA107">
+        <v>0.1031936442702622</v>
+      </c>
+      <c r="AB107">
+        <v>9.4673027718776046E-2</v>
+      </c>
+      <c r="AC107">
+        <v>1.8128483298508527E-3</v>
+      </c>
+      <c r="AD107">
+        <v>1.6145948207017965E-3</v>
+      </c>
+      <c r="AE107">
+        <v>6.9110536739335168E-5</v>
+      </c>
+      <c r="AF107">
+        <v>4.2590387402371146E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>1.4047334677728621E-3</v>
+      </c>
+      <c r="P108">
+        <v>2.9319932496686004E-3</v>
+      </c>
+      <c r="Q108">
+        <v>3.7318558749141216E-2</v>
+      </c>
+      <c r="R108">
+        <v>6.6676160061471576E-2</v>
+      </c>
+      <c r="S108">
+        <v>0.52089357027482974</v>
+      </c>
+      <c r="T108">
+        <v>0.5801071243893815</v>
+      </c>
+      <c r="U108">
+        <v>4.7106957718593705</v>
+      </c>
+      <c r="V108">
+        <v>5.4982179595368157</v>
+      </c>
+      <c r="W108">
+        <v>11.216892606247324</v>
+      </c>
+      <c r="X108">
+        <v>13.610593438900437</v>
+      </c>
+      <c r="Y108">
+        <v>0.4305717419014396</v>
+      </c>
+      <c r="Z108">
+        <v>0.75815327442401859</v>
+      </c>
+      <c r="AA108">
+        <v>0.3461092958838039</v>
+      </c>
+      <c r="AB108">
+        <v>0.3847280085056245</v>
+      </c>
+      <c r="AC108">
+        <v>2.2046130087181585E-2</v>
+      </c>
+      <c r="AD108">
+        <v>2.4957792412314463E-2</v>
+      </c>
+      <c r="AE108">
+        <v>2.6008404974322522E-3</v>
+      </c>
+      <c r="AF108">
+        <v>2.3352343665695909E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>1.1414237681989833E-3</v>
+      </c>
+      <c r="P109">
+        <v>2.5568465808638681E-3</v>
+      </c>
+      <c r="Q109">
+        <v>2.2591909714445229E-2</v>
+      </c>
+      <c r="R109">
+        <v>4.2062265338586521E-2</v>
+      </c>
+      <c r="S109">
+        <v>0.23261039436223108</v>
+      </c>
+      <c r="T109">
+        <v>0.27777651765410905</v>
+      </c>
+      <c r="U109">
+        <v>3.0377320330154989</v>
+      </c>
+      <c r="V109">
+        <v>3.6853621997416779</v>
+      </c>
+      <c r="W109">
+        <v>9.6342012182159475</v>
+      </c>
+      <c r="X109">
+        <v>12.250586171234728</v>
+      </c>
+      <c r="Y109">
+        <v>0.99929440489583543</v>
+      </c>
+      <c r="Z109">
+        <v>1.7379970982393809</v>
+      </c>
+      <c r="AA109">
+        <v>0.90586206366434696</v>
+      </c>
+      <c r="AB109">
+        <v>1.1770150167327338</v>
+      </c>
+      <c r="AC109">
+        <v>0.20682941417262679</v>
+      </c>
+      <c r="AD109">
+        <v>0.28452501738459335</v>
+      </c>
+      <c r="AE109">
+        <v>7.4329185216469057E-2</v>
+      </c>
+      <c r="AF109">
+        <v>9.2419979974329741E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>1.4542925511125148E-3</v>
+      </c>
+      <c r="P110">
+        <v>3.6680793678262945E-3</v>
+      </c>
+      <c r="Q110">
+        <v>2.552610996985576E-2</v>
+      </c>
+      <c r="R110">
+        <v>4.6182232846407156E-2</v>
+      </c>
+      <c r="S110">
+        <v>0.19960298356492956</v>
+      </c>
+      <c r="T110">
+        <v>0.22294223268052207</v>
+      </c>
+      <c r="U110">
+        <v>2.4460912737232219</v>
+      </c>
+      <c r="V110">
+        <v>2.5968535723987762</v>
+      </c>
+      <c r="W110">
+        <v>9.5671118520430394</v>
+      </c>
+      <c r="X110">
+        <v>10.744962439329274</v>
+      </c>
+      <c r="Y110">
+        <v>2.5374223794335653</v>
+      </c>
+      <c r="Z110">
+        <v>3.6325193590286626</v>
+      </c>
+      <c r="AA110">
+        <v>2.6023028634583301</v>
+      </c>
+      <c r="AB110">
+        <v>3.2485480474217394</v>
+      </c>
+      <c r="AC110">
+        <v>2.0183908991649413</v>
+      </c>
+      <c r="AD110">
+        <v>2.6996615893485578</v>
+      </c>
+      <c r="AE110">
+        <v>2.1101101681138057</v>
+      </c>
+      <c r="AF110">
+        <v>2.8410616624746345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>1.1211499943024106E-5</v>
+      </c>
+      <c r="P111">
+        <v>6.2156445993949094E-5</v>
+      </c>
+      <c r="Q111">
+        <v>1.5809535678350205E-3</v>
+      </c>
+      <c r="R111">
+        <v>4.3921566586285331E-3</v>
+      </c>
+      <c r="S111">
+        <v>4.8351970203680539E-2</v>
+      </c>
+      <c r="T111">
+        <v>5.3290356972826906E-2</v>
+      </c>
+      <c r="U111">
+        <v>1.5914493506455769</v>
+      </c>
+      <c r="V111">
+        <v>1.7319964041676619</v>
+      </c>
+      <c r="W111">
+        <v>8.7588355695084044</v>
+      </c>
+      <c r="X111">
+        <v>10.481027937061896</v>
+      </c>
+      <c r="Y111">
+        <v>3.0135331531169967</v>
+      </c>
+      <c r="Z111">
+        <v>4.5981533503576406</v>
+      </c>
+      <c r="AA111">
+        <v>2.9476847494970144</v>
+      </c>
+      <c r="AB111">
+        <v>3.7137535657098146</v>
+      </c>
+      <c r="AC111">
+        <v>2.011037006455628</v>
+      </c>
+      <c r="AD111">
+        <v>2.7623886981066099</v>
+      </c>
+      <c r="AE111">
+        <v>2.0676449220701274</v>
+      </c>
+      <c r="AF111">
+        <v>2.8620348684495265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>8.371149828546324E-8</v>
+      </c>
+      <c r="P112">
+        <v>1.0404341964075221E-6</v>
+      </c>
+      <c r="Q112">
+        <v>9.1156655610054573E-5</v>
+      </c>
+      <c r="R112">
+        <v>3.8752157984145983E-4</v>
+      </c>
+      <c r="S112">
+        <v>1.0633342928879901E-2</v>
+      </c>
+      <c r="T112">
+        <v>1.1279247790675989E-2</v>
+      </c>
+      <c r="U112">
+        <v>0.92456663442781328</v>
+      </c>
+      <c r="V112">
+        <v>1.00695494373399</v>
+      </c>
+      <c r="W112">
+        <v>7.1064748115740786</v>
+      </c>
+      <c r="X112">
+        <v>8.8720732220891314</v>
+      </c>
+      <c r="Y112">
+        <v>3.7620724495722397</v>
+      </c>
+      <c r="Z112">
+        <v>6.0086251837910387</v>
+      </c>
+      <c r="AA112">
+        <v>3.5484567082732181</v>
+      </c>
+      <c r="AB112">
+        <v>4.4724378872122097</v>
+      </c>
+      <c r="AC112">
+        <v>2.0685359632195062</v>
+      </c>
+      <c r="AD112">
+        <v>2.8529437065952399</v>
+      </c>
+      <c r="AE112">
+        <v>2.072559251636255</v>
+      </c>
+      <c r="AF112">
+        <v>2.8917157758096961</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>6.0257921529894713E-10</v>
+      </c>
+      <c r="P113">
+        <v>1.7524013240704039E-8</v>
+      </c>
+      <c r="Q113">
+        <v>4.8234592034468886E-6</v>
+      </c>
+      <c r="R113">
+        <v>3.1949963609677269E-5</v>
+      </c>
+      <c r="S113">
+        <v>2.0796827592702832E-3</v>
+      </c>
+      <c r="T113">
+        <v>2.1097188116616242E-3</v>
+      </c>
+      <c r="U113">
+        <v>0.46767728244644158</v>
+      </c>
+      <c r="V113">
+        <v>0.50753365853797239</v>
+      </c>
+      <c r="W113">
+        <v>4.9669639115351512</v>
+      </c>
+      <c r="X113">
+        <v>6.4672531268114861</v>
+      </c>
+      <c r="Y113">
+        <v>4.6003637709996417</v>
+      </c>
+      <c r="Z113">
+        <v>7.6441899269222349</v>
+      </c>
+      <c r="AA113">
+        <v>4.3086695554409857</v>
+      </c>
+      <c r="AB113">
+        <v>5.5603700760043351</v>
+      </c>
+      <c r="AC113">
+        <v>2.2060580131633238</v>
+      </c>
+      <c r="AD113">
+        <v>2.9859184169466593</v>
+      </c>
+      <c r="AE113">
+        <v>2.1351014212994994</v>
+      </c>
+      <c r="AF113">
+        <v>2.931683081726097</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>4.2036341074448677E-12</v>
+      </c>
+      <c r="P114">
+        <v>2.9473846703938593E-10</v>
+      </c>
+      <c r="Q114">
+        <v>2.3483445919174782E-7</v>
+      </c>
+      <c r="R114">
+        <v>2.4608394668665456E-6</v>
+      </c>
+      <c r="S114">
+        <v>3.620250800455844E-4</v>
+      </c>
+      <c r="T114">
+        <v>3.4785072325828873E-4</v>
+      </c>
+      <c r="U114">
+        <v>0.20551643584767559</v>
+      </c>
+      <c r="V114">
+        <v>0.22088471024570416</v>
+      </c>
+      <c r="W114">
+        <v>2.9763248419995616</v>
+      </c>
+      <c r="X114">
+        <v>4.0364155179034498</v>
+      </c>
+      <c r="Y114">
+        <v>5.1707903352902553</v>
+      </c>
+      <c r="Z114">
+        <v>8.9385293566573196</v>
+      </c>
+      <c r="AA114">
+        <v>4.9625815655479615</v>
+      </c>
+      <c r="AB114">
+        <v>6.8131519125249316</v>
+      </c>
+      <c r="AC114">
+        <v>2.4378334953695342</v>
+      </c>
+      <c r="AD114">
+        <v>3.2066468040355423</v>
+      </c>
+      <c r="AE114">
+        <v>2.2633693049207042</v>
+      </c>
+      <c r="AF114">
+        <v>2.9856097402023809</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>2.8842970689740881E-14</v>
+      </c>
+      <c r="P115">
+        <v>4.8472571173466621E-12</v>
+      </c>
+      <c r="Q115">
+        <v>1.0732532081194549E-8</v>
+      </c>
+      <c r="R115">
+        <v>1.7650733315281917E-7</v>
+      </c>
+      <c r="S115">
+        <v>5.7367719344617226E-5</v>
+      </c>
+      <c r="T115">
+        <v>5.0664066189246332E-5</v>
+      </c>
+      <c r="U115">
+        <v>7.998676598306638E-2</v>
+      </c>
+      <c r="V115">
+        <v>8.3121945475683814E-2</v>
+      </c>
+      <c r="W115">
+        <v>1.555106646246271</v>
+      </c>
+      <c r="X115">
+        <v>2.1577676686960801</v>
+      </c>
+      <c r="Y115">
+        <v>5.195632375205963</v>
+      </c>
+      <c r="Z115">
+        <v>9.2707912203480252</v>
+      </c>
+      <c r="AA115">
+        <v>5.2346793141089671</v>
+      </c>
+      <c r="AB115">
+        <v>7.8516360687045514</v>
+      </c>
+      <c r="AC115">
+        <v>2.8163902222317954</v>
+      </c>
+      <c r="AD115">
+        <v>3.7067217976302786</v>
+      </c>
+      <c r="AE115">
+        <v>2.5007358912738327</v>
+      </c>
+      <c r="AF115">
+        <v>3.1197072952457949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>1.9862314797163635E-16</v>
+      </c>
+      <c r="P116">
+        <v>7.5564157038962936E-14</v>
+      </c>
+      <c r="Q116">
+        <v>4.7023070749833658E-10</v>
+      </c>
+      <c r="R116">
+        <v>1.1454096790669944E-8</v>
+      </c>
+      <c r="S116">
+        <v>8.4105437671739419E-6</v>
+      </c>
+      <c r="T116">
+        <v>6.3044724535994692E-6</v>
+      </c>
+      <c r="U116">
+        <v>2.7648600000216485E-2</v>
+      </c>
+      <c r="V116">
+        <v>2.593835992796022E-2</v>
+      </c>
+      <c r="W116">
+        <v>0.7070306075363012</v>
+      </c>
+      <c r="X116">
+        <v>0.94565675701423013</v>
+      </c>
+      <c r="Y116">
+        <v>4.5310534908545472</v>
+      </c>
+      <c r="Z116">
+        <v>7.9869446291640438</v>
+      </c>
+      <c r="AA116">
+        <v>4.8776329211205853</v>
+      </c>
+      <c r="AB116">
+        <v>7.8469962025477207</v>
+      </c>
+      <c r="AC116">
+        <v>3.4302756874770064</v>
+      </c>
+      <c r="AD116">
+        <v>4.8842264428039543</v>
+      </c>
+      <c r="AE116">
+        <v>3.0447358604509489</v>
+      </c>
+      <c r="AF116">
+        <v>3.8216555020864873</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>8.5124757034622033E-19</v>
+      </c>
+      <c r="P117">
+        <v>4.2329882915324549E-16</v>
+      </c>
+      <c r="Q117">
+        <v>1.1783679121746361E-11</v>
+      </c>
+      <c r="R117">
+        <v>2.3806229462989503E-10</v>
+      </c>
+      <c r="S117">
+        <v>6.4879778682191816E-7</v>
+      </c>
+      <c r="T117">
+        <v>2.2632696558539778E-7</v>
+      </c>
+      <c r="U117">
+        <v>4.6392844829871542E-3</v>
+      </c>
+      <c r="V117">
+        <v>2.1997233141919613E-3</v>
+      </c>
+      <c r="W117">
+        <v>0.15145162665016643</v>
+      </c>
+      <c r="X117">
+        <v>0.11067813667025819</v>
+      </c>
+      <c r="Y117">
+        <v>1.824723965937028</v>
+      </c>
+      <c r="Z117">
+        <v>1.829975862739242</v>
+      </c>
+      <c r="AA117">
+        <v>2.1320564898381491</v>
+      </c>
+      <c r="AB117">
+        <v>2.1439049782585013</v>
+      </c>
+      <c r="AC117">
+        <v>2.4409924920862842</v>
+      </c>
+      <c r="AD117">
+        <v>2.4533586814316597</v>
+      </c>
+      <c r="AE117">
+        <v>2.7461354921958154</v>
+      </c>
+      <c r="AF117">
+        <v>2.7600410681263114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B120" s="7">
+        <v>0</v>
+      </c>
+      <c r="C120" s="7">
+        <v>17.999998964486686</v>
+      </c>
+      <c r="D120" s="7">
+        <v>27.536874141314239</v>
+      </c>
+      <c r="E120" s="7">
+        <v>27.1768844395326</v>
+      </c>
+      <c r="F120" s="7">
+        <v>26.766961377355898</v>
+      </c>
+      <c r="G120" s="7">
+        <v>20.319782419037942</v>
+      </c>
+      <c r="H120" s="7">
+        <v>20.071167602667288</v>
+      </c>
+      <c r="I120" s="7">
+        <v>19.684600257256413</v>
+      </c>
+      <c r="J120" s="7">
+        <v>19.197072640386619</v>
+      </c>
+      <c r="K120" s="7">
+        <v>18.741872165969642</v>
+      </c>
+      <c r="L120" s="7">
+        <v>18.377702440477794</v>
+      </c>
+      <c r="M120" s="7">
+        <v>18.000006864518632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" t="s">
+        <v>24</v>
+      </c>
+      <c r="M121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="8">
+        <f>B15*B$120</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="8">
+        <f t="shared" ref="C122:M122" si="11">C15*C$120</f>
+        <v>1.2404095723231772</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" si="11"/>
+        <v>0.32294099898399375</v>
+      </c>
+      <c r="E122" s="8">
+        <f t="shared" si="11"/>
+        <v>0.31244702697535587</v>
+      </c>
+      <c r="F122" s="8">
+        <f t="shared" si="11"/>
+        <v>0.31270377002312855</v>
+      </c>
+      <c r="G122" s="8">
+        <f t="shared" si="11"/>
+        <v>2.0267583120015371E-3</v>
+      </c>
+      <c r="H122" s="8">
+        <f t="shared" si="11"/>
+        <v>1.6445832300491086E-5</v>
+      </c>
+      <c r="I122" s="8">
+        <f t="shared" si="11"/>
+        <v>1.2881157795602865E-7</v>
+      </c>
+      <c r="J122" s="8">
+        <f t="shared" si="11"/>
+        <v>9.7111168417254283E-10</v>
+      </c>
+      <c r="K122" s="8">
+        <f t="shared" si="11"/>
+        <v>7.1574135930992578E-12</v>
+      </c>
+      <c r="L122" s="8">
+        <f t="shared" si="11"/>
+        <v>5.3548815905832356E-14</v>
+      </c>
+      <c r="M122" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3591148567705831E-16</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1.2404095723231772</v>
+      </c>
+      <c r="Q122">
+        <v>0.32294099898399375</v>
+      </c>
+      <c r="R122">
+        <v>0.31244702697535587</v>
+      </c>
+      <c r="S122">
+        <v>0.31270377002312855</v>
+      </c>
+      <c r="T122">
+        <v>2.0267583120015371E-3</v>
+      </c>
+      <c r="U122">
+        <v>1.6445832300491086E-5</v>
+      </c>
+      <c r="V122">
+        <v>1.2881157795602865E-7</v>
+      </c>
+      <c r="W122">
+        <v>9.7111168417254283E-10</v>
+      </c>
+      <c r="X122">
+        <v>7.1574135930992578E-12</v>
+      </c>
+      <c r="Y122">
+        <v>5.3548815905832356E-14</v>
+      </c>
+      <c r="Z122">
+        <v>4.3591148567705831E-16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="8">
+        <f t="shared" ref="B123:M130" si="12">B16*B$120</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="8">
+        <f t="shared" si="12"/>
+        <v>2.479884368961319</v>
+      </c>
+      <c r="D123" s="8">
+        <f t="shared" si="12"/>
+        <v>0.89058130741129204</v>
+      </c>
+      <c r="E123" s="8">
+        <f t="shared" si="12"/>
+        <v>0.66991271719073564</v>
+      </c>
+      <c r="F123" s="8">
+        <f t="shared" si="12"/>
+        <v>0.65498543604954662</v>
+      </c>
+      <c r="G123" s="8">
+        <f t="shared" si="12"/>
+        <v>3.5533436590711676E-2</v>
+      </c>
+      <c r="H123" s="8">
+        <f t="shared" si="12"/>
+        <v>2.3145047373966262E-3</v>
+      </c>
+      <c r="I123" s="8">
+        <f t="shared" si="12"/>
+        <v>1.3991451069047473E-4</v>
+      </c>
+      <c r="J123" s="8">
+        <f t="shared" si="12"/>
+        <v>7.75503402695192E-6</v>
+      </c>
+      <c r="K123" s="8">
+        <f t="shared" si="12"/>
+        <v>3.9914543378949392E-7</v>
+      </c>
+      <c r="L123" s="8">
+        <f t="shared" si="12"/>
+        <v>1.9887706850841285E-8</v>
+      </c>
+      <c r="M123" s="8">
+        <f t="shared" si="12"/>
+        <v>1.0119158605313524E-9</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>2.479884368961319</v>
+      </c>
+      <c r="Q123">
+        <v>0.89058130741129204</v>
+      </c>
+      <c r="R123">
+        <v>0.66991271719073564</v>
+      </c>
+      <c r="S123">
+        <v>0.65498543604954662</v>
+      </c>
+      <c r="T123">
+        <v>3.5533436590711676E-2</v>
+      </c>
+      <c r="U123">
+        <v>2.3145047373966262E-3</v>
+      </c>
+      <c r="V123">
+        <v>1.3991451069047473E-4</v>
+      </c>
+      <c r="W123">
+        <v>7.75503402695192E-6</v>
+      </c>
+      <c r="X123">
+        <v>3.9914543378949392E-7</v>
+      </c>
+      <c r="Y123">
+        <v>1.9887706850841285E-8</v>
+      </c>
+      <c r="Z123">
+        <v>1.0119158605313524E-9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C124" s="8">
+        <f t="shared" si="12"/>
+        <v>3.7189324119404321</v>
+      </c>
+      <c r="D124" s="8">
+        <f t="shared" si="12"/>
+        <v>2.8315878993894223</v>
+      </c>
+      <c r="E124" s="8">
+        <f t="shared" si="12"/>
+        <v>1.6143703960649776</v>
+      </c>
+      <c r="F124" s="8">
+        <f t="shared" si="12"/>
+        <v>1.2748349590127623</v>
+      </c>
+      <c r="G124" s="8">
+        <f t="shared" si="12"/>
+        <v>0.27765281406067166</v>
+      </c>
+      <c r="H124" s="8">
+        <f t="shared" si="12"/>
+        <v>7.0697868187699159E-2</v>
+      </c>
+      <c r="I124" s="8">
+        <f t="shared" si="12"/>
+        <v>1.629403725519785E-2</v>
+      </c>
+      <c r="J124" s="8">
+        <f t="shared" si="12"/>
+        <v>3.3378800151991589E-3</v>
+      </c>
+      <c r="K124" s="8">
+        <f t="shared" si="12"/>
+        <v>6.1385699846873204E-4</v>
+      </c>
+      <c r="L124" s="8">
+        <f t="shared" si="12"/>
+        <v>1.0536280204375847E-4</v>
+      </c>
+      <c r="M124" s="8">
+        <f t="shared" si="12"/>
+        <v>1.7218118880218427E-5</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>3.7189324119404321</v>
+      </c>
+      <c r="Q124">
+        <v>2.8315878993894223</v>
+      </c>
+      <c r="R124">
+        <v>1.6143703960649776</v>
+      </c>
+      <c r="S124">
+        <v>1.2748349590127623</v>
+      </c>
+      <c r="T124">
+        <v>0.27765281406067166</v>
+      </c>
+      <c r="U124">
+        <v>7.0697868187699159E-2</v>
+      </c>
+      <c r="V124">
+        <v>1.629403725519785E-2</v>
+      </c>
+      <c r="W124">
+        <v>3.3378800151991589E-3</v>
+      </c>
+      <c r="X124">
+        <v>6.1385699846873204E-4</v>
+      </c>
+      <c r="Y124">
+        <v>1.0536280204375847E-4</v>
+      </c>
+      <c r="Z124">
+        <v>1.7218118880218427E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="8">
+        <f t="shared" si="12"/>
+        <v>4.9389856879434353</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" si="12"/>
+        <v>8.8526194617665475</v>
+      </c>
+      <c r="E125" s="8">
+        <f t="shared" si="12"/>
+        <v>7.4139873012669266</v>
+      </c>
+      <c r="F125" s="8">
+        <f t="shared" si="12"/>
+        <v>5.7113183828234018</v>
+      </c>
+      <c r="G125" s="8">
+        <f t="shared" si="12"/>
+        <v>3.396242196936798</v>
+      </c>
+      <c r="H125" s="8">
+        <f t="shared" si="12"/>
+        <v>2.3202505997949445</v>
+      </c>
+      <c r="I125" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4103348377679659</v>
+      </c>
+      <c r="J125" s="8">
+        <f t="shared" si="12"/>
+        <v>0.74471191539167936</v>
+      </c>
+      <c r="K125" s="8">
+        <f t="shared" si="12"/>
+        <v>0.34281465537112593</v>
+      </c>
+      <c r="L125" s="8">
+        <f t="shared" si="12"/>
+        <v>0.14129655806825481</v>
+      </c>
+      <c r="M125" s="8">
+        <f t="shared" si="12"/>
+        <v>5.1586333030971869E-2</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>4.9389856879434353</v>
+      </c>
+      <c r="Q125">
+        <v>8.8526194617665475</v>
+      </c>
+      <c r="R125">
+        <v>7.4139873012669266</v>
+      </c>
+      <c r="S125">
+        <v>5.7113183828234018</v>
+      </c>
+      <c r="T125">
+        <v>3.396242196936798</v>
+      </c>
+      <c r="U125">
+        <v>2.3202505997949445</v>
+      </c>
+      <c r="V125">
+        <v>1.4103348377679659</v>
+      </c>
+      <c r="W125">
+        <v>0.74471191539167936</v>
+      </c>
+      <c r="X125">
+        <v>0.34281465537112593</v>
+      </c>
+      <c r="Y125">
+        <v>0.14129655806825481</v>
+      </c>
+      <c r="Z125">
+        <v>5.1586333030971869E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C126" s="8">
+        <f t="shared" si="12"/>
+        <v>5.5816744424193105</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="12"/>
+        <v>14.32168882271179</v>
+      </c>
+      <c r="E126" s="8">
+        <f t="shared" si="12"/>
+        <v>16.105595256040935</v>
+      </c>
+      <c r="F126" s="8">
+        <f t="shared" si="12"/>
+        <v>15.584819153357753</v>
+      </c>
+      <c r="G126" s="8">
+        <f t="shared" si="12"/>
+        <v>13.143152395261593</v>
+      </c>
+      <c r="H126" s="8">
+        <f t="shared" si="12"/>
+        <v>12.632781960430609</v>
+      </c>
+      <c r="I126" s="8">
+        <f t="shared" si="12"/>
+        <v>10.708848500138391</v>
+      </c>
+      <c r="J126" s="8">
+        <f t="shared" si="12"/>
+        <v>7.7875615057855301</v>
+      </c>
+      <c r="K126" s="8">
+        <f t="shared" si="12"/>
+        <v>4.8561132076761746</v>
+      </c>
+      <c r="L126" s="8">
+        <f t="shared" si="12"/>
+        <v>2.6555828739236507</v>
+      </c>
+      <c r="M126" s="8">
+        <f t="shared" si="12"/>
+        <v>1.2535262882109788</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>5.5816744424193105</v>
+      </c>
+      <c r="Q126">
+        <v>14.32168882271179</v>
+      </c>
+      <c r="R126">
+        <v>16.105595256040935</v>
+      </c>
+      <c r="S126">
+        <v>15.584819153357753</v>
+      </c>
+      <c r="T126">
+        <v>13.143152395261593</v>
+      </c>
+      <c r="U126">
+        <v>12.632781960430609</v>
+      </c>
+      <c r="V126">
+        <v>10.708848500138391</v>
+      </c>
+      <c r="W126">
+        <v>7.7875615057855301</v>
+      </c>
+      <c r="X126">
+        <v>4.8561132076761746</v>
+      </c>
+      <c r="Y126">
+        <v>2.6555828739236507</v>
+      </c>
+      <c r="Z126">
+        <v>1.2535262882109788</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="8">
+        <f t="shared" si="12"/>
+        <v>2.4501324575676948E-2</v>
+      </c>
+      <c r="D127" s="8">
+        <f t="shared" si="12"/>
+        <v>0.18407867395188032</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="12"/>
+        <v>0.57060964931746194</v>
+      </c>
+      <c r="F127" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4771646065553337</v>
+      </c>
+      <c r="G127" s="8">
+        <f t="shared" si="12"/>
+        <v>1.647269706228027</v>
+      </c>
+      <c r="H127" s="8">
+        <f t="shared" si="12"/>
+        <v>2.4806362662084718</v>
+      </c>
+      <c r="I127" s="8">
+        <f t="shared" si="12"/>
+        <v>3.7637454307423428</v>
+      </c>
+      <c r="J127" s="8">
+        <f t="shared" si="12"/>
+        <v>5.2603744727644353</v>
+      </c>
+      <c r="K127" s="8">
+        <f t="shared" si="12"/>
+        <v>6.4490667497706173</v>
+      </c>
+      <c r="L127" s="8">
+        <f t="shared" si="12"/>
+        <v>6.910629540757089</v>
+      </c>
+      <c r="M127" s="8">
+        <f t="shared" si="12"/>
+        <v>6.3267847003001778</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>2.4501324575676948E-2</v>
+      </c>
+      <c r="Q127">
+        <v>0.18407867395188032</v>
+      </c>
+      <c r="R127">
+        <v>0.57060964931746194</v>
+      </c>
+      <c r="S127">
+        <v>1.4771646065553337</v>
+      </c>
+      <c r="T127">
+        <v>1.647269706228027</v>
+      </c>
+      <c r="U127">
+        <v>2.4806362662084718</v>
+      </c>
+      <c r="V127">
+        <v>3.7637454307423428</v>
+      </c>
+      <c r="W127">
+        <v>5.2603744727644353</v>
+      </c>
+      <c r="X127">
+        <v>6.4490667497706173</v>
+      </c>
+      <c r="Y127">
+        <v>6.910629540757089</v>
+      </c>
+      <c r="Z127">
+        <v>6.3267847003001778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C128" s="8">
+        <f t="shared" si="12"/>
+        <v>1.5541285655637735E-2</v>
+      </c>
+      <c r="D128" s="8">
+        <f t="shared" si="12"/>
+        <v>0.13104101280683564</v>
+      </c>
+      <c r="E128" s="8">
+        <f t="shared" si="12"/>
+        <v>0.4576410080839779</v>
+      </c>
+      <c r="F128" s="8">
+        <f t="shared" si="12"/>
+        <v>1.3373974908768864</v>
+      </c>
+      <c r="G128" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4211285781900442</v>
+      </c>
+      <c r="H128" s="8">
+        <f t="shared" si="12"/>
+        <v>2.0618573556316271</v>
+      </c>
+      <c r="I128" s="8">
+        <f t="shared" si="12"/>
+        <v>3.1029566644976585</v>
+      </c>
+      <c r="J128" s="8">
+        <f t="shared" si="12"/>
+        <v>4.4387464578268103</v>
+      </c>
+      <c r="K128" s="8">
+        <f t="shared" si="12"/>
+        <v>5.706594358029256</v>
+      </c>
+      <c r="L128" s="8">
+        <f t="shared" si="12"/>
+        <v>6.5269039569605143</v>
+      </c>
+      <c r="M128" s="8">
+        <f t="shared" si="12"/>
+        <v>6.4760331601590302</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>1.5541285655637735E-2</v>
+      </c>
+      <c r="Q128">
+        <v>0.13104101280683564</v>
+      </c>
+      <c r="R128">
+        <v>0.4576410080839779</v>
+      </c>
+      <c r="S128">
+        <v>1.3373974908768864</v>
+      </c>
+      <c r="T128">
+        <v>1.4211285781900442</v>
+      </c>
+      <c r="U128">
+        <v>2.0618573556316271</v>
+      </c>
+      <c r="V128">
+        <v>3.1029566644976585</v>
+      </c>
+      <c r="W128">
+        <v>4.4387464578268103</v>
+      </c>
+      <c r="X128">
+        <v>5.706594358029256</v>
+      </c>
+      <c r="Y128">
+        <v>6.5269039569605143</v>
+      </c>
+      <c r="Z128">
+        <v>6.4760331601590302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C129" s="8">
+        <f t="shared" si="12"/>
+        <v>6.9066163870874938E-5</v>
+      </c>
+      <c r="D129" s="8">
+        <f t="shared" si="12"/>
+        <v>2.2506334856644515E-3</v>
+      </c>
+      <c r="E129" s="8">
+        <f t="shared" si="12"/>
+        <v>2.8912681825139425E-2</v>
+      </c>
+      <c r="F129" s="8">
+        <f t="shared" si="12"/>
+        <v>0.30438466669288905</v>
+      </c>
+      <c r="G129" s="8">
+        <f t="shared" si="12"/>
+        <v>0.29167283179871223</v>
+      </c>
+      <c r="H129" s="8">
+        <f t="shared" si="12"/>
+        <v>0.37017811440180126</v>
+      </c>
+      <c r="I129" s="8">
+        <f t="shared" si="12"/>
+        <v>0.5039872274050643</v>
+      </c>
+      <c r="J129" s="8">
+        <f t="shared" si="12"/>
+        <v>0.71391740031458117</v>
+      </c>
+      <c r="K129" s="8">
+        <f t="shared" si="12"/>
+        <v>1.0345005895974622</v>
+      </c>
+      <c r="L129" s="8">
+        <f t="shared" si="12"/>
+        <v>1.5900711826562468</v>
+      </c>
+      <c r="M129" s="8">
+        <f t="shared" si="12"/>
+        <v>2.6744973178056881</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>6.9066163870874938E-5</v>
+      </c>
+      <c r="Q129">
+        <v>2.2506334856644515E-3</v>
+      </c>
+      <c r="R129">
+        <v>2.8912681825139425E-2</v>
+      </c>
+      <c r="S129">
+        <v>0.30438466669288905</v>
+      </c>
+      <c r="T129">
+        <v>0.29167283179871223</v>
+      </c>
+      <c r="U129">
+        <v>0.37017811440180126</v>
+      </c>
+      <c r="V129">
+        <v>0.5039872274050643</v>
+      </c>
+      <c r="W129">
+        <v>0.71391740031458117</v>
+      </c>
+      <c r="X129">
+        <v>1.0345005895974622</v>
+      </c>
+      <c r="Y129">
+        <v>1.5900711826562468</v>
+      </c>
+      <c r="Z129">
+        <v>2.6744973178056881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C130" s="8">
+        <f t="shared" si="12"/>
+        <v>8.0450382640529223E-7</v>
+      </c>
+      <c r="D130" s="8">
+        <f t="shared" si="12"/>
+        <v>8.533080681505564E-5</v>
+      </c>
+      <c r="E130" s="8">
+        <f t="shared" si="12"/>
+        <v>3.4084027670894202E-3</v>
+      </c>
+      <c r="F130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.10935291196419732</v>
+      </c>
+      <c r="G130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.10510370165938543</v>
+      </c>
+      <c r="H130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.13243448744243716</v>
+      </c>
+      <c r="I130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.17829351612752534</v>
+      </c>
+      <c r="J130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.2484152522832441</v>
+      </c>
+      <c r="K130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.3521683493739457</v>
+      </c>
+      <c r="L130" s="8">
+        <f t="shared" si="12"/>
+        <v>0.55311294542223355</v>
+      </c>
+      <c r="M130" s="8">
+        <f t="shared" si="12"/>
+        <v>1.21756184588099</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>8.0450382640529223E-7</v>
+      </c>
+      <c r="Q130">
+        <v>8.533080681505564E-5</v>
+      </c>
+      <c r="R130">
+        <v>3.4084027670894202E-3</v>
+      </c>
+      <c r="S130">
+        <v>0.10935291196419732</v>
+      </c>
+      <c r="T130">
+        <v>0.10510370165938543</v>
+      </c>
+      <c r="U130">
+        <v>0.13243448744243716</v>
+      </c>
+      <c r="V130">
+        <v>0.17829351612752534</v>
+      </c>
+      <c r="W130">
+        <v>0.2484152522832441</v>
+      </c>
+      <c r="X130">
+        <v>0.3521683493739457</v>
+      </c>
+      <c r="Y130">
+        <v>0.55311294542223355</v>
+      </c>
+      <c r="Z130">
+        <v>1.21756184588099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>2.7741825834638801E-21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>18.000346885249801</v>
+      </c>
+      <c r="D132" s="1">
+        <v>25.2373903579965</v>
+      </c>
+      <c r="E132" s="1">
+        <v>25.428748037149798</v>
+      </c>
+      <c r="F132" s="1">
+        <v>24.050348164184602</v>
+      </c>
+      <c r="G132" s="1">
+        <v>16.7362405377912</v>
+      </c>
+      <c r="H132" s="1">
+        <v>16.906940816825401</v>
+      </c>
+      <c r="I132" s="1">
+        <v>16.816259851930798</v>
+      </c>
+      <c r="J132" s="1">
+        <v>16.7989312961429</v>
+      </c>
+      <c r="K132" s="1">
+        <v>16.901429676321602</v>
+      </c>
+      <c r="L132" s="1">
+        <v>16.8896381595736</v>
+      </c>
+      <c r="M132" s="1">
+        <v>16.2112655323659</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" t="s">
+        <v>23</v>
+      </c>
+      <c r="L133" t="s">
+        <v>24</v>
+      </c>
+      <c r="M133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <f>P15*B$132</f>
+        <v>2.7741572161280567E-21</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" ref="C134:M142" si="13">Q15*C$132</f>
+        <v>1.22669576743505</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="13"/>
+        <v>0.32329609760176303</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="13"/>
+        <v>0.30960323165874981</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="13"/>
+        <v>0.30922808498994536</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="13"/>
+        <v>3.6680793678258799E-3</v>
+      </c>
+      <c r="H134" s="2">
+        <f t="shared" si="13"/>
+        <v>6.2156445993525699E-5</v>
+      </c>
+      <c r="I134" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0404341959842217E-6</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7524012817405163E-8</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="13"/>
+        <v>2.94738043740555E-10</v>
+      </c>
+      <c r="L134" s="2">
+        <f t="shared" si="13"/>
+        <v>4.8468338185174946E-12</v>
+      </c>
+      <c r="M134" s="2">
+        <f t="shared" si="13"/>
+        <v>7.5140858209809983E-14</v>
+      </c>
+      <c r="O134" s="1">
+        <v>2.7741572161280567E-21</v>
+      </c>
+      <c r="P134">
+        <v>1.22669576743505</v>
+      </c>
+      <c r="Q134">
+        <v>0.32329609760176303</v>
+      </c>
+      <c r="R134">
+        <v>0.30960323165874981</v>
+      </c>
+      <c r="S134">
+        <v>0.30922808498994536</v>
+      </c>
+      <c r="T134">
+        <v>3.6680793678258799E-3</v>
+      </c>
+      <c r="U134">
+        <v>6.2156445993525699E-5</v>
+      </c>
+      <c r="V134">
+        <v>1.0404341959842217E-6</v>
+      </c>
+      <c r="W134">
+        <v>1.7524012817405163E-8</v>
+      </c>
+      <c r="X134">
+        <v>2.94738043740555E-10</v>
+      </c>
+      <c r="Y134">
+        <v>4.8468338185174946E-12</v>
+      </c>
+      <c r="Z134">
+        <v>7.5140858209809983E-14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" ref="B135:B142" si="14">P16*B$132</f>
+        <v>2.4633618899915961E-26</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="13"/>
+        <v>2.4533915339178565</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="13"/>
+        <v>0.91556515692363394</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="13"/>
+        <v>0.68001863664157525</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="13"/>
+        <v>0.65540474191868947</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="13"/>
+        <v>4.6182232608344767E-2</v>
+      </c>
+      <c r="H135" s="2">
+        <f t="shared" si="13"/>
+        <v>4.3921564205662376E-3</v>
+      </c>
+      <c r="I135" s="2">
+        <f t="shared" si="13"/>
+        <v>3.8752134177916567E-4</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="13"/>
+        <v>3.1949725547382681E-5</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="13"/>
+        <v>2.4606014045719169E-6</v>
+      </c>
+      <c r="L135" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7626927085818909E-7</v>
+      </c>
+      <c r="M135" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1216034496040103E-8</v>
+      </c>
+      <c r="O135" s="1">
+        <v>2.4633618899915961E-26</v>
+      </c>
+      <c r="P135">
+        <v>2.4533915339178565</v>
+      </c>
+      <c r="Q135">
+        <v>0.91556515692363394</v>
+      </c>
+      <c r="R135">
+        <v>0.68001863664157525</v>
+      </c>
+      <c r="S135">
+        <v>0.65540474191868947</v>
+      </c>
+      <c r="T135">
+        <v>4.6182232608344767E-2</v>
+      </c>
+      <c r="U135">
+        <v>4.3921564205662376E-3</v>
+      </c>
+      <c r="V135">
+        <v>3.8752134177916567E-4</v>
+      </c>
+      <c r="W135">
+        <v>3.1949725547382681E-5</v>
+      </c>
+      <c r="X135">
+        <v>2.4606014045719169E-6</v>
+      </c>
+      <c r="Y135">
+        <v>1.7626927085818909E-7</v>
+      </c>
+      <c r="Z135">
+        <v>1.1216034496040103E-8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="14"/>
+        <v>7.0415048129700134E-28</v>
+      </c>
+      <c r="C136" s="2">
+        <f t="shared" si="13"/>
+        <v>3.680086396989303</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5191599963273426</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5001206132896627</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1977900065543921</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="13"/>
+        <v>0.22294200635355604</v>
+      </c>
+      <c r="H136" s="2">
+        <f t="shared" si="13"/>
+        <v>5.3290130645861085E-2</v>
+      </c>
+      <c r="I136" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1279021463710414E-2</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1094924846960447E-3</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="13"/>
+        <v>3.4762439629270383E-4</v>
+      </c>
+      <c r="L136" s="2">
+        <f t="shared" si="13"/>
+        <v>5.0437739223660947E-5</v>
+      </c>
+      <c r="M136" s="2">
+        <f t="shared" si="13"/>
+        <v>6.078145488014099E-6</v>
+      </c>
+      <c r="O136" s="1">
+        <v>7.0415048129700134E-28</v>
+      </c>
+      <c r="P136">
+        <v>3.680086396989303</v>
+      </c>
+      <c r="Q136">
+        <v>2.5191599963273426</v>
+      </c>
+      <c r="R136">
+        <v>1.5001206132896627</v>
+      </c>
+      <c r="S136">
+        <v>1.1977900065543921</v>
+      </c>
+      <c r="T136">
+        <v>0.22294200635355604</v>
+      </c>
+      <c r="U136">
+        <v>5.3290130645861085E-2</v>
+      </c>
+      <c r="V136">
+        <v>1.1279021463710414E-2</v>
+      </c>
+      <c r="W136">
+        <v>2.1094924846960447E-3</v>
+      </c>
+      <c r="X136">
+        <v>3.4762439629270383E-4</v>
+      </c>
+      <c r="Y136">
+        <v>5.0437739223660947E-5</v>
+      </c>
+      <c r="Z136">
+        <v>6.078145488014099E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="14"/>
+        <v>2.4546563596304997E-29</v>
+      </c>
+      <c r="C137" s="2">
+        <f t="shared" si="13"/>
+        <v>4.8979840989170889</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="13"/>
+        <v>7.9315888867722144</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="13"/>
+        <v>6.7227031898589429</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="13"/>
+        <v>4.909847430063822</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5946538490845734</v>
+      </c>
+      <c r="H137" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7297966808534671</v>
+      </c>
+      <c r="I137" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0047552204197969</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="13"/>
+        <v>0.50533393522378101</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="13"/>
+        <v>0.21868498693151187</v>
+      </c>
+      <c r="L137" s="2">
+        <f t="shared" si="13"/>
+        <v>8.092222216149178E-2</v>
+      </c>
+      <c r="M137" s="2">
+        <f t="shared" si="13"/>
+        <v>2.373863661376845E-2</v>
+      </c>
+      <c r="O137" s="1">
+        <v>2.4546563596304997E-29</v>
+      </c>
+      <c r="P137">
+        <v>4.8979840989170889</v>
+      </c>
+      <c r="Q137">
+        <v>7.9315888867722144</v>
+      </c>
+      <c r="R137">
+        <v>6.7227031898589429</v>
+      </c>
+      <c r="S137">
+        <v>4.909847430063822</v>
+      </c>
+      <c r="T137">
+        <v>2.5946538490845734</v>
+      </c>
+      <c r="U137">
+        <v>1.7297966808534671</v>
+      </c>
+      <c r="V137">
+        <v>1.0047552204197969</v>
+      </c>
+      <c r="W137">
+        <v>0.50533393522378101</v>
+      </c>
+      <c r="X137">
+        <v>0.21868498693151187</v>
+      </c>
+      <c r="Y137">
+        <v>8.092222216149178E-2</v>
+      </c>
+      <c r="Z137">
+        <v>2.373863661376845E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="14"/>
+        <v>5.0164864005964788E-30</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" si="13"/>
+        <v>5.6907623877771076</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="13"/>
+        <v>13.189777100609897</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="13"/>
+        <v>15.033271494275558</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="13"/>
+        <v>13.673264226609925</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="13"/>
+        <v>10.634284302659003</v>
+      </c>
+      <c r="H138" s="2">
+        <f t="shared" si="13"/>
+        <v>10.370349800391628</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="13"/>
+        <v>8.7613950854188563</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="13"/>
+        <v>6.3565749901412261</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="13"/>
+        <v>3.9257373812331822</v>
+      </c>
+      <c r="L138" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0470895320258249</v>
+      </c>
+      <c r="M138" s="2">
+        <f t="shared" si="13"/>
+        <v>0.83497862034397397</v>
+      </c>
+      <c r="O138" s="1">
+        <v>5.0164864005964788E-30</v>
+      </c>
+      <c r="P138">
+        <v>5.6907623877771076</v>
+      </c>
+      <c r="Q138">
+        <v>13.189777100609897</v>
+      </c>
+      <c r="R138">
+        <v>15.033271494275558</v>
+      </c>
+      <c r="S138">
+        <v>13.673264226609925</v>
+      </c>
+      <c r="T138">
+        <v>10.634284302659003</v>
+      </c>
+      <c r="U138">
+        <v>10.370349800391628</v>
+      </c>
+      <c r="V138">
+        <v>8.7613950854188563</v>
+      </c>
+      <c r="W138">
+        <v>6.3565749901412261</v>
+      </c>
+      <c r="X138">
+        <v>3.9257373812331822</v>
+      </c>
+      <c r="Y138">
+        <v>2.0470895320258249</v>
+      </c>
+      <c r="Z138">
+        <v>0.83497862034397397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="14"/>
+        <v>3.242160906036796E-33</v>
+      </c>
+      <c r="C139" s="2">
+        <f t="shared" si="13"/>
+        <v>4.0206625298021943E-2</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25886791283323213</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76820484213927631</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7480486659546444</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="13"/>
+        <v>1.802543496289416</v>
+      </c>
+      <c r="H139" s="2">
+        <f t="shared" si="13"/>
+        <v>2.76817748761838</v>
+      </c>
+      <c r="I139" s="2">
+        <f t="shared" si="13"/>
+        <v>4.1786493210517932</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="13"/>
+        <v>5.814214064183008</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="13"/>
+        <v>7.1085534939180812</v>
+      </c>
+      <c r="L139" s="2">
+        <f t="shared" si="13"/>
+        <v>7.4408153576087761</v>
+      </c>
+      <c r="M139" s="2">
+        <f t="shared" si="13"/>
+        <v>6.156968766424832</v>
+      </c>
+      <c r="O139" s="1">
+        <v>3.242160906036796E-33</v>
+      </c>
+      <c r="P139">
+        <v>4.0206625298021943E-2</v>
+      </c>
+      <c r="Q139">
+        <v>0.25886791283323213</v>
+      </c>
+      <c r="R139">
+        <v>0.76820484213927631</v>
+      </c>
+      <c r="S139">
+        <v>1.7480486659546444</v>
+      </c>
+      <c r="T139">
+        <v>1.802543496289416</v>
+      </c>
+      <c r="U139">
+        <v>2.76817748761838</v>
+      </c>
+      <c r="V139">
+        <v>4.1786493210517932</v>
+      </c>
+      <c r="W139">
+        <v>5.814214064183008</v>
+      </c>
+      <c r="X139">
+        <v>7.1085534939180812</v>
+      </c>
+      <c r="Y139">
+        <v>7.4408153576087761</v>
+      </c>
+      <c r="Z139">
+        <v>6.156968766424832</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4893736222820936E-34</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1174860931046221E-2</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="13"/>
+        <v>9.7466718323854631E-2</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="13"/>
+        <v>0.38752169911070228</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1798087073378156</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1046430691632467</v>
+      </c>
+      <c r="H140" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5698485874513173</v>
+      </c>
+      <c r="I140" s="2">
+        <f t="shared" si="13"/>
+        <v>2.3285329089537137</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="13"/>
+        <v>3.4164650977458306</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="13"/>
+        <v>4.6692469342664458</v>
+      </c>
+      <c r="L140" s="2">
+        <f t="shared" si="13"/>
+        <v>5.7077310904460594</v>
+      </c>
+      <c r="M140" s="2">
+        <f t="shared" si="13"/>
+        <v>5.7030912242892509</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1.4893736222820936E-34</v>
+      </c>
+      <c r="P140">
+        <v>1.1174860931046221E-2</v>
+      </c>
+      <c r="Q140">
+        <v>9.7466718323854631E-2</v>
+      </c>
+      <c r="R140">
+        <v>0.38752169911070228</v>
+      </c>
+      <c r="S140">
+        <v>1.1798087073378156</v>
+      </c>
+      <c r="T140">
+        <v>1.1046430691632467</v>
+      </c>
+      <c r="U140">
+        <v>1.5698485874513173</v>
+      </c>
+      <c r="V140">
+        <v>2.3285329089537137</v>
+      </c>
+      <c r="W140">
+        <v>3.4164650977458306</v>
+      </c>
+      <c r="X140">
+        <v>4.6692469342664458</v>
+      </c>
+      <c r="Y140">
+        <v>5.7077310904460594</v>
+      </c>
+      <c r="Z140">
+        <v>5.7030912242892509</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="14"/>
+        <v>3.4882572183247567E-39</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="13"/>
+        <v>4.4903759852218283E-5</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="13"/>
+        <v>1.6258206617038369E-3</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="13"/>
+        <v>2.496901825331644E-2</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.28453624322559518</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.246302907916891</v>
+      </c>
+      <c r="H141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.30903001667494778</v>
+      </c>
+      <c r="I141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.39958502516357775</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.53255973551500746</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75328812260387001</v>
+      </c>
+      <c r="L141" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2533631161986245</v>
+      </c>
+      <c r="M141" s="2">
+        <f t="shared" si="13"/>
+        <v>2.4308677613723075</v>
+      </c>
+      <c r="O141" s="1">
+        <v>3.4882572183247567E-39</v>
+      </c>
+      <c r="P141">
+        <v>4.4903759852218283E-5</v>
+      </c>
+      <c r="Q141">
+        <v>1.6258206617038369E-3</v>
+      </c>
+      <c r="R141">
+        <v>2.496901825331644E-2</v>
+      </c>
+      <c r="S141">
+        <v>0.28453624322559518</v>
+      </c>
+      <c r="T141">
+        <v>0.246302907916891</v>
+      </c>
+      <c r="U141">
+        <v>0.30903001667494778</v>
+      </c>
+      <c r="V141">
+        <v>0.39958502516357775</v>
+      </c>
+      <c r="W141">
+        <v>0.53255973551500746</v>
+      </c>
+      <c r="X141">
+        <v>0.75328812260387001</v>
+      </c>
+      <c r="Y141">
+        <v>1.2533631161986245</v>
+      </c>
+      <c r="Z141">
+        <v>2.4308677613723075</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="14"/>
+        <v>3.1626309048813256E-43</v>
+      </c>
+      <c r="C142" s="2">
+        <f t="shared" si="13"/>
+        <v>3.1022447540219725E-7</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="13"/>
+        <v>4.266794283753453E-5</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="13"/>
+        <v>2.3353119220047487E-3</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="13"/>
+        <v>9.2420057529765093E-2</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="13"/>
+        <v>8.1020594348333752E-2</v>
+      </c>
+      <c r="H142" s="2">
+        <f t="shared" si="13"/>
+        <v>0.1019938003232239</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="13"/>
+        <v>0.13167470768338627</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="13"/>
+        <v>0.17164201359978504</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="13"/>
+        <v>0.22556867207607678</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" si="13"/>
+        <v>0.35966622711948887</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0616144339601741</v>
+      </c>
+      <c r="O142" s="1">
+        <v>3.1626309048813256E-43</v>
+      </c>
+      <c r="P142">
+        <v>3.1022447540219725E-7</v>
+      </c>
+      <c r="Q142">
+        <v>4.266794283753453E-5</v>
+      </c>
+      <c r="R142">
+        <v>2.3353119220047487E-3</v>
+      </c>
+      <c r="S142">
+        <v>9.2420057529765093E-2</v>
+      </c>
+      <c r="T142">
+        <v>8.1020594348333752E-2</v>
+      </c>
+      <c r="U142">
+        <v>0.1019938003232239</v>
+      </c>
+      <c r="V142">
+        <v>0.13167470768338627</v>
+      </c>
+      <c r="W142">
+        <v>0.17164201359978504</v>
+      </c>
+      <c r="X142">
+        <v>0.22556867207607678</v>
+      </c>
+      <c r="Y142">
+        <v>0.35966622711948887</v>
+      </c>
+      <c r="Z142">
+        <v>1.0616144339601741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O143" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>6</v>
+      </c>
+      <c r="S143" t="s">
+        <v>7</v>
+      </c>
+      <c r="U143" t="s">
+        <v>8</v>
+      </c>
+      <c r="W143" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O144" t="s">
+        <v>39</v>
+      </c>
+      <c r="P144" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>39</v>
+      </c>
+      <c r="R144" t="s">
+        <v>40</v>
+      </c>
+      <c r="S144" t="s">
+        <v>39</v>
+      </c>
+      <c r="T144" t="s">
+        <v>40</v>
+      </c>
+      <c r="U144" t="s">
+        <v>39</v>
+      </c>
+      <c r="V144" t="s">
+        <v>40</v>
+      </c>
+      <c r="W144" t="s">
+        <v>39</v>
+      </c>
+      <c r="X144" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1">
+        <v>2.7741572161280567E-21</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145" s="1">
+        <v>2.4633618899915961E-26</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145" s="1">
+        <v>7.0415048129700134E-28</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145" s="1">
+        <v>2.4546563596304997E-29</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145" s="1">
+        <v>5.0164864005964788E-30</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>3.242160906036796E-33</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>1.4893736222820936E-34</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>3.4882572183247567E-39</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="1">
+        <v>3.1626309048813256E-43</v>
+      </c>
+    </row>
+    <row r="146" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>1.2404095723231772</v>
+      </c>
+      <c r="P146">
+        <v>1.22669576743505</v>
+      </c>
+      <c r="Q146">
+        <v>2.479884368961319</v>
+      </c>
+      <c r="R146">
+        <v>2.4533915339178565</v>
+      </c>
+      <c r="S146">
+        <v>3.7189324119404321</v>
+      </c>
+      <c r="T146">
+        <v>3.680086396989303</v>
+      </c>
+      <c r="U146">
+        <v>4.9389856879434353</v>
+      </c>
+      <c r="V146">
+        <v>4.8979840989170889</v>
+      </c>
+      <c r="W146">
+        <v>5.5816744424193105</v>
+      </c>
+      <c r="X146">
+        <v>5.6907623877771076</v>
+      </c>
+      <c r="Y146">
+        <v>2.4501324575676948E-2</v>
+      </c>
+      <c r="Z146">
+        <v>4.0206625298021943E-2</v>
+      </c>
+      <c r="AA146">
+        <v>1.5541285655637735E-2</v>
+      </c>
+      <c r="AB146">
+        <v>1.1174860931046221E-2</v>
+      </c>
+      <c r="AC146">
+        <v>6.9066163870874938E-5</v>
+      </c>
+      <c r="AD146">
+        <v>4.4903759852218283E-5</v>
+      </c>
+      <c r="AE146">
+        <v>8.0450382640529223E-7</v>
+      </c>
+      <c r="AF146">
+        <v>3.1022447540219725E-7</v>
+      </c>
+    </row>
+    <row r="147" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>0.32294099898399375</v>
+      </c>
+      <c r="P147">
+        <v>0.32329609760176303</v>
+      </c>
+      <c r="Q147">
+        <v>0.89058130741129204</v>
+      </c>
+      <c r="R147">
+        <v>0.91556515692363394</v>
+      </c>
+      <c r="S147">
+        <v>2.8315878993894223</v>
+      </c>
+      <c r="T147">
+        <v>2.5191599963273426</v>
+      </c>
+      <c r="U147">
+        <v>8.8526194617665475</v>
+      </c>
+      <c r="V147">
+        <v>7.9315888867722144</v>
+      </c>
+      <c r="W147">
+        <v>14.32168882271179</v>
+      </c>
+      <c r="X147">
+        <v>13.189777100609897</v>
+      </c>
+      <c r="Y147">
+        <v>0.18407867395188032</v>
+      </c>
+      <c r="Z147">
+        <v>0.25886791283323213</v>
+      </c>
+      <c r="AA147">
+        <v>0.13104101280683564</v>
+      </c>
+      <c r="AB147">
+        <v>9.7466718323854631E-2</v>
+      </c>
+      <c r="AC147">
+        <v>2.2506334856644515E-3</v>
+      </c>
+      <c r="AD147">
+        <v>1.6258206617038369E-3</v>
+      </c>
+      <c r="AE147">
+        <v>8.533080681505564E-5</v>
+      </c>
+      <c r="AF147">
+        <v>4.266794283753453E-5</v>
+      </c>
+    </row>
+    <row r="148" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>0.31244702697535587</v>
+      </c>
+      <c r="P148">
+        <v>0.30960323165874981</v>
+      </c>
+      <c r="Q148">
+        <v>0.66991271719073564</v>
+      </c>
+      <c r="R148">
+        <v>0.68001863664157525</v>
+      </c>
+      <c r="S148">
+        <v>1.6143703960649776</v>
+      </c>
+      <c r="T148">
+        <v>1.5001206132896627</v>
+      </c>
+      <c r="U148">
+        <v>7.4139873012669266</v>
+      </c>
+      <c r="V148">
+        <v>6.7227031898589429</v>
+      </c>
+      <c r="W148">
+        <v>16.105595256040935</v>
+      </c>
+      <c r="X148">
+        <v>15.033271494275558</v>
+      </c>
+      <c r="Y148">
+        <v>0.57060964931746194</v>
+      </c>
+      <c r="Z148">
+        <v>0.76820484213927631</v>
+      </c>
+      <c r="AA148">
+        <v>0.4576410080839779</v>
+      </c>
+      <c r="AB148">
+        <v>0.38752169911070228</v>
+      </c>
+      <c r="AC148">
+        <v>2.8912681825139425E-2</v>
+      </c>
+      <c r="AD148">
+        <v>2.496901825331644E-2</v>
+      </c>
+      <c r="AE148">
+        <v>3.4084027670894202E-3</v>
+      </c>
+      <c r="AF148">
+        <v>2.3353119220047487E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>0.31270377002312855</v>
+      </c>
+      <c r="P149">
+        <v>0.30922808498994536</v>
+      </c>
+      <c r="Q149">
+        <v>0.65498543604954662</v>
+      </c>
+      <c r="R149">
+        <v>0.65540474191868947</v>
+      </c>
+      <c r="S149">
+        <v>1.2748349590127623</v>
+      </c>
+      <c r="T149">
+        <v>1.1977900065543921</v>
+      </c>
+      <c r="U149">
+        <v>5.7113183828234018</v>
+      </c>
+      <c r="V149">
+        <v>4.909847430063822</v>
+      </c>
+      <c r="W149">
+        <v>15.584819153357753</v>
+      </c>
+      <c r="X149">
+        <v>13.673264226609925</v>
+      </c>
+      <c r="Y149">
+        <v>1.4771646065553337</v>
+      </c>
+      <c r="Z149">
+        <v>1.7480486659546444</v>
+      </c>
+      <c r="AA149">
+        <v>1.3373974908768864</v>
+      </c>
+      <c r="AB149">
+        <v>1.1798087073378156</v>
+      </c>
+      <c r="AC149">
+        <v>0.30438466669288905</v>
+      </c>
+      <c r="AD149">
+        <v>0.28453624322559518</v>
+      </c>
+      <c r="AE149">
+        <v>0.10935291196419732</v>
+      </c>
+      <c r="AF149">
+        <v>9.2420057529765093E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>2.0267583120015371E-3</v>
+      </c>
+      <c r="P150">
+        <v>3.6680793678258799E-3</v>
+      </c>
+      <c r="Q150">
+        <v>3.5533436590711676E-2</v>
+      </c>
+      <c r="R150">
+        <v>4.6182232608344767E-2</v>
+      </c>
+      <c r="S150">
+        <v>0.27765281406067166</v>
+      </c>
+      <c r="T150">
+        <v>0.22294200635355604</v>
+      </c>
+      <c r="U150">
+        <v>3.396242196936798</v>
+      </c>
+      <c r="V150">
+        <v>2.5946538490845734</v>
+      </c>
+      <c r="W150">
+        <v>13.143152395261593</v>
+      </c>
+      <c r="X150">
+        <v>10.634284302659003</v>
+      </c>
+      <c r="Y150">
+        <v>1.647269706228027</v>
+      </c>
+      <c r="Z150">
+        <v>1.802543496289416</v>
+      </c>
+      <c r="AA150">
+        <v>1.4211285781900442</v>
+      </c>
+      <c r="AB150">
+        <v>1.1046430691632467</v>
+      </c>
+      <c r="AC150">
+        <v>0.29167283179871223</v>
+      </c>
+      <c r="AD150">
+        <v>0.246302907916891</v>
+      </c>
+      <c r="AE150">
+        <v>0.10510370165938543</v>
+      </c>
+      <c r="AF150">
+        <v>8.1020594348333752E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>1.6445832300491086E-5</v>
+      </c>
+      <c r="P151">
+        <v>6.2156445993525699E-5</v>
+      </c>
+      <c r="Q151">
+        <v>2.3145047373966262E-3</v>
+      </c>
+      <c r="R151">
+        <v>4.3921564205662376E-3</v>
+      </c>
+      <c r="S151">
+        <v>7.0697868187699159E-2</v>
+      </c>
+      <c r="T151">
+        <v>5.3290130645861085E-2</v>
+      </c>
+      <c r="U151">
+        <v>2.3202505997949445</v>
+      </c>
+      <c r="V151">
+        <v>1.7297966808534671</v>
+      </c>
+      <c r="W151">
+        <v>12.632781960430609</v>
+      </c>
+      <c r="X151">
+        <v>10.370349800391628</v>
+      </c>
+      <c r="Y151">
+        <v>2.4806362662084718</v>
+      </c>
+      <c r="Z151">
+        <v>2.76817748761838</v>
+      </c>
+      <c r="AA151">
+        <v>2.0618573556316271</v>
+      </c>
+      <c r="AB151">
+        <v>1.5698485874513173</v>
+      </c>
+      <c r="AC151">
+        <v>0.37017811440180126</v>
+      </c>
+      <c r="AD151">
+        <v>0.30903001667494778</v>
+      </c>
+      <c r="AE151">
+        <v>0.13243448744243716</v>
+      </c>
+      <c r="AF151">
+        <v>0.1019938003232239</v>
+      </c>
+    </row>
+    <row r="152" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>1.2881157795602865E-7</v>
+      </c>
+      <c r="P152">
+        <v>1.0404341959842217E-6</v>
+      </c>
+      <c r="Q152">
+        <v>1.3991451069047473E-4</v>
+      </c>
+      <c r="R152">
+        <v>3.8752134177916567E-4</v>
+      </c>
+      <c r="S152">
+        <v>1.629403725519785E-2</v>
+      </c>
+      <c r="T152">
+        <v>1.1279021463710414E-2</v>
+      </c>
+      <c r="U152">
+        <v>1.4103348377679659</v>
+      </c>
+      <c r="V152">
+        <v>1.0047552204197969</v>
+      </c>
+      <c r="W152">
+        <v>10.708848500138391</v>
+      </c>
+      <c r="X152">
+        <v>8.7613950854188563</v>
+      </c>
+      <c r="Y152">
+        <v>3.7637454307423428</v>
+      </c>
+      <c r="Z152">
+        <v>4.1786493210517932</v>
+      </c>
+      <c r="AA152">
+        <v>3.1029566644976585</v>
+      </c>
+      <c r="AB152">
+        <v>2.3285329089537137</v>
+      </c>
+      <c r="AC152">
+        <v>0.5039872274050643</v>
+      </c>
+      <c r="AD152">
+        <v>0.39958502516357775</v>
+      </c>
+      <c r="AE152">
+        <v>0.17829351612752534</v>
+      </c>
+      <c r="AF152">
+        <v>0.13167470768338627</v>
+      </c>
+    </row>
+    <row r="153" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>9.7111168417254283E-10</v>
+      </c>
+      <c r="P153">
+        <v>1.7524012817405163E-8</v>
+      </c>
+      <c r="Q153">
+        <v>7.75503402695192E-6</v>
+      </c>
+      <c r="R153">
+        <v>3.1949725547382681E-5</v>
+      </c>
+      <c r="S153">
+        <v>3.3378800151991589E-3</v>
+      </c>
+      <c r="T153">
+        <v>2.1094924846960447E-3</v>
+      </c>
+      <c r="U153">
+        <v>0.74471191539167936</v>
+      </c>
+      <c r="V153">
+        <v>0.50533393522378101</v>
+      </c>
+      <c r="W153">
+        <v>7.7875615057855301</v>
+      </c>
+      <c r="X153">
+        <v>6.3565749901412261</v>
+      </c>
+      <c r="Y153">
+        <v>5.2603744727644353</v>
+      </c>
+      <c r="Z153">
+        <v>5.814214064183008</v>
+      </c>
+      <c r="AA153">
+        <v>4.4387464578268103</v>
+      </c>
+      <c r="AB153">
+        <v>3.4164650977458306</v>
+      </c>
+      <c r="AC153">
+        <v>0.71391740031458117</v>
+      </c>
+      <c r="AD153">
+        <v>0.53255973551500746</v>
+      </c>
+      <c r="AE153">
+        <v>0.2484152522832441</v>
+      </c>
+      <c r="AF153">
+        <v>0.17164201359978504</v>
+      </c>
+    </row>
+    <row r="154" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>7.1574135930992578E-12</v>
+      </c>
+      <c r="P154">
+        <v>2.94738043740555E-10</v>
+      </c>
+      <c r="Q154">
+        <v>3.9914543378949392E-7</v>
+      </c>
+      <c r="R154">
+        <v>2.4606014045719169E-6</v>
+      </c>
+      <c r="S154">
+        <v>6.1385699846873204E-4</v>
+      </c>
+      <c r="T154">
+        <v>3.4762439629270383E-4</v>
+      </c>
+      <c r="U154">
+        <v>0.34281465537112593</v>
+      </c>
+      <c r="V154">
+        <v>0.21868498693151187</v>
+      </c>
+      <c r="W154">
+        <v>4.8561132076761746</v>
+      </c>
+      <c r="X154">
+        <v>3.9257373812331822</v>
+      </c>
+      <c r="Y154">
+        <v>6.4490667497706173</v>
+      </c>
+      <c r="Z154">
+        <v>7.1085534939180812</v>
+      </c>
+      <c r="AA154">
+        <v>5.706594358029256</v>
+      </c>
+      <c r="AB154">
+        <v>4.6692469342664458</v>
+      </c>
+      <c r="AC154">
+        <v>1.0345005895974622</v>
+      </c>
+      <c r="AD154">
+        <v>0.75328812260387001</v>
+      </c>
+      <c r="AE154">
+        <v>0.3521683493739457</v>
+      </c>
+      <c r="AF154">
+        <v>0.22556867207607678</v>
+      </c>
+    </row>
+    <row r="155" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>5.3548815905832356E-14</v>
+      </c>
+      <c r="P155">
+        <v>4.8468338185174946E-12</v>
+      </c>
+      <c r="Q155">
+        <v>1.9887706850841285E-8</v>
+      </c>
+      <c r="R155">
+        <v>1.7626927085818909E-7</v>
+      </c>
+      <c r="S155">
+        <v>1.0536280204375847E-4</v>
+      </c>
+      <c r="T155">
+        <v>5.0437739223660947E-5</v>
+      </c>
+      <c r="U155">
+        <v>0.14129655806825481</v>
+      </c>
+      <c r="V155">
+        <v>8.092222216149178E-2</v>
+      </c>
+      <c r="W155">
+        <v>2.6555828739236507</v>
+      </c>
+      <c r="X155">
+        <v>2.0470895320258249</v>
+      </c>
+      <c r="Y155">
+        <v>6.910629540757089</v>
+      </c>
+      <c r="Z155">
+        <v>7.4408153576087761</v>
+      </c>
+      <c r="AA155">
+        <v>6.5269039569605143</v>
+      </c>
+      <c r="AB155">
+        <v>5.7077310904460594</v>
+      </c>
+      <c r="AC155">
+        <v>1.5900711826562468</v>
+      </c>
+      <c r="AD155">
+        <v>1.2533631161986245</v>
+      </c>
+      <c r="AE155">
+        <v>0.55311294542223355</v>
+      </c>
+      <c r="AF155">
+        <v>0.35966622711948887</v>
+      </c>
+    </row>
+    <row r="156" spans="15:32" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>4.3591148567705831E-16</v>
+      </c>
+      <c r="P156">
+        <v>7.5140858209809983E-14</v>
+      </c>
+      <c r="Q156">
+        <v>1.0119158605313524E-9</v>
+      </c>
+      <c r="R156">
+        <v>1.1216034496040103E-8</v>
+      </c>
+      <c r="S156">
+        <v>1.7218118880218427E-5</v>
+      </c>
+      <c r="T156">
+        <v>6.078145488014099E-6</v>
+      </c>
+      <c r="U156">
+        <v>5.1586333030971869E-2</v>
+      </c>
+      <c r="V156">
+        <v>2.373863661376845E-2</v>
+      </c>
+      <c r="W156">
+        <v>1.2535262882109788</v>
+      </c>
+      <c r="X156">
+        <v>0.83497862034397397</v>
+      </c>
+      <c r="Y156">
+        <v>6.3267847003001778</v>
+      </c>
+      <c r="Z156">
+        <v>6.156968766424832</v>
+      </c>
+      <c r="AA156">
+        <v>6.4760331601590302</v>
+      </c>
+      <c r="AB156">
+        <v>5.7030912242892509</v>
+      </c>
+      <c r="AC156">
+        <v>2.6744973178056881</v>
+      </c>
+      <c r="AD156">
+        <v>2.4308677613723075</v>
+      </c>
+      <c r="AE156">
+        <v>1.21756184588099</v>
+      </c>
+      <c r="AF156">
+        <v>1.0616144339601741</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7137,7 +12776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
